--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-03.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2005"/>
+  <dimension ref="A1:H1984"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55805,10 +55805,8 @@
       </c>
       <c r="F1718" t="inlineStr"/>
       <c r="G1718" t="inlineStr"/>
-      <c r="H1718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1718" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1719">
@@ -55843,10 +55841,8 @@
           <t>0.64M</t>
         </is>
       </c>
-      <c r="H1719" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1719" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1720">
@@ -55877,10 +55873,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H1720" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1720" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1721">
@@ -55911,10 +55905,8 @@
           <t>4</t>
         </is>
       </c>
-      <c r="H1721" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1721" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1722">
@@ -55941,10 +55933,8 @@
       </c>
       <c r="F1722" t="inlineStr"/>
       <c r="G1722" t="inlineStr"/>
-      <c r="H1722" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1722" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1723">
@@ -55971,10 +55961,8 @@
       </c>
       <c r="F1723" t="inlineStr"/>
       <c r="G1723" t="inlineStr"/>
-      <c r="H1723" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1723" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1724">
@@ -56001,10 +55989,8 @@
       </c>
       <c r="F1724" t="inlineStr"/>
       <c r="G1724" t="inlineStr"/>
-      <c r="H1724" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1724" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1725">
@@ -56031,10 +56017,8 @@
       </c>
       <c r="F1725" t="inlineStr"/>
       <c r="G1725" t="inlineStr"/>
-      <c r="H1725" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1725" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1726">
@@ -56065,10 +56049,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H1726" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1726" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1727">
@@ -56099,10 +56081,8 @@
           <t>2.00%</t>
         </is>
       </c>
-      <c r="H1727" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1727" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1728">
@@ -56121,10 +56101,8 @@
       <c r="E1728" t="inlineStr"/>
       <c r="F1728" t="inlineStr"/>
       <c r="G1728" t="inlineStr"/>
-      <c r="H1728" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1728" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1729">
@@ -56155,10 +56133,8 @@
           <t>1.6M</t>
         </is>
       </c>
-      <c r="H1729" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1729" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1730">
@@ -56189,10 +56165,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1730" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1730" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1731">
@@ -56233,10 +56207,8 @@
       </c>
       <c r="F1732" t="inlineStr"/>
       <c r="G1732" t="inlineStr"/>
-      <c r="H1732" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1732" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1733">
@@ -56267,10 +56239,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1733" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1733" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1734">
@@ -56301,10 +56271,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H1734" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1734" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1735">
@@ -56335,10 +56303,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1735" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1735" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1736">
@@ -56369,10 +56335,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1736" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1736" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1737">
@@ -56403,10 +56367,8 @@
           <t>88</t>
         </is>
       </c>
-      <c r="H1737" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1737" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1738">
@@ -56437,10 +56399,8 @@
           <t>11.70%</t>
         </is>
       </c>
-      <c r="H1738" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1738" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1739">
@@ -56467,10 +56427,8 @@
       </c>
       <c r="F1739" t="inlineStr"/>
       <c r="G1739" t="inlineStr"/>
-      <c r="H1739" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1739" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1740">
@@ -56493,10 +56451,8 @@
       <c r="E1740" t="inlineStr"/>
       <c r="F1740" t="inlineStr"/>
       <c r="G1740" t="inlineStr"/>
-      <c r="H1740" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1740" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1741">
@@ -56519,10 +56475,8 @@
       <c r="E1741" t="inlineStr"/>
       <c r="F1741" t="inlineStr"/>
       <c r="G1741" t="inlineStr"/>
-      <c r="H1741" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1741" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1742">
@@ -56545,10 +56499,8 @@
       <c r="E1742" t="inlineStr"/>
       <c r="F1742" t="inlineStr"/>
       <c r="G1742" t="inlineStr"/>
-      <c r="H1742" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1742" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1743">
@@ -56575,10 +56527,8 @@
       </c>
       <c r="F1743" t="inlineStr"/>
       <c r="G1743" t="inlineStr"/>
-      <c r="H1743" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1743" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1744">
@@ -56613,10 +56563,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1744" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1744" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1745">
@@ -56647,10 +56595,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1745" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1745" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1746">
@@ -56681,10 +56627,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1746" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1746" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1747">
@@ -56715,10 +56659,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1747" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1747" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1748">
@@ -56745,10 +56687,8 @@
       </c>
       <c r="F1748" t="inlineStr"/>
       <c r="G1748" t="inlineStr"/>
-      <c r="H1748" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1748" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1749">
@@ -56779,10 +56719,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1749" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1749" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1750">
@@ -56813,10 +56751,8 @@
           <t>433</t>
         </is>
       </c>
-      <c r="H1750" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1750" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1751">
@@ -56847,10 +56783,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1751" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1751" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1752">
@@ -56881,10 +56815,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1752" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1752" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1753">
@@ -56915,10 +56847,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1753" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1753" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1754">
@@ -56953,10 +56883,8 @@
           <t>104</t>
         </is>
       </c>
-      <c r="H1754" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1754" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1755">
@@ -56987,10 +56915,8 @@
           <t>-8</t>
         </is>
       </c>
-      <c r="H1755" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1755" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1756">
@@ -57021,10 +56947,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H1756" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1756" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1757">
@@ -57055,10 +56979,8 @@
           <t>21</t>
         </is>
       </c>
-      <c r="H1757" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1757" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1758">
@@ -57089,10 +57011,8 @@
           <t>9.5</t>
         </is>
       </c>
-      <c r="H1758" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1758" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1759">
@@ -57123,10 +57043,8 @@
           <t>13</t>
         </is>
       </c>
-      <c r="H1759" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1759" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1760">
@@ -57153,10 +57071,8 @@
       </c>
       <c r="F1760" t="inlineStr"/>
       <c r="G1760" t="inlineStr"/>
-      <c r="H1760" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1760" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1761">
@@ -57183,10 +57099,8 @@
       </c>
       <c r="F1761" t="inlineStr"/>
       <c r="G1761" t="inlineStr"/>
-      <c r="H1761" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1761" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1762">
@@ -57213,10 +57127,8 @@
       </c>
       <c r="F1762" t="inlineStr"/>
       <c r="G1762" t="inlineStr"/>
-      <c r="H1762" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1762" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1763">
@@ -57243,10 +57155,8 @@
       </c>
       <c r="F1763" t="inlineStr"/>
       <c r="G1763" t="inlineStr"/>
-      <c r="H1763" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1763" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1764">
@@ -57273,10 +57183,8 @@
       </c>
       <c r="F1764" t="inlineStr"/>
       <c r="G1764" t="inlineStr"/>
-      <c r="H1764" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1764" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1765">
@@ -57307,10 +57215,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H1765" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1765" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1766">
@@ -57341,10 +57247,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1766" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1766" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1767">
@@ -57375,10 +57279,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H1767" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1767" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1768">
@@ -57409,10 +57311,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1768" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1768" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1769">
@@ -57443,10 +57343,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H1769" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1769" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1770">
@@ -57477,10 +57375,8 @@
           <t>139.1</t>
         </is>
       </c>
-      <c r="H1770" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1770" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1771">
@@ -57511,10 +57407,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1771" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1771" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1772">
@@ -57545,10 +57439,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H1772" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1772" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1773">
@@ -57575,10 +57467,8 @@
       </c>
       <c r="F1773" t="inlineStr"/>
       <c r="G1773" t="inlineStr"/>
-      <c r="H1773" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1773" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1774">
@@ -57623,10 +57513,8 @@
           <t>36.3</t>
         </is>
       </c>
-      <c r="H1775" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1775" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1776">
@@ -57657,10 +57545,8 @@
           <t>-22</t>
         </is>
       </c>
-      <c r="H1776" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1776" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1777">
@@ -57691,10 +57577,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1777" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1777" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1778">
@@ -57725,10 +57609,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1778" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1778" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1779">
@@ -57759,10 +57641,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H1779" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1779" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1780">
@@ -57793,10 +57673,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1780" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1780" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1781">
@@ -57827,10 +57705,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1781" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1781" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1782">
@@ -57861,10 +57737,8 @@
           <t>85.5</t>
         </is>
       </c>
-      <c r="H1782" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1782" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1783">
@@ -57895,10 +57769,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H1783" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1783" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1784">
@@ -57925,10 +57797,8 @@
       </c>
       <c r="F1784" t="inlineStr"/>
       <c r="G1784" t="inlineStr"/>
-      <c r="H1784" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1784" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1785">
@@ -57955,10 +57825,8 @@
       </c>
       <c r="F1785" t="inlineStr"/>
       <c r="G1785" t="inlineStr"/>
-      <c r="H1785" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1785" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1786">
@@ -57985,10 +57853,8 @@
       </c>
       <c r="F1786" t="inlineStr"/>
       <c r="G1786" t="inlineStr"/>
-      <c r="H1786" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1786" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1787">
@@ -58019,10 +57885,8 @@
           <t>2.70%</t>
         </is>
       </c>
-      <c r="H1787" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1787" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1788">
@@ -58049,10 +57913,8 @@
       </c>
       <c r="F1788" t="inlineStr"/>
       <c r="G1788" t="inlineStr"/>
-      <c r="H1788" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1788" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1789">
@@ -58079,10 +57941,8 @@
       </c>
       <c r="F1789" t="inlineStr"/>
       <c r="G1789" t="inlineStr"/>
-      <c r="H1789" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1789" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1790">
@@ -58109,10 +57969,8 @@
       </c>
       <c r="F1790" t="inlineStr"/>
       <c r="G1790" t="inlineStr"/>
-      <c r="H1790" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1790" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1791">
@@ -58139,10 +57997,8 @@
       </c>
       <c r="F1791" t="inlineStr"/>
       <c r="G1791" t="inlineStr"/>
-      <c r="H1791" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1791" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1792">
@@ -58169,10 +58025,8 @@
       </c>
       <c r="F1792" t="inlineStr"/>
       <c r="G1792" t="inlineStr"/>
-      <c r="H1792" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1792" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1793">
@@ -58203,10 +58057,8 @@
           <t>$ -101.0B</t>
         </is>
       </c>
-      <c r="H1793" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1793" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1794">
@@ -58237,10 +58089,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1794" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1794" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1795">
@@ -58271,10 +58121,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1795" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1795" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1796">
@@ -58297,10 +58145,8 @@
       <c r="E1796" t="inlineStr"/>
       <c r="F1796" t="inlineStr"/>
       <c r="G1796" t="inlineStr"/>
-      <c r="H1796" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1796" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1797">
@@ -58335,10 +58181,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1797" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1797" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1798">
@@ -58361,10 +58205,8 @@
       <c r="E1798" t="inlineStr"/>
       <c r="F1798" t="inlineStr"/>
       <c r="G1798" t="inlineStr"/>
-      <c r="H1798" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1798" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1799">
@@ -58391,10 +58233,8 @@
       </c>
       <c r="F1799" t="inlineStr"/>
       <c r="G1799" t="inlineStr"/>
-      <c r="H1799" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1799" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1800">
@@ -58421,10 +58261,8 @@
       </c>
       <c r="F1800" t="inlineStr"/>
       <c r="G1800" t="inlineStr"/>
-      <c r="H1800" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1800" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1801">
@@ -58447,10 +58285,8 @@
       <c r="E1801" t="inlineStr"/>
       <c r="F1801" t="inlineStr"/>
       <c r="G1801" t="inlineStr"/>
-      <c r="H1801" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1801" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1802">
@@ -58473,10 +58309,8 @@
       <c r="E1802" t="inlineStr"/>
       <c r="F1802" t="inlineStr"/>
       <c r="G1802" t="inlineStr"/>
-      <c r="H1802" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1802" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1803">
@@ -58499,10 +58333,8 @@
       <c r="E1803" t="inlineStr"/>
       <c r="F1803" t="inlineStr"/>
       <c r="G1803" t="inlineStr"/>
-      <c r="H1803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1803" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1804">
@@ -58525,10 +58357,8 @@
       <c r="E1804" t="inlineStr"/>
       <c r="F1804" t="inlineStr"/>
       <c r="G1804" t="inlineStr"/>
-      <c r="H1804" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1804" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1805">
@@ -58551,10 +58381,8 @@
       <c r="E1805" t="inlineStr"/>
       <c r="F1805" t="inlineStr"/>
       <c r="G1805" t="inlineStr"/>
-      <c r="H1805" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1805" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1806">
@@ -58577,10 +58405,8 @@
       <c r="E1806" t="inlineStr"/>
       <c r="F1806" t="inlineStr"/>
       <c r="G1806" t="inlineStr"/>
-      <c r="H1806" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1806" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1807">
@@ -58603,10 +58429,8 @@
       <c r="E1807" t="inlineStr"/>
       <c r="F1807" t="inlineStr"/>
       <c r="G1807" t="inlineStr"/>
-      <c r="H1807" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1807" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1808">
@@ -58637,10 +58461,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1808" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1808" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1809">
@@ -58671,10 +58493,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1809" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1809" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1810">
@@ -58701,10 +58521,8 @@
       </c>
       <c r="F1810" t="inlineStr"/>
       <c r="G1810" t="inlineStr"/>
-      <c r="H1810" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1810" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1811">
@@ -58739,10 +58557,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H1811" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1811" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1812">
@@ -58765,10 +58581,8 @@
       <c r="E1812" t="inlineStr"/>
       <c r="F1812" t="inlineStr"/>
       <c r="G1812" t="inlineStr"/>
-      <c r="H1812" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1812" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1813">
@@ -58799,10 +58613,8 @@
           <t>12.25%</t>
         </is>
       </c>
-      <c r="H1813" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1813" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1814">
@@ -58829,10 +58641,8 @@
       </c>
       <c r="F1814" t="inlineStr"/>
       <c r="G1814" t="inlineStr"/>
-      <c r="H1814" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1814" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1815">
@@ -58859,10 +58669,8 @@
       </c>
       <c r="F1815" t="inlineStr"/>
       <c r="G1815" t="inlineStr"/>
-      <c r="H1815" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1815" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1816">
@@ -58893,10 +58701,8 @@
           <t>-20.0%</t>
         </is>
       </c>
-      <c r="H1816" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1816" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1817">
@@ -58919,10 +58725,8 @@
       <c r="E1817" t="inlineStr"/>
       <c r="F1817" t="inlineStr"/>
       <c r="G1817" t="inlineStr"/>
-      <c r="H1817" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1817" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1818">
@@ -58953,10 +58757,8 @@
           <t>-6.6%</t>
         </is>
       </c>
-      <c r="H1818" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1818" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1819">
@@ -58987,10 +58789,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1819" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1819" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1820">
@@ -59035,10 +58835,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1821" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1821" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1822">
@@ -59065,10 +58863,8 @@
       </c>
       <c r="F1822" t="inlineStr"/>
       <c r="G1822" t="inlineStr"/>
-      <c r="H1822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1822" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1823">
@@ -59099,10 +58895,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1823" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1824">
@@ -59133,10 +58927,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1824" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1824" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1825">
@@ -59167,10 +58959,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H1825" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1825" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1826">
@@ -59201,10 +58991,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1826" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1826" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1827">
@@ -59235,10 +59023,8 @@
           <t>98.3</t>
         </is>
       </c>
-      <c r="H1827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1827" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1828">
@@ -59269,10 +59055,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1828" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1828" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1829">
@@ -59303,10 +59087,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1829" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1829" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1830">
@@ -59337,10 +59119,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H1830" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1830" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1831">
@@ -59371,10 +59151,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1831" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1831" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1832">
@@ -59405,10 +59183,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1832" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1832" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1833">
@@ -59439,10 +59215,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1833" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1833" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1834">
@@ -59473,10 +59247,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1834" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1834" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1835">
@@ -59507,10 +59279,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1835" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1835" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1836">
@@ -59541,10 +59311,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1836" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1836" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1837">
@@ -59575,10 +59343,8 @@
           <t>6.00%</t>
         </is>
       </c>
-      <c r="H1837" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1837" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1838">
@@ -59609,10 +59375,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1838" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1839">
@@ -59639,10 +59403,8 @@
       </c>
       <c r="F1839" t="inlineStr"/>
       <c r="G1839" t="inlineStr"/>
-      <c r="H1839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1839" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1840">
@@ -59673,10 +59435,8 @@
           <t>£ 1.3B</t>
         </is>
       </c>
-      <c r="H1840" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1840" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1841">
@@ -59707,10 +59467,8 @@
           <t>61.5K</t>
         </is>
       </c>
-      <c r="H1841" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1841" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1842">
@@ -59741,10 +59499,8 @@
           <t>£ 2.2B</t>
         </is>
       </c>
-      <c r="H1842" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1842" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1843">
@@ -59775,10 +59531,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1843" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1844">
@@ -59809,10 +59563,8 @@
           <t>£ 3.5B</t>
         </is>
       </c>
-      <c r="H1844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1844" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1845">
@@ -59843,10 +59595,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1845" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1845" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1846">
@@ -59877,10 +59627,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H1846" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1846" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1847">
@@ -59907,10 +59655,8 @@
       </c>
       <c r="F1847" t="inlineStr"/>
       <c r="G1847" t="inlineStr"/>
-      <c r="H1847" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1847" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1848">
@@ -59941,10 +59687,8 @@
           <t>93.5</t>
         </is>
       </c>
-      <c r="H1848" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1848" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1849">
@@ -59975,10 +59719,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1849" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1849" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1850">
@@ -60009,10 +59751,8 @@
           <t>22</t>
         </is>
       </c>
-      <c r="H1850" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1850" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1851">
@@ -60043,10 +59783,8 @@
           <t>-14.5</t>
         </is>
       </c>
-      <c r="H1851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1851" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1852">
@@ -60077,10 +59815,8 @@
           <t>8</t>
         </is>
       </c>
-      <c r="H1852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1852" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1853">
@@ -60111,10 +59847,8 @@
           <t>6</t>
         </is>
       </c>
-      <c r="H1853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1853" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1854">
@@ -60137,10 +59871,8 @@
       <c r="E1854" t="inlineStr"/>
       <c r="F1854" t="inlineStr"/>
       <c r="G1854" t="inlineStr"/>
-      <c r="H1854" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1854" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1855">
@@ -60171,10 +59903,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H1855" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1855" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1856">
@@ -60205,10 +59935,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H1856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1856" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1857">
@@ -60239,10 +59967,8 @@
           <t>-5.1%</t>
         </is>
       </c>
-      <c r="H1857" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1857" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1858">
@@ -60265,10 +59991,8 @@
       <c r="E1858" t="inlineStr"/>
       <c r="F1858" t="inlineStr"/>
       <c r="G1858" t="inlineStr"/>
-      <c r="H1858" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1858" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1859">
@@ -60295,10 +60019,8 @@
       </c>
       <c r="F1859" t="inlineStr"/>
       <c r="G1859" t="inlineStr"/>
-      <c r="H1859" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1859" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1860">
@@ -60329,10 +60051,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1860" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1860" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1861">
@@ -60363,10 +60083,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1861" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1861" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1862">
@@ -60397,10 +60115,8 @@
           <t>-5</t>
         </is>
       </c>
-      <c r="H1862" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1862" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1863">
@@ -60431,10 +60147,8 @@
         </is>
       </c>
       <c r="G1863" t="inlineStr"/>
-      <c r="H1863" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1863" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1864">
@@ -60461,10 +60175,8 @@
       </c>
       <c r="F1864" t="inlineStr"/>
       <c r="G1864" t="inlineStr"/>
-      <c r="H1864" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1864" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1865">
@@ -60499,10 +60211,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H1865" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1865" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1866">
@@ -60537,10 +60247,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1866" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1866" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1867">
@@ -60571,10 +60279,8 @@
           <t>3.15%</t>
         </is>
       </c>
-      <c r="H1867" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1867" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1868">
@@ -60605,10 +60311,8 @@
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H1868" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1868" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1869">
@@ -60639,10 +60343,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1869" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1869" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1870">
@@ -60673,10 +60375,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1870" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1870" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1871">
@@ -60707,10 +60407,8 @@
           <t>228.0K</t>
         </is>
       </c>
-      <c r="H1871" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1871" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1872">
@@ -60741,10 +60439,8 @@
           <t>1885.0K</t>
         </is>
       </c>
-      <c r="H1872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1872" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1873">
@@ -60775,10 +60471,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1873" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1873" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1874">
@@ -60809,10 +60503,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1874" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1874" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1875">
@@ -60843,10 +60535,8 @@
           <t>214.0K</t>
         </is>
       </c>
-      <c r="H1875" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1875" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1876">
@@ -60877,10 +60567,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H1876" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1876" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1877">
@@ -60911,10 +60599,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1877" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1877" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1878">
@@ -60937,10 +60623,8 @@
       <c r="E1878" t="inlineStr"/>
       <c r="F1878" t="inlineStr"/>
       <c r="G1878" t="inlineStr"/>
-      <c r="H1878" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1878" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1879">
@@ -60971,10 +60655,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1879" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1879" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1880">
@@ -61005,10 +60687,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1880" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1880" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1881">
@@ -61035,10 +60715,8 @@
       </c>
       <c r="F1881" t="inlineStr"/>
       <c r="G1881" t="inlineStr"/>
-      <c r="H1881" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1881" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1882">
@@ -61065,10 +60743,8 @@
       </c>
       <c r="F1882" t="inlineStr"/>
       <c r="G1882" t="inlineStr"/>
-      <c r="H1882" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1882" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1883">
@@ -61091,10 +60767,8 @@
       <c r="E1883" t="inlineStr"/>
       <c r="F1883" t="inlineStr"/>
       <c r="G1883" t="inlineStr"/>
-      <c r="H1883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1883" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1884">
@@ -61121,10 +60795,8 @@
       </c>
       <c r="F1884" t="inlineStr"/>
       <c r="G1884" t="inlineStr"/>
-      <c r="H1884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1884" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1885">
@@ -61151,10 +60823,8 @@
       </c>
       <c r="F1885" t="inlineStr"/>
       <c r="G1885" t="inlineStr"/>
-      <c r="H1885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1885" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1886">
@@ -61177,10 +60847,8 @@
       <c r="E1886" t="inlineStr"/>
       <c r="F1886" t="inlineStr"/>
       <c r="G1886" t="inlineStr"/>
-      <c r="H1886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1887">
@@ -61211,10 +60879,8 @@
           <t>2.50%</t>
         </is>
       </c>
-      <c r="H1887" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1887" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1888">
@@ -61245,10 +60911,8 @@
           <t>1.25</t>
         </is>
       </c>
-      <c r="H1888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1888" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1889">
@@ -61279,10 +60943,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1889" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1890">
@@ -61313,10 +60975,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1890" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1891">
@@ -61347,10 +61007,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H1891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1892">
@@ -61381,10 +61039,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1892" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1892" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1893">
@@ -61415,10 +61071,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H1893" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1893" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1894">
@@ -61449,10 +61103,8 @@
           <t>-1.6%</t>
         </is>
       </c>
-      <c r="H1894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1894" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1895">
@@ -61483,10 +61135,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1895" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1896">
@@ -61517,10 +61167,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1896" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1896" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1897">
@@ -61551,10 +61199,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1897" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1897" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1898">
@@ -61585,10 +61231,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1898" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1898" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1899">
@@ -61619,10 +61263,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1899" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1900">
@@ -61653,10 +61295,8 @@
           <t>5.7%</t>
         </is>
       </c>
-      <c r="H1900" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1900" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1901">
@@ -61687,10 +61327,8 @@
           <t>S$ 818.2B</t>
         </is>
       </c>
-      <c r="H1901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1901" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1902">
@@ -61717,10 +61355,8 @@
       </c>
       <c r="F1902" t="inlineStr"/>
       <c r="G1902" t="inlineStr"/>
-      <c r="H1902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1902" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1903">
@@ -61747,10 +61383,8 @@
       </c>
       <c r="F1903" t="inlineStr"/>
       <c r="G1903" t="inlineStr"/>
-      <c r="H1903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1903" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1904">
@@ -61773,10 +61407,8 @@
       </c>
       <c r="F1904" t="inlineStr"/>
       <c r="G1904" t="inlineStr"/>
-      <c r="H1904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1904" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1905">
@@ -61803,10 +61435,8 @@
           <t>10.6%</t>
         </is>
       </c>
-      <c r="H1905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1905" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1906">
@@ -61833,10 +61463,8 @@
           <t>12.8%</t>
         </is>
       </c>
-      <c r="H1906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1906" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1907">
@@ -61863,10 +61491,8 @@
           <t>90.0K</t>
         </is>
       </c>
-      <c r="H1907" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1907" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1908">
@@ -61893,10 +61519,8 @@
           <t>MXN-1120.0B</t>
         </is>
       </c>
-      <c r="H1908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1908" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1909">
@@ -61923,52 +61547,70 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1909" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1910">
       <c r="A1910" t="inlineStr">
         <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B1910" t="inlineStr"/>
-      <c r="C1910" t="inlineStr"/>
+          <t>03:55 AM</t>
+        </is>
+      </c>
+      <c r="B1910" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C1910" t="inlineStr">
+        <is>
+          <t>Unemployment ChangeJAN</t>
+        </is>
+      </c>
       <c r="D1910" t="inlineStr"/>
-      <c r="E1910" t="inlineStr"/>
+      <c r="E1910" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
+      </c>
       <c r="F1910" t="inlineStr"/>
-      <c r="G1910" t="inlineStr"/>
-      <c r="H1910" t="inlineStr"/>
+      <c r="G1910" t="inlineStr">
+        <is>
+          <t>7.0K</t>
+        </is>
+      </c>
+      <c r="H1910" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1911">
       <c r="A1911" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B1911" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1911" t="inlineStr">
         <is>
-          <t>Housing Starts YoYDEC</t>
+          <t>Unemployed PersonsJAN</t>
         </is>
       </c>
       <c r="D1911" t="inlineStr"/>
       <c r="E1911" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>2.869M</t>
         </is>
       </c>
       <c r="F1911" t="inlineStr"/>
       <c r="G1911" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>2.876M</t>
         </is>
       </c>
       <c r="H1911" t="inlineStr">
@@ -61980,65 +61622,61 @@
     <row r="1912">
       <c r="A1912" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B1912" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1912" t="inlineStr">
         <is>
-          <t>Construction Orders YoYDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D1912" t="inlineStr"/>
       <c r="E1912" t="inlineStr">
         <is>
-          <t>-10.2%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F1912" t="inlineStr"/>
       <c r="G1912" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>6.2%</t>
         </is>
       </c>
       <c r="H1912" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1913">
       <c r="A1913" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1913" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1913" t="inlineStr">
         <is>
-          <t>Business ConfidenceQ4</t>
+          <t>Baden Wuerttemberg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1913" t="inlineStr"/>
       <c r="E1913" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1913" t="inlineStr"/>
-      <c r="G1913" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+      <c r="G1913" t="inlineStr"/>
       <c r="H1913" t="inlineStr">
         <is>
           <t>3</t>
@@ -62048,7 +61686,7 @@
     <row r="1914">
       <c r="A1914" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1914" t="inlineStr">
@@ -62058,31 +61696,27 @@
       </c>
       <c r="C1914" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Baden Wuerttemberg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1914" t="inlineStr"/>
       <c r="E1914" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1914" t="inlineStr"/>
-      <c r="G1914" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1914" t="inlineStr"/>
       <c r="H1914" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1915">
       <c r="A1915" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1915" t="inlineStr">
@@ -62092,31 +61726,27 @@
       </c>
       <c r="C1915" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Bavaria CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1915" t="inlineStr"/>
       <c r="E1915" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1915" t="inlineStr"/>
-      <c r="G1915" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1915" t="inlineStr"/>
       <c r="H1915" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1916">
       <c r="A1916" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1916" t="inlineStr">
@@ -62126,21 +61756,17 @@
       </c>
       <c r="C1916" t="inlineStr">
         <is>
-          <t>Import Prices MoMDEC</t>
+          <t>Bavaria CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1916" t="inlineStr"/>
       <c r="E1916" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F1916" t="inlineStr"/>
-      <c r="G1916" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1916" t="inlineStr"/>
       <c r="H1916" t="inlineStr">
         <is>
           <t>3</t>
@@ -62150,7 +61776,7 @@
     <row r="1917">
       <c r="A1917" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1917" t="inlineStr">
@@ -62160,21 +61786,17 @@
       </c>
       <c r="C1917" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Brandenburg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1917" t="inlineStr"/>
       <c r="E1917" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F1917" t="inlineStr"/>
-      <c r="G1917" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="G1917" t="inlineStr"/>
       <c r="H1917" t="inlineStr">
         <is>
           <t>3</t>
@@ -62184,69 +61806,57 @@
     <row r="1918">
       <c r="A1918" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1918" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1918" t="inlineStr">
         <is>
-          <t>Balance of Trade FinalDEC</t>
+          <t>Brandenburg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1918" t="inlineStr"/>
       <c r="E1918" t="inlineStr">
         <is>
-          <t>$-7.46B</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1918" t="inlineStr"/>
-      <c r="G1918" t="inlineStr">
-        <is>
-          <t>$-8.82B</t>
-        </is>
-      </c>
+      <c r="G1918" t="inlineStr"/>
       <c r="H1918" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1919">
       <c r="A1919" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1919" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1919" t="inlineStr">
         <is>
-          <t>Exports FinalDEC</t>
+          <t>Hesse CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1919" t="inlineStr"/>
       <c r="E1919" t="inlineStr">
         <is>
-          <t>$22.29B</t>
-        </is>
-      </c>
-      <c r="F1919" t="inlineStr">
-        <is>
-          <t>$23.46B</t>
-        </is>
-      </c>
-      <c r="G1919" t="inlineStr">
-        <is>
-          <t>$ 23.46B</t>
-        </is>
-      </c>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F1919" t="inlineStr"/>
+      <c r="G1919" t="inlineStr"/>
       <c r="H1919" t="inlineStr">
         <is>
           <t>3</t>
@@ -62256,31 +61866,27 @@
     <row r="1920">
       <c r="A1920" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1920" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1920" t="inlineStr">
         <is>
-          <t>Imports FinalDEC</t>
+          <t>Hesse CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1920" t="inlineStr"/>
       <c r="E1920" t="inlineStr">
         <is>
-          <t>$29.75B</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1920" t="inlineStr"/>
-      <c r="G1920" t="inlineStr">
-        <is>
-          <t>$32.29B</t>
-        </is>
-      </c>
+      <c r="G1920" t="inlineStr"/>
       <c r="H1920" t="inlineStr">
         <is>
           <t>3</t>
@@ -62290,31 +61896,27 @@
     <row r="1921">
       <c r="A1921" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1921" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1921" t="inlineStr">
         <is>
-          <t>Tourism RevenuesQ4</t>
+          <t>North Rhine Westphalia CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1921" t="inlineStr"/>
       <c r="E1921" t="inlineStr">
         <is>
-          <t>$23.22B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1921" t="inlineStr"/>
-      <c r="G1921" t="inlineStr">
-        <is>
-          <t>$ 23.5B</t>
-        </is>
-      </c>
+      <c r="G1921" t="inlineStr"/>
       <c r="H1921" t="inlineStr">
         <is>
           <t>3</t>
@@ -62324,165 +61926,153 @@
     <row r="1922">
       <c r="A1922" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1922" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1922" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices MoMJAN</t>
+          <t>North Rhine Westphalia CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1922" t="inlineStr"/>
       <c r="E1922" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="F1922" t="inlineStr"/>
-      <c r="G1922" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="G1922" t="inlineStr"/>
       <c r="H1922" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1923">
       <c r="A1923" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1923" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1923" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices YoYJAN</t>
+          <t>Saxony CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1923" t="inlineStr"/>
       <c r="E1923" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1923" t="inlineStr"/>
-      <c r="G1923" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G1923" t="inlineStr"/>
       <c r="H1923" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1924">
       <c r="A1924" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1924" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1924" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Saxony CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1924" t="inlineStr"/>
       <c r="E1924" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F1924" t="inlineStr"/>
-      <c r="G1924" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G1924" t="inlineStr"/>
       <c r="H1924" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1925">
       <c r="A1925" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1925" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1925" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D1925" t="inlineStr"/>
       <c r="E1925" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>€4.9B</t>
         </is>
       </c>
       <c r="F1925" t="inlineStr"/>
       <c r="G1925" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>€5.0B</t>
         </is>
       </c>
       <c r="H1925" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1926">
       <c r="A1926" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1926" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1926" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1926" t="inlineStr"/>
       <c r="E1926" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F1926" t="inlineStr"/>
       <c r="G1926" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1926" t="inlineStr">
@@ -62494,29 +62084,29 @@
     <row r="1927">
       <c r="A1927" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1927" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1927" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1927" t="inlineStr"/>
       <c r="E1927" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F1927" t="inlineStr"/>
       <c r="G1927" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1927" t="inlineStr">
@@ -62528,31 +62118,27 @@
     <row r="1928">
       <c r="A1928" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1928" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1928" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Government Budget ValueDEC</t>
         </is>
       </c>
       <c r="D1928" t="inlineStr"/>
       <c r="E1928" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>INR-8465.9B</t>
         </is>
       </c>
       <c r="F1928" t="inlineStr"/>
-      <c r="G1928" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1928" t="inlineStr"/>
       <c r="H1928" t="inlineStr">
         <is>
           <t>3</t>
@@ -62562,29 +62148,29 @@
     <row r="1929">
       <c r="A1929" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1929" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1929" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Gross Debt to GDPDEC</t>
         </is>
       </c>
       <c r="D1929" t="inlineStr"/>
       <c r="E1929" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>77.7%</t>
         </is>
       </c>
       <c r="F1929" t="inlineStr"/>
       <c r="G1929" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>77.9%</t>
         </is>
       </c>
       <c r="H1929" t="inlineStr">
@@ -62596,29 +62182,29 @@
     <row r="1930">
       <c r="A1930" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1930" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1930" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Nominal Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D1930" t="inlineStr"/>
       <c r="E1930" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>BRL-99.1B</t>
         </is>
       </c>
       <c r="F1930" t="inlineStr"/>
       <c r="G1930" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>BRL-103.0B</t>
         </is>
       </c>
       <c r="H1930" t="inlineStr">
@@ -62630,31 +62216,27 @@
     <row r="1931">
       <c r="A1931" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1931" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1931" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Bank Loan Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D1931" t="inlineStr"/>
       <c r="E1931" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>11.2%</t>
         </is>
       </c>
       <c r="F1931" t="inlineStr"/>
-      <c r="G1931" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1931" t="inlineStr"/>
       <c r="H1931" t="inlineStr">
         <is>
           <t>3</t>
@@ -62664,23 +62246,23 @@
     <row r="1932">
       <c r="A1932" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1932" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1932" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Deposit Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D1932" t="inlineStr"/>
       <c r="E1932" t="inlineStr">
         <is>
-          <t>8.25%</t>
+          <t>9.8%</t>
         </is>
       </c>
       <c r="F1932" t="inlineStr"/>
@@ -62694,85 +62276,77 @@
     <row r="1933">
       <c r="A1933" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1933" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1933" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Foreign Exchange ReservesJAN/24</t>
         </is>
       </c>
       <c r="D1933" t="inlineStr"/>
-      <c r="E1933" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
+      <c r="E1933" t="inlineStr"/>
       <c r="F1933" t="inlineStr"/>
-      <c r="G1933" t="inlineStr">
-        <is>
-          <t>7.0K</t>
-        </is>
-      </c>
+      <c r="G1933" t="inlineStr"/>
       <c r="H1933" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1934">
       <c r="A1934" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1934" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1934" t="inlineStr">
         <is>
-          <t>Unemployed PersonsJAN</t>
+          <t>Infrastructure Output YoYDEC</t>
         </is>
       </c>
       <c r="D1934" t="inlineStr"/>
       <c r="E1934" t="inlineStr">
         <is>
-          <t>2.869M</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1934" t="inlineStr"/>
       <c r="G1934" t="inlineStr">
         <is>
-          <t>2.876M</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="H1934" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1935">
       <c r="A1935" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1935" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1935" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D1935" t="inlineStr"/>
@@ -62784,7 +62358,7 @@
       <c r="F1935" t="inlineStr"/>
       <c r="G1935" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="H1935" t="inlineStr">
@@ -62796,37 +62370,41 @@
     <row r="1936">
       <c r="A1936" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1936" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1936" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI MoMJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1936" t="inlineStr"/>
       <c r="E1936" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>ZAR34.7B</t>
         </is>
       </c>
       <c r="F1936" t="inlineStr"/>
-      <c r="G1936" t="inlineStr"/>
+      <c r="G1936" t="inlineStr">
+        <is>
+          <t>ZAR 18B</t>
+        </is>
+      </c>
       <c r="H1936" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1937">
       <c r="A1937" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1937" t="inlineStr">
@@ -62836,7 +62414,7 @@
       </c>
       <c r="C1937" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI YoYJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1937" t="inlineStr"/>
@@ -62846,17 +62424,21 @@
         </is>
       </c>
       <c r="F1937" t="inlineStr"/>
-      <c r="G1937" t="inlineStr"/>
+      <c r="G1937" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1937" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1938">
       <c r="A1938" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1938" t="inlineStr">
@@ -62866,7 +62448,7 @@
       </c>
       <c r="C1938" t="inlineStr">
         <is>
-          <t>Bavaria CPI MoMJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1938" t="inlineStr"/>
@@ -62876,17 +62458,21 @@
         </is>
       </c>
       <c r="F1938" t="inlineStr"/>
-      <c r="G1938" t="inlineStr"/>
+      <c r="G1938" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1938" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1939">
       <c r="A1939" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1939" t="inlineStr">
@@ -62896,17 +62482,21 @@
       </c>
       <c r="C1939" t="inlineStr">
         <is>
-          <t>Bavaria CPI YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1939" t="inlineStr"/>
       <c r="E1939" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1939" t="inlineStr"/>
-      <c r="G1939" t="inlineStr"/>
+      <c r="G1939" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1939" t="inlineStr">
         <is>
           <t>3</t>
@@ -62916,7 +62506,7 @@
     <row r="1940">
       <c r="A1940" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1940" t="inlineStr">
@@ -62926,17 +62516,21 @@
       </c>
       <c r="C1940" t="inlineStr">
         <is>
-          <t>Brandenburg CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1940" t="inlineStr"/>
       <c r="E1940" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1940" t="inlineStr"/>
-      <c r="G1940" t="inlineStr"/>
+      <c r="G1940" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H1940" t="inlineStr">
         <is>
           <t>3</t>
@@ -62946,339 +62540,383 @@
     <row r="1941">
       <c r="A1941" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1941" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1941" t="inlineStr">
         <is>
-          <t>Brandenburg CPI YoYJAN</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D1941" t="inlineStr"/>
       <c r="E1941" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1941" t="inlineStr"/>
-      <c r="G1941" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1941" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="G1941" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="H1941" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1942">
       <c r="A1942" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1942" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1942" t="inlineStr">
         <is>
-          <t>Hesse CPI MoMJAN</t>
+          <t>GDP MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1942" t="inlineStr"/>
       <c r="E1942" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1942" t="inlineStr"/>
-      <c r="G1942" t="inlineStr"/>
+      <c r="G1942" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1942" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1943">
       <c r="A1943" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1943" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1943" t="inlineStr">
         <is>
-          <t>Hesse CPI YoYJAN</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1943" t="inlineStr"/>
       <c r="E1943" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1943" t="inlineStr"/>
-      <c r="G1943" t="inlineStr"/>
+      <c r="G1943" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1943" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1944">
       <c r="A1944" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1944" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1944" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI MoMJAN</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="D1944" t="inlineStr"/>
       <c r="E1944" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1944" t="inlineStr"/>
-      <c r="G1944" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1944" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G1944" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1944" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1945">
       <c r="A1945" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1945" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1945" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI YoYJAN</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="D1945" t="inlineStr"/>
       <c r="E1945" t="inlineStr">
         <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="F1945" t="inlineStr"/>
-      <c r="G1945" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F1945" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G1945" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1945" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1946">
       <c r="A1946" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1946" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1946" t="inlineStr">
         <is>
-          <t>Saxony CPI MoMJAN</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="D1946" t="inlineStr"/>
       <c r="E1946" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1946" t="inlineStr"/>
-      <c r="G1946" t="inlineStr"/>
+      <c r="G1946" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H1946" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1947">
       <c r="A1947" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1947" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1947" t="inlineStr">
         <is>
-          <t>Saxony CPI YoYJAN</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="D1947" t="inlineStr"/>
       <c r="E1947" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1947" t="inlineStr"/>
-      <c r="G1947" t="inlineStr"/>
+      <c r="G1947" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H1947" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1948">
       <c r="A1948" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1948" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1948" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="D1948" t="inlineStr"/>
       <c r="E1948" t="inlineStr">
         <is>
-          <t>€4.9B</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1948" t="inlineStr"/>
       <c r="G1948" t="inlineStr">
         <is>
-          <t>€5.0B</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1948" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1949">
       <c r="A1949" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1949" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1949" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1949" t="inlineStr"/>
       <c r="E1949" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1949" t="inlineStr"/>
       <c r="G1949" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1949" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1950">
       <c r="A1950" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1950" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1950" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1950" t="inlineStr"/>
       <c r="E1950" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1950" t="inlineStr"/>
       <c r="G1950" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="H1950" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1951">
       <c r="A1951" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1951" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1951" t="inlineStr">
         <is>
-          <t>Government Budget ValueDEC</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1951" t="inlineStr"/>
       <c r="E1951" t="inlineStr">
         <is>
-          <t>INR-8465.9B</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1951" t="inlineStr"/>
-      <c r="G1951" t="inlineStr"/>
+      <c r="G1951" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H1951" t="inlineStr">
         <is>
           <t>3</t>
@@ -63288,63 +62926,63 @@
     <row r="1952">
       <c r="A1952" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1952" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1952" t="inlineStr">
         <is>
-          <t>Gross Debt to GDPDEC</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="D1952" t="inlineStr"/>
       <c r="E1952" t="inlineStr">
         <is>
-          <t>77.7%</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="F1952" t="inlineStr"/>
       <c r="G1952" t="inlineStr">
         <is>
-          <t>77.9%</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="H1952" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1953">
       <c r="A1953" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1953" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1953" t="inlineStr">
         <is>
-          <t>Nominal Budget BalanceDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D1953" t="inlineStr"/>
       <c r="E1953" t="inlineStr">
         <is>
-          <t>BRL-99.1B</t>
+          <t>C$-1.49B</t>
         </is>
       </c>
       <c r="F1953" t="inlineStr"/>
       <c r="G1953" t="inlineStr">
         <is>
-          <t>BRL-103.0B</t>
+          <t>C$-1.9B</t>
         </is>
       </c>
       <c r="H1953" t="inlineStr">
@@ -63356,25 +62994,21 @@
     <row r="1954">
       <c r="A1954" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1954" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1954" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/17</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="D1954" t="inlineStr"/>
-      <c r="E1954" t="inlineStr">
-        <is>
-          <t>11.2%</t>
-        </is>
-      </c>
+      <c r="E1954" t="inlineStr"/>
       <c r="F1954" t="inlineStr"/>
       <c r="G1954" t="inlineStr"/>
       <c r="H1954" t="inlineStr">
@@ -63386,25 +63020,21 @@
     <row r="1955">
       <c r="A1955" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1955" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1955" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/17</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="D1955" t="inlineStr"/>
-      <c r="E1955" t="inlineStr">
-        <is>
-          <t>9.8%</t>
-        </is>
-      </c>
+      <c r="E1955" t="inlineStr"/>
       <c r="F1955" t="inlineStr"/>
       <c r="G1955" t="inlineStr"/>
       <c r="H1955" t="inlineStr">
@@ -63416,57 +63046,57 @@
     <row r="1956">
       <c r="A1956" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1956" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1956" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/24</t>
+          <t>Exports YoYJAN</t>
         </is>
       </c>
       <c r="D1956" t="inlineStr"/>
-      <c r="E1956" t="inlineStr"/>
+      <c r="E1956" t="inlineStr">
+        <is>
+          <t>6.6%</t>
+        </is>
+      </c>
       <c r="F1956" t="inlineStr"/>
       <c r="G1956" t="inlineStr"/>
       <c r="H1956" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1957">
       <c r="A1957" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1957" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1957" t="inlineStr">
         <is>
-          <t>Infrastructure Output YoYDEC</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D1957" t="inlineStr"/>
       <c r="E1957" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>$6.49B</t>
         </is>
       </c>
       <c r="F1957" t="inlineStr"/>
-      <c r="G1957" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="G1957" t="inlineStr"/>
       <c r="H1957" t="inlineStr">
         <is>
           <t>3</t>
@@ -63476,165 +63106,145 @@
     <row r="1958">
       <c r="A1958" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1958" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1958" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Imports YoYJAN</t>
         </is>
       </c>
       <c r="D1958" t="inlineStr"/>
       <c r="E1958" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F1958" t="inlineStr"/>
-      <c r="G1958" t="inlineStr">
-        <is>
-          <t>6.1%</t>
-        </is>
-      </c>
+      <c r="G1958" t="inlineStr"/>
       <c r="H1958" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1959">
-      <c r="A1959" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
+      <c r="A1959" t="inlineStr"/>
       <c r="B1959" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1959" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D1959" t="inlineStr"/>
       <c r="E1959" t="inlineStr">
         <is>
-          <t>ZAR34.7B</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F1959" t="inlineStr"/>
       <c r="G1959" t="inlineStr">
         <is>
-          <t>ZAR 18B</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H1959" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1960">
-      <c r="A1960" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
+      <c r="A1960" t="inlineStr"/>
       <c r="B1960" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1960" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D1960" t="inlineStr"/>
       <c r="E1960" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>28.8%</t>
         </is>
       </c>
       <c r="F1960" t="inlineStr"/>
       <c r="G1960" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H1960" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1961">
-      <c r="A1961" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
+      <c r="A1961" t="inlineStr"/>
       <c r="B1961" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1961" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D1961" t="inlineStr"/>
       <c r="E1961" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-4.9%</t>
         </is>
       </c>
       <c r="F1961" t="inlineStr"/>
       <c r="G1961" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-4.0%</t>
         </is>
       </c>
       <c r="H1961" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1962">
-      <c r="A1962" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
+      <c r="A1962" t="inlineStr"/>
       <c r="B1962" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1962" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1962" t="inlineStr"/>
       <c r="E1962" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="F1962" t="inlineStr"/>
       <c r="G1962" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H1962" t="inlineStr">
@@ -63646,69 +63256,41 @@
     <row r="1963">
       <c r="A1963" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B1963" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1963" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
-        </is>
-      </c>
+          <t>Sunday February 02 2025</t>
+        </is>
+      </c>
+      <c r="B1963" t="inlineStr"/>
+      <c r="C1963" t="inlineStr"/>
       <c r="D1963" t="inlineStr"/>
-      <c r="E1963" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="E1963" t="inlineStr"/>
       <c r="F1963" t="inlineStr"/>
-      <c r="G1963" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H1963" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1963" t="inlineStr"/>
+      <c r="H1963" t="inlineStr"/>
     </row>
     <row r="1964">
       <c r="A1964" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1964" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1964" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1964" t="inlineStr"/>
       <c r="E1964" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1964" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G1964" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+          <t>47.8</t>
+        </is>
+      </c>
+      <c r="F1964" t="inlineStr"/>
+      <c r="G1964" t="inlineStr"/>
       <c r="H1964" t="inlineStr">
         <is>
           <t>2</t>
@@ -63718,51 +63300,51 @@
     <row r="1965">
       <c r="A1965" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1965" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1965" t="inlineStr">
         <is>
-          <t>GDP MoM PrelDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1965" t="inlineStr"/>
       <c r="E1965" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1965" t="inlineStr"/>
       <c r="G1965" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1965" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1966">
       <c r="A1966" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1966" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1966" t="inlineStr">
         <is>
-          <t>Core PCE Price Index MoMDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1966" t="inlineStr"/>
@@ -63774,117 +63356,101 @@
       <c r="F1966" t="inlineStr"/>
       <c r="G1966" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="H1966" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1967">
       <c r="A1967" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1967" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1967" t="inlineStr">
         <is>
-          <t>Personal Income MoMDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1967" t="inlineStr"/>
       <c r="E1967" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1967" t="inlineStr">
-        <is>
           <t>0.4%</t>
         </is>
       </c>
+      <c r="F1967" t="inlineStr"/>
       <c r="G1967" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1967" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1968">
       <c r="A1968" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1968" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1968" t="inlineStr">
         <is>
-          <t>Personal Spending MoMDEC</t>
+          <t>BoJ Summary of Opinions</t>
         </is>
       </c>
       <c r="D1968" t="inlineStr"/>
-      <c r="E1968" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F1968" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1968" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E1968" t="inlineStr"/>
+      <c r="F1968" t="inlineStr"/>
+      <c r="G1968" t="inlineStr"/>
       <c r="H1968" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1969">
       <c r="A1969" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1969" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1969" t="inlineStr">
         <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1969" t="inlineStr"/>
       <c r="E1969" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F1969" t="inlineStr"/>
       <c r="G1969" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H1969" t="inlineStr">
@@ -63896,17 +63462,17 @@
     <row r="1970">
       <c r="A1970" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1970" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1970" t="inlineStr">
         <is>
-          <t>Employment Cost - Wages QoQQ4</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1970" t="inlineStr"/>
@@ -63918,7 +63484,7 @@
       <c r="F1970" t="inlineStr"/>
       <c r="G1970" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1970" t="inlineStr">
@@ -63930,167 +63496,147 @@
     <row r="1971">
       <c r="A1971" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1971" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1971" t="inlineStr">
         <is>
-          <t>Employment Cost Index QoQQ4</t>
+          <t>ANZ-Indeed Job Ads MoMJAN</t>
         </is>
       </c>
       <c r="D1971" t="inlineStr"/>
       <c r="E1971" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1971" t="inlineStr"/>
-      <c r="G1971" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G1971" t="inlineStr"/>
       <c r="H1971" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1972">
       <c r="A1972" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1972" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1972" t="inlineStr">
         <is>
-          <t>PCE Price Index MoMDEC</t>
+          <t>Private House Approvals MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1972" t="inlineStr"/>
       <c r="E1972" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F1972" t="inlineStr"/>
-      <c r="G1972" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1972" t="inlineStr"/>
       <c r="H1972" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1973">
       <c r="A1973" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1973" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1973" t="inlineStr">
         <is>
-          <t>PCE Price Index YoYDEC</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1973" t="inlineStr"/>
       <c r="E1973" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F1973" t="inlineStr"/>
       <c r="G1973" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="H1973" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1974">
       <c r="A1974" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1974" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1974" t="inlineStr">
         <is>
-          <t>Core PCE Price Index YoYDEC</t>
+          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1974" t="inlineStr"/>
       <c r="E1974" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="F1974" t="inlineStr"/>
-      <c r="G1974" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="G1974" t="inlineStr"/>
       <c r="H1974" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1975">
       <c r="A1975" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1975" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1975" t="inlineStr">
         <is>
-          <t>Chicago PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1975" t="inlineStr"/>
-      <c r="E1975" t="inlineStr">
-        <is>
-          <t>36.9</t>
-        </is>
-      </c>
+      <c r="E1975" t="inlineStr"/>
       <c r="F1975" t="inlineStr"/>
-      <c r="G1975" t="inlineStr">
-        <is>
-          <t>37.2</t>
-        </is>
-      </c>
+      <c r="G1975" t="inlineStr"/>
       <c r="H1975" t="inlineStr">
         <is>
           <t>2</t>
@@ -64100,81 +63646,89 @@
     <row r="1976">
       <c r="A1976" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>08:45 PM</t>
         </is>
       </c>
       <c r="B1976" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1976" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>Caixin Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1976" t="inlineStr"/>
       <c r="E1976" t="inlineStr">
         <is>
-          <t>C$-1.49B</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="F1976" t="inlineStr"/>
       <c r="G1976" t="inlineStr">
         <is>
-          <t>C$-1.9B</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="H1976" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1977">
       <c r="A1977" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B1977" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1977" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1977" t="inlineStr"/>
-      <c r="E1977" t="inlineStr"/>
+      <c r="E1977" t="inlineStr">
+        <is>
+          <t>1.57%</t>
+        </is>
+      </c>
       <c r="F1977" t="inlineStr"/>
       <c r="G1977" t="inlineStr"/>
       <c r="H1977" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1978">
       <c r="A1978" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B1978" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1978" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1978" t="inlineStr"/>
-      <c r="E1978" t="inlineStr"/>
+      <c r="E1978" t="inlineStr">
+        <is>
+          <t>2.26%</t>
+        </is>
+      </c>
       <c r="F1978" t="inlineStr"/>
       <c r="G1978" t="inlineStr"/>
       <c r="H1978" t="inlineStr">
@@ -64186,53 +63740,53 @@
     <row r="1979">
       <c r="A1979" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B1979" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1979" t="inlineStr">
         <is>
-          <t>Exports YoYJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1979" t="inlineStr"/>
       <c r="E1979" t="inlineStr">
         <is>
-          <t>6.6%</t>
+          <t>0.44%</t>
         </is>
       </c>
       <c r="F1979" t="inlineStr"/>
       <c r="G1979" t="inlineStr"/>
       <c r="H1979" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1980">
       <c r="A1980" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:45 PM</t>
         </is>
       </c>
       <c r="B1980" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1980" t="inlineStr">
         <is>
-          <t>Balance of TradeJAN</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D1980" t="inlineStr"/>
       <c r="E1980" t="inlineStr">
         <is>
-          <t>$6.49B</t>
+          <t>17.27%</t>
         </is>
       </c>
       <c r="F1980" t="inlineStr"/>
@@ -64246,57 +63800,41 @@
     <row r="1981">
       <c r="A1981" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1981" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1981" t="inlineStr">
-        <is>
-          <t>Imports YoYJAN</t>
-        </is>
-      </c>
+          <t>Monday February 03 2025</t>
+        </is>
+      </c>
+      <c r="B1981" t="inlineStr"/>
+      <c r="C1981" t="inlineStr"/>
       <c r="D1981" t="inlineStr"/>
-      <c r="E1981" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="E1981" t="inlineStr"/>
       <c r="F1981" t="inlineStr"/>
       <c r="G1981" t="inlineStr"/>
-      <c r="H1981" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1981" t="inlineStr"/>
     </row>
     <row r="1982">
-      <c r="A1982" t="inlineStr"/>
+      <c r="A1982" t="inlineStr">
+        <is>
+          <t>12:00 AM</t>
+        </is>
+      </c>
       <c r="B1982" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1982" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>HSBC Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1982" t="inlineStr"/>
       <c r="E1982" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1982" t="inlineStr"/>
-      <c r="G1982" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G1982" t="inlineStr"/>
       <c r="H1982" t="inlineStr">
         <is>
           <t>3</t>
@@ -64304,29 +63842,29 @@
       </c>
     </row>
     <row r="1983">
-      <c r="A1983" t="inlineStr"/>
+      <c r="A1983" t="inlineStr">
+        <is>
+          <t>12:30 AM</t>
+        </is>
+      </c>
       <c r="B1983" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1983" t="inlineStr">
         <is>
-          <t>New Car Sales YoYJAN</t>
+          <t>Commodity Prices YoYJAN</t>
         </is>
       </c>
       <c r="D1983" t="inlineStr"/>
       <c r="E1983" t="inlineStr">
         <is>
-          <t>28.8%</t>
+          <t>-10.7%</t>
         </is>
       </c>
       <c r="F1983" t="inlineStr"/>
-      <c r="G1983" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="G1983" t="inlineStr"/>
       <c r="H1983" t="inlineStr">
         <is>
           <t>3</t>
@@ -64334,650 +63872,32 @@
       </c>
     </row>
     <row r="1984">
-      <c r="A1984" t="inlineStr"/>
+      <c r="A1984" t="inlineStr">
+        <is>
+          <t>01:00 AM</t>
+        </is>
+      </c>
       <c r="B1984" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1984" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1984" t="inlineStr"/>
       <c r="E1984" t="inlineStr">
         <is>
-          <t>-4.9%</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F1984" t="inlineStr"/>
-      <c r="G1984" t="inlineStr">
-        <is>
-          <t>-4.0%</t>
-        </is>
-      </c>
+      <c r="G1984" t="inlineStr"/>
       <c r="H1984" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1985">
-      <c r="A1985" t="inlineStr"/>
-      <c r="B1985" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C1985" t="inlineStr">
-        <is>
-          <t>M2 Money Supply YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1985" t="inlineStr"/>
-      <c r="E1985" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="F1985" t="inlineStr"/>
-      <c r="G1985" t="inlineStr">
-        <is>
-          <t>20.7%</t>
-        </is>
-      </c>
-      <c r="H1985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1986">
-      <c r="A1986" t="inlineStr">
-        <is>
-          <t>Sunday February 02 2025</t>
-        </is>
-      </c>
-      <c r="B1986" t="inlineStr"/>
-      <c r="C1986" t="inlineStr"/>
-      <c r="D1986" t="inlineStr"/>
-      <c r="E1986" t="inlineStr"/>
-      <c r="F1986" t="inlineStr"/>
-      <c r="G1986" t="inlineStr"/>
-      <c r="H1986" t="inlineStr"/>
-    </row>
-    <row r="1987">
-      <c r="A1987" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B1987" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1987" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D1987" t="inlineStr"/>
-      <c r="E1987" t="inlineStr">
-        <is>
-          <t>47.8</t>
-        </is>
-      </c>
-      <c r="F1987" t="inlineStr"/>
-      <c r="G1987" t="inlineStr"/>
-      <c r="H1987" t="inlineStr">
-        <is>
           <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1988">
-      <c r="A1988" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1988" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1988" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1988" t="inlineStr"/>
-      <c r="E1988" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F1988" t="inlineStr"/>
-      <c r="G1988" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H1988" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1989">
-      <c r="A1989" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1989" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1989" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1989" t="inlineStr"/>
-      <c r="E1989" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1989" t="inlineStr"/>
-      <c r="G1989" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="H1989" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1990">
-      <c r="A1990" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1990" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1990" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1990" t="inlineStr"/>
-      <c r="E1990" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F1990" t="inlineStr"/>
-      <c r="G1990" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H1990" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1991">
-      <c r="A1991" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B1991" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1991" t="inlineStr">
-        <is>
-          <t>BoJ Summary of Opinions</t>
-        </is>
-      </c>
-      <c r="D1991" t="inlineStr"/>
-      <c r="E1991" t="inlineStr"/>
-      <c r="F1991" t="inlineStr"/>
-      <c r="G1991" t="inlineStr"/>
-      <c r="H1991" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1992">
-      <c r="A1992" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1992" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1992" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelDEC</t>
-        </is>
-      </c>
-      <c r="D1992" t="inlineStr"/>
-      <c r="E1992" t="inlineStr">
-        <is>
-          <t>-3.6%</t>
-        </is>
-      </c>
-      <c r="F1992" t="inlineStr"/>
-      <c r="G1992" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H1992" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1993">
-      <c r="A1993" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1993" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1993" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1993" t="inlineStr"/>
-      <c r="E1993" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F1993" t="inlineStr"/>
-      <c r="G1993" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1993" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1994">
-      <c r="A1994" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1994" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1994" t="inlineStr">
-        <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
-        </is>
-      </c>
-      <c r="D1994" t="inlineStr"/>
-      <c r="E1994" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1994" t="inlineStr"/>
-      <c r="G1994" t="inlineStr"/>
-      <c r="H1994" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1995">
-      <c r="A1995" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1995" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1995" t="inlineStr">
-        <is>
-          <t>Private House Approvals MoM PrelDEC</t>
-        </is>
-      </c>
-      <c r="D1995" t="inlineStr"/>
-      <c r="E1995" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F1995" t="inlineStr"/>
-      <c r="G1995" t="inlineStr"/>
-      <c r="H1995" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1996">
-      <c r="A1996" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1996" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C1996" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D1996" t="inlineStr"/>
-      <c r="E1996" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F1996" t="inlineStr"/>
-      <c r="G1996" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="H1996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1997">
-      <c r="A1997" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1997" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1997" t="inlineStr">
-        <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D1997" t="inlineStr"/>
-      <c r="E1997" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1997" t="inlineStr"/>
-      <c r="G1997" t="inlineStr"/>
-      <c r="H1997" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1998">
-      <c r="A1998" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1998" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1998" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D1998" t="inlineStr"/>
-      <c r="E1998" t="inlineStr"/>
-      <c r="F1998" t="inlineStr"/>
-      <c r="G1998" t="inlineStr"/>
-      <c r="H1998" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1999">
-      <c r="A1999" t="inlineStr">
-        <is>
-          <t>08:45 PM</t>
-        </is>
-      </c>
-      <c r="B1999" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C1999" t="inlineStr">
-        <is>
-          <t>Caixin Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D1999" t="inlineStr"/>
-      <c r="E1999" t="inlineStr">
-        <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="F1999" t="inlineStr"/>
-      <c r="G1999" t="inlineStr">
-        <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="H1999" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2000">
-      <c r="A2000" t="inlineStr">
-        <is>
-          <t>11:00 PM</t>
-        </is>
-      </c>
-      <c r="B2000" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C2000" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2000" t="inlineStr"/>
-      <c r="E2000" t="inlineStr">
-        <is>
-          <t>1.57%</t>
-        </is>
-      </c>
-      <c r="F2000" t="inlineStr"/>
-      <c r="G2000" t="inlineStr"/>
-      <c r="H2000" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2001">
-      <c r="A2001" t="inlineStr">
-        <is>
-          <t>11:00 PM</t>
-        </is>
-      </c>
-      <c r="B2001" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C2001" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2001" t="inlineStr"/>
-      <c r="E2001" t="inlineStr">
-        <is>
-          <t>2.26%</t>
-        </is>
-      </c>
-      <c r="F2001" t="inlineStr"/>
-      <c r="G2001" t="inlineStr"/>
-      <c r="H2001" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2002">
-      <c r="A2002" t="inlineStr">
-        <is>
-          <t>11:00 PM</t>
-        </is>
-      </c>
-      <c r="B2002" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C2002" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2002" t="inlineStr"/>
-      <c r="E2002" t="inlineStr">
-        <is>
-          <t>0.44%</t>
-        </is>
-      </c>
-      <c r="F2002" t="inlineStr"/>
-      <c r="G2002" t="inlineStr"/>
-      <c r="H2002" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2003">
-      <c r="A2003" t="inlineStr">
-        <is>
-          <t>11:45 PM</t>
-        </is>
-      </c>
-      <c r="B2003" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C2003" t="inlineStr">
-        <is>
-          <t>Tourist Arrivals YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2003" t="inlineStr"/>
-      <c r="E2003" t="inlineStr">
-        <is>
-          <t>17.27%</t>
-        </is>
-      </c>
-      <c r="F2003" t="inlineStr"/>
-      <c r="G2003" t="inlineStr"/>
-      <c r="H2003" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2004">
-      <c r="A2004" t="inlineStr">
-        <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2004" t="inlineStr"/>
-      <c r="C2004" t="inlineStr"/>
-      <c r="D2004" t="inlineStr"/>
-      <c r="E2004" t="inlineStr"/>
-      <c r="F2004" t="inlineStr"/>
-      <c r="G2004" t="inlineStr"/>
-      <c r="H2004" t="inlineStr"/>
-    </row>
-    <row r="2005">
-      <c r="A2005" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2005" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C2005" t="inlineStr">
-        <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2005" t="inlineStr"/>
-      <c r="E2005" t="inlineStr">
-        <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2005" t="inlineStr"/>
-      <c r="G2005" t="inlineStr"/>
-      <c r="H2005" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
     </row>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-03.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2029"/>
+  <dimension ref="A1:H2018"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55667,10 +55667,8 @@
           <t>99</t>
         </is>
       </c>
-      <c r="H1713" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1713" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1714">
@@ -55701,10 +55699,8 @@
           <t>75.8%</t>
         </is>
       </c>
-      <c r="H1714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1714" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1715">
@@ -55735,10 +55731,8 @@
           <t>84.5</t>
         </is>
       </c>
-      <c r="H1715" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1715" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1716">
@@ -55769,10 +55763,8 @@
           <t>84.5</t>
         </is>
       </c>
-      <c r="H1716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1716" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1717">
@@ -55803,10 +55795,8 @@
           <t>84</t>
         </is>
       </c>
-      <c r="H1717" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1717" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1718">
@@ -55829,10 +55819,8 @@
       <c r="E1718" t="inlineStr"/>
       <c r="F1718" t="inlineStr"/>
       <c r="G1718" t="inlineStr"/>
-      <c r="H1718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1718" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1719">
@@ -55863,10 +55851,8 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="H1719" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1719" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1720">
@@ -55897,10 +55883,8 @@
           <t>2875K</t>
         </is>
       </c>
-      <c r="H1720" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1720" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1721">
@@ -55931,10 +55915,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1721" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1721" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1722">
@@ -55965,10 +55947,8 @@
           <t>$ 0.4B</t>
         </is>
       </c>
-      <c r="H1722" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1722" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1723">
@@ -55999,10 +55979,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1723" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1723" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1724">
@@ -56033,10 +56011,8 @@
           <t>0.1</t>
         </is>
       </c>
-      <c r="H1724" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1724" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1725">
@@ -56063,10 +56039,8 @@
       </c>
       <c r="F1725" t="inlineStr"/>
       <c r="G1725" t="inlineStr"/>
-      <c r="H1725" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1725" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1726">
@@ -56093,10 +56067,8 @@
       </c>
       <c r="F1726" t="inlineStr"/>
       <c r="G1726" t="inlineStr"/>
-      <c r="H1726" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1726" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1727">
@@ -56123,10 +56095,8 @@
       </c>
       <c r="F1727" t="inlineStr"/>
       <c r="G1727" t="inlineStr"/>
-      <c r="H1727" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1727" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1728">
@@ -56161,10 +56131,8 @@
           <t>0.64M</t>
         </is>
       </c>
-      <c r="H1728" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1728" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1729">
@@ -56195,10 +56163,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H1729" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1729" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1730">
@@ -56229,10 +56195,8 @@
           <t>4</t>
         </is>
       </c>
-      <c r="H1730" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1730" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1731">
@@ -56259,10 +56223,8 @@
       </c>
       <c r="F1731" t="inlineStr"/>
       <c r="G1731" t="inlineStr"/>
-      <c r="H1731" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1731" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1732">
@@ -56289,10 +56251,8 @@
       </c>
       <c r="F1732" t="inlineStr"/>
       <c r="G1732" t="inlineStr"/>
-      <c r="H1732" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1732" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1733">
@@ -56319,10 +56279,8 @@
       </c>
       <c r="F1733" t="inlineStr"/>
       <c r="G1733" t="inlineStr"/>
-      <c r="H1733" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1733" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1734">
@@ -56349,10 +56307,8 @@
       </c>
       <c r="F1734" t="inlineStr"/>
       <c r="G1734" t="inlineStr"/>
-      <c r="H1734" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1734" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1735">
@@ -56383,10 +56339,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H1735" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1735" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1736">
@@ -56417,10 +56371,8 @@
           <t>2.00%</t>
         </is>
       </c>
-      <c r="H1736" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1736" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1737">
@@ -56439,10 +56391,8 @@
       <c r="E1737" t="inlineStr"/>
       <c r="F1737" t="inlineStr"/>
       <c r="G1737" t="inlineStr"/>
-      <c r="H1737" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1737" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1738">
@@ -56473,10 +56423,8 @@
           <t>1.6M</t>
         </is>
       </c>
-      <c r="H1738" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1738" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1739">
@@ -56507,10 +56455,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1739" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1739" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1740">
@@ -56551,10 +56497,8 @@
       </c>
       <c r="F1741" t="inlineStr"/>
       <c r="G1741" t="inlineStr"/>
-      <c r="H1741" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1741" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1742">
@@ -56585,10 +56529,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1742" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1742" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1743">
@@ -56619,10 +56561,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H1743" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1743" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1744">
@@ -56653,10 +56593,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1744" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1744" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1745">
@@ -56687,10 +56625,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1745" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1745" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1746">
@@ -56721,10 +56657,8 @@
           <t>88</t>
         </is>
       </c>
-      <c r="H1746" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1746" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1747">
@@ -56755,10 +56689,8 @@
           <t>11.70%</t>
         </is>
       </c>
-      <c r="H1747" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1747" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1748">
@@ -56785,10 +56717,8 @@
       </c>
       <c r="F1748" t="inlineStr"/>
       <c r="G1748" t="inlineStr"/>
-      <c r="H1748" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1748" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1749">
@@ -56811,10 +56741,8 @@
       <c r="E1749" t="inlineStr"/>
       <c r="F1749" t="inlineStr"/>
       <c r="G1749" t="inlineStr"/>
-      <c r="H1749" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1749" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1750">
@@ -56837,10 +56765,8 @@
       <c r="E1750" t="inlineStr"/>
       <c r="F1750" t="inlineStr"/>
       <c r="G1750" t="inlineStr"/>
-      <c r="H1750" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1750" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1751">
@@ -56863,10 +56789,8 @@
       <c r="E1751" t="inlineStr"/>
       <c r="F1751" t="inlineStr"/>
       <c r="G1751" t="inlineStr"/>
-      <c r="H1751" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1751" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1752">
@@ -56893,10 +56817,8 @@
       </c>
       <c r="F1752" t="inlineStr"/>
       <c r="G1752" t="inlineStr"/>
-      <c r="H1752" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1752" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1753">
@@ -56931,10 +56853,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1753" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1753" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1754">
@@ -56965,10 +56885,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1754" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1754" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1755">
@@ -56999,10 +56917,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1755" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1755" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1756">
@@ -57033,10 +56949,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1756" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1756" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1757">
@@ -57063,10 +56977,8 @@
       </c>
       <c r="F1757" t="inlineStr"/>
       <c r="G1757" t="inlineStr"/>
-      <c r="H1757" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1757" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1758">
@@ -57097,10 +57009,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1758" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1758" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1759">
@@ -57131,10 +57041,8 @@
           <t>433</t>
         </is>
       </c>
-      <c r="H1759" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1759" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1760">
@@ -57165,10 +57073,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1760" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1760" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1761">
@@ -57199,10 +57105,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1761" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1761" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1762">
@@ -57233,10 +57137,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1762" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1762" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1763">
@@ -57271,10 +57173,8 @@
           <t>104</t>
         </is>
       </c>
-      <c r="H1763" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1763" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1764">
@@ -57305,10 +57205,8 @@
           <t>-8</t>
         </is>
       </c>
-      <c r="H1764" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1764" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1765">
@@ -57339,10 +57237,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H1765" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1765" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1766">
@@ -57373,10 +57269,8 @@
           <t>21</t>
         </is>
       </c>
-      <c r="H1766" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1766" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1767">
@@ -57407,10 +57301,8 @@
           <t>9.5</t>
         </is>
       </c>
-      <c r="H1767" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1767" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1768">
@@ -57441,10 +57333,8 @@
           <t>13</t>
         </is>
       </c>
-      <c r="H1768" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1768" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1769">
@@ -57471,10 +57361,8 @@
       </c>
       <c r="F1769" t="inlineStr"/>
       <c r="G1769" t="inlineStr"/>
-      <c r="H1769" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1769" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1770">
@@ -57501,10 +57389,8 @@
       </c>
       <c r="F1770" t="inlineStr"/>
       <c r="G1770" t="inlineStr"/>
-      <c r="H1770" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1770" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1771">
@@ -57531,10 +57417,8 @@
       </c>
       <c r="F1771" t="inlineStr"/>
       <c r="G1771" t="inlineStr"/>
-      <c r="H1771" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1771" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1772">
@@ -57561,10 +57445,8 @@
       </c>
       <c r="F1772" t="inlineStr"/>
       <c r="G1772" t="inlineStr"/>
-      <c r="H1772" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1772" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1773">
@@ -57591,10 +57473,8 @@
       </c>
       <c r="F1773" t="inlineStr"/>
       <c r="G1773" t="inlineStr"/>
-      <c r="H1773" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1773" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1774">
@@ -57625,10 +57505,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H1774" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1774" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1775">
@@ -57659,10 +57537,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1775" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1775" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1776">
@@ -57693,10 +57569,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H1776" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1776" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1777">
@@ -57727,10 +57601,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1777" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1777" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1778">
@@ -57761,10 +57633,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H1778" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1778" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1779">
@@ -57795,10 +57665,8 @@
           <t>139.1</t>
         </is>
       </c>
-      <c r="H1779" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1779" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1780">
@@ -57829,10 +57697,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1780" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1780" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1781">
@@ -57863,10 +57729,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H1781" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1781" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1782">
@@ -57893,10 +57757,8 @@
       </c>
       <c r="F1782" t="inlineStr"/>
       <c r="G1782" t="inlineStr"/>
-      <c r="H1782" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1782" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1783">
@@ -57941,10 +57803,8 @@
           <t>36.3</t>
         </is>
       </c>
-      <c r="H1784" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1784" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1785">
@@ -57975,10 +57835,8 @@
           <t>-22</t>
         </is>
       </c>
-      <c r="H1785" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1785" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1786">
@@ -58009,10 +57867,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1786" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1786" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1787">
@@ -58043,10 +57899,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1787" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1787" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1788">
@@ -58077,10 +57931,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H1788" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1788" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1789">
@@ -58111,10 +57963,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1789" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1789" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1790">
@@ -58145,10 +57995,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1790" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1790" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1791">
@@ -58179,10 +58027,8 @@
           <t>85.5</t>
         </is>
       </c>
-      <c r="H1791" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1791" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1792">
@@ -58213,10 +58059,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H1792" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1792" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1793">
@@ -58243,10 +58087,8 @@
       </c>
       <c r="F1793" t="inlineStr"/>
       <c r="G1793" t="inlineStr"/>
-      <c r="H1793" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1793" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1794">
@@ -58273,10 +58115,8 @@
       </c>
       <c r="F1794" t="inlineStr"/>
       <c r="G1794" t="inlineStr"/>
-      <c r="H1794" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1794" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1795">
@@ -58303,10 +58143,8 @@
       </c>
       <c r="F1795" t="inlineStr"/>
       <c r="G1795" t="inlineStr"/>
-      <c r="H1795" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1795" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1796">
@@ -58337,10 +58175,8 @@
           <t>2.70%</t>
         </is>
       </c>
-      <c r="H1796" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1796" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1797">
@@ -58367,10 +58203,8 @@
       </c>
       <c r="F1797" t="inlineStr"/>
       <c r="G1797" t="inlineStr"/>
-      <c r="H1797" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1797" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1798">
@@ -58397,10 +58231,8 @@
       </c>
       <c r="F1798" t="inlineStr"/>
       <c r="G1798" t="inlineStr"/>
-      <c r="H1798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1798" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1799">
@@ -58427,10 +58259,8 @@
       </c>
       <c r="F1799" t="inlineStr"/>
       <c r="G1799" t="inlineStr"/>
-      <c r="H1799" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1799" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1800">
@@ -58457,10 +58287,8 @@
       </c>
       <c r="F1800" t="inlineStr"/>
       <c r="G1800" t="inlineStr"/>
-      <c r="H1800" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1800" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1801">
@@ -58487,10 +58315,8 @@
       </c>
       <c r="F1801" t="inlineStr"/>
       <c r="G1801" t="inlineStr"/>
-      <c r="H1801" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1801" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1802">
@@ -58521,10 +58347,8 @@
           <t>$ -101.0B</t>
         </is>
       </c>
-      <c r="H1802" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1802" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1803">
@@ -58555,10 +58379,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1803" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1803" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1804">
@@ -58589,10 +58411,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1804" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1804" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1805">
@@ -58615,10 +58435,8 @@
       <c r="E1805" t="inlineStr"/>
       <c r="F1805" t="inlineStr"/>
       <c r="G1805" t="inlineStr"/>
-      <c r="H1805" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1805" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1806">
@@ -58653,10 +58471,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1806" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1806" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1807">
@@ -58679,10 +58495,8 @@
       <c r="E1807" t="inlineStr"/>
       <c r="F1807" t="inlineStr"/>
       <c r="G1807" t="inlineStr"/>
-      <c r="H1807" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1807" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1808">
@@ -58709,10 +58523,8 @@
       </c>
       <c r="F1808" t="inlineStr"/>
       <c r="G1808" t="inlineStr"/>
-      <c r="H1808" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1808" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1809">
@@ -58739,10 +58551,8 @@
       </c>
       <c r="F1809" t="inlineStr"/>
       <c r="G1809" t="inlineStr"/>
-      <c r="H1809" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1809" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1810">
@@ -58765,10 +58575,8 @@
       <c r="E1810" t="inlineStr"/>
       <c r="F1810" t="inlineStr"/>
       <c r="G1810" t="inlineStr"/>
-      <c r="H1810" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1810" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1811">
@@ -58791,10 +58599,8 @@
       <c r="E1811" t="inlineStr"/>
       <c r="F1811" t="inlineStr"/>
       <c r="G1811" t="inlineStr"/>
-      <c r="H1811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1811" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1812">
@@ -58817,10 +58623,8 @@
       <c r="E1812" t="inlineStr"/>
       <c r="F1812" t="inlineStr"/>
       <c r="G1812" t="inlineStr"/>
-      <c r="H1812" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1812" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1813">
@@ -58843,10 +58647,8 @@
       <c r="E1813" t="inlineStr"/>
       <c r="F1813" t="inlineStr"/>
       <c r="G1813" t="inlineStr"/>
-      <c r="H1813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1813" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1814">
@@ -58869,10 +58671,8 @@
       <c r="E1814" t="inlineStr"/>
       <c r="F1814" t="inlineStr"/>
       <c r="G1814" t="inlineStr"/>
-      <c r="H1814" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1814" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1815">
@@ -58895,10 +58695,8 @@
       <c r="E1815" t="inlineStr"/>
       <c r="F1815" t="inlineStr"/>
       <c r="G1815" t="inlineStr"/>
-      <c r="H1815" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1815" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1816">
@@ -58921,10 +58719,8 @@
       <c r="E1816" t="inlineStr"/>
       <c r="F1816" t="inlineStr"/>
       <c r="G1816" t="inlineStr"/>
-      <c r="H1816" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1816" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1817">
@@ -58955,10 +58751,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1817" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1817" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1818">
@@ -58989,10 +58783,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1818" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1818" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1819">
@@ -59019,10 +58811,8 @@
       </c>
       <c r="F1819" t="inlineStr"/>
       <c r="G1819" t="inlineStr"/>
-      <c r="H1819" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1819" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1820">
@@ -59057,10 +58847,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H1820" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1820" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1821">
@@ -59083,10 +58871,8 @@
       <c r="E1821" t="inlineStr"/>
       <c r="F1821" t="inlineStr"/>
       <c r="G1821" t="inlineStr"/>
-      <c r="H1821" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1821" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1822">
@@ -59117,10 +58903,8 @@
           <t>12.25%</t>
         </is>
       </c>
-      <c r="H1822" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1822" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1823">
@@ -59147,10 +58931,8 @@
       </c>
       <c r="F1823" t="inlineStr"/>
       <c r="G1823" t="inlineStr"/>
-      <c r="H1823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1823" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1824">
@@ -59177,10 +58959,8 @@
       </c>
       <c r="F1824" t="inlineStr"/>
       <c r="G1824" t="inlineStr"/>
-      <c r="H1824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1824" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1825">
@@ -59211,10 +58991,8 @@
           <t>-20.0%</t>
         </is>
       </c>
-      <c r="H1825" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1825" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1826">
@@ -59237,10 +59015,8 @@
       <c r="E1826" t="inlineStr"/>
       <c r="F1826" t="inlineStr"/>
       <c r="G1826" t="inlineStr"/>
-      <c r="H1826" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1826" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1827">
@@ -59271,10 +59047,8 @@
           <t>-6.6%</t>
         </is>
       </c>
-      <c r="H1827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1827" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1828">
@@ -59305,10 +59079,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1828" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1829">
@@ -59353,10 +59125,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1830" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1830" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1831">
@@ -59383,10 +59153,8 @@
       </c>
       <c r="F1831" t="inlineStr"/>
       <c r="G1831" t="inlineStr"/>
-      <c r="H1831" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1831" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1832">
@@ -59417,10 +59185,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1832" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1832" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1833">
@@ -59451,10 +59217,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1833" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1833" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1834">
@@ -59485,10 +59249,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H1834" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1834" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1835">
@@ -59519,10 +59281,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1835" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1835" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1836">
@@ -59553,10 +59313,8 @@
           <t>98.3</t>
         </is>
       </c>
-      <c r="H1836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1836" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1837">
@@ -59587,10 +59345,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1837" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1837" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1838">
@@ -59621,10 +59377,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1838" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1838" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1839">
@@ -59655,10 +59409,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H1839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1839" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1840">
@@ -59689,10 +59441,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1840" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1841">
@@ -59723,10 +59473,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1841" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1842">
@@ -59757,10 +59505,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1842" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1842" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1843">
@@ -59791,10 +59537,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1843" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1843" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1844">
@@ -59825,10 +59569,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1844" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1844" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1845">
@@ -59859,10 +59601,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1845" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1845" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1846">
@@ -59893,10 +59633,8 @@
           <t>6.00%</t>
         </is>
       </c>
-      <c r="H1846" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1846" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1847">
@@ -59927,10 +59665,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1847" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1848">
@@ -59957,10 +59693,8 @@
       </c>
       <c r="F1848" t="inlineStr"/>
       <c r="G1848" t="inlineStr"/>
-      <c r="H1848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1849">
@@ -59991,10 +59725,8 @@
           <t>£ 1.3B</t>
         </is>
       </c>
-      <c r="H1849" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1849" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1850">
@@ -60025,10 +59757,8 @@
           <t>61.5K</t>
         </is>
       </c>
-      <c r="H1850" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1850" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1851">
@@ -60059,10 +59789,8 @@
           <t>£ 2.2B</t>
         </is>
       </c>
-      <c r="H1851" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1851" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1852">
@@ -60093,10 +59821,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1852" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1853">
@@ -60127,10 +59853,8 @@
           <t>£ 3.5B</t>
         </is>
       </c>
-      <c r="H1853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1853" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1854">
@@ -60161,10 +59885,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1854" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1854" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1855">
@@ -60195,10 +59917,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H1855" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1855" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1856">
@@ -60225,10 +59945,8 @@
       </c>
       <c r="F1856" t="inlineStr"/>
       <c r="G1856" t="inlineStr"/>
-      <c r="H1856" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1856" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1857">
@@ -60259,10 +59977,8 @@
           <t>93.5</t>
         </is>
       </c>
-      <c r="H1857" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1857" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1858">
@@ -60293,10 +60009,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1858" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1858" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1859">
@@ -60327,10 +60041,8 @@
           <t>22</t>
         </is>
       </c>
-      <c r="H1859" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1859" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1860">
@@ -60361,10 +60073,8 @@
           <t>-14.5</t>
         </is>
       </c>
-      <c r="H1860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1860" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1861">
@@ -60395,10 +60105,8 @@
           <t>8</t>
         </is>
       </c>
-      <c r="H1861" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1861" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1862">
@@ -60429,10 +60137,8 @@
           <t>6</t>
         </is>
       </c>
-      <c r="H1862" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1862" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1863">
@@ -60455,10 +60161,8 @@
       <c r="E1863" t="inlineStr"/>
       <c r="F1863" t="inlineStr"/>
       <c r="G1863" t="inlineStr"/>
-      <c r="H1863" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1863" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1864">
@@ -60489,10 +60193,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H1864" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1864" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1865">
@@ -60523,10 +60225,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H1865" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1865" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1866">
@@ -60557,10 +60257,8 @@
           <t>-5.1%</t>
         </is>
       </c>
-      <c r="H1866" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1866" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1867">
@@ -60583,10 +60281,8 @@
       <c r="E1867" t="inlineStr"/>
       <c r="F1867" t="inlineStr"/>
       <c r="G1867" t="inlineStr"/>
-      <c r="H1867" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1867" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1868">
@@ -60613,10 +60309,8 @@
       </c>
       <c r="F1868" t="inlineStr"/>
       <c r="G1868" t="inlineStr"/>
-      <c r="H1868" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1868" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1869">
@@ -60647,10 +60341,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1869" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1869" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1870">
@@ -60681,10 +60373,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1870" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1870" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1871">
@@ -60715,10 +60405,8 @@
           <t>-5</t>
         </is>
       </c>
-      <c r="H1871" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1871" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1872">
@@ -60749,10 +60437,8 @@
         </is>
       </c>
       <c r="G1872" t="inlineStr"/>
-      <c r="H1872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1872" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1873">
@@ -60779,10 +60465,8 @@
       </c>
       <c r="F1873" t="inlineStr"/>
       <c r="G1873" t="inlineStr"/>
-      <c r="H1873" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1873" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1874">
@@ -60817,10 +60501,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H1874" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1874" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1875">
@@ -60855,10 +60537,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1875" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1875" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1876">
@@ -60889,10 +60569,8 @@
           <t>3.15%</t>
         </is>
       </c>
-      <c r="H1876" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1876" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1877">
@@ -60923,10 +60601,8 @@
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H1877" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1877" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1878">
@@ -60957,10 +60633,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1878" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1878" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1879">
@@ -60991,10 +60665,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1879" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1879" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1880">
@@ -61025,10 +60697,8 @@
           <t>228.0K</t>
         </is>
       </c>
-      <c r="H1880" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1880" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1881">
@@ -61059,10 +60729,8 @@
           <t>1885.0K</t>
         </is>
       </c>
-      <c r="H1881" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1881" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1882">
@@ -61093,10 +60761,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1882" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1882" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1883">
@@ -61127,10 +60793,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1883" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1884">
@@ -61161,10 +60825,8 @@
           <t>214.0K</t>
         </is>
       </c>
-      <c r="H1884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1884" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1885">
@@ -61195,10 +60857,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H1885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1885" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1886">
@@ -61229,10 +60889,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1887">
@@ -61255,10 +60913,8 @@
       <c r="E1887" t="inlineStr"/>
       <c r="F1887" t="inlineStr"/>
       <c r="G1887" t="inlineStr"/>
-      <c r="H1887" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1887" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1888">
@@ -61289,10 +60945,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1888" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1888" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1889">
@@ -61323,10 +60977,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1889" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1889" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1890">
@@ -61353,10 +61005,8 @@
       </c>
       <c r="F1890" t="inlineStr"/>
       <c r="G1890" t="inlineStr"/>
-      <c r="H1890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1890" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1891">
@@ -61383,10 +61033,8 @@
       </c>
       <c r="F1891" t="inlineStr"/>
       <c r="G1891" t="inlineStr"/>
-      <c r="H1891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1892">
@@ -61409,10 +61057,8 @@
       <c r="E1892" t="inlineStr"/>
       <c r="F1892" t="inlineStr"/>
       <c r="G1892" t="inlineStr"/>
-      <c r="H1892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1893">
@@ -61439,10 +61085,8 @@
       </c>
       <c r="F1893" t="inlineStr"/>
       <c r="G1893" t="inlineStr"/>
-      <c r="H1893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1893" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1894">
@@ -61469,10 +61113,8 @@
       </c>
       <c r="F1894" t="inlineStr"/>
       <c r="G1894" t="inlineStr"/>
-      <c r="H1894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1894" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1895">
@@ -61495,10 +61137,8 @@
       <c r="E1895" t="inlineStr"/>
       <c r="F1895" t="inlineStr"/>
       <c r="G1895" t="inlineStr"/>
-      <c r="H1895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1895" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1896">
@@ -61529,10 +61169,8 @@
           <t>2.50%</t>
         </is>
       </c>
-      <c r="H1896" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1896" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1897">
@@ -61563,10 +61201,8 @@
           <t>1.25</t>
         </is>
       </c>
-      <c r="H1897" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1897" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1898">
@@ -61597,10 +61233,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1898" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1898" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1899">
@@ -61631,10 +61265,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1899" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1900">
@@ -61665,10 +61297,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H1900" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1900" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1901">
@@ -61699,10 +61329,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1901" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1901" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1902">
@@ -61733,10 +61361,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H1902" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1902" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1903">
@@ -61767,10 +61393,8 @@
           <t>-1.6%</t>
         </is>
       </c>
-      <c r="H1903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1903" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1904">
@@ -61801,10 +61425,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1904" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1905">
@@ -61835,10 +61457,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1905" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1905" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1906">
@@ -61869,10 +61489,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1906" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1907">
@@ -61903,10 +61521,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1907" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1907" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1908">
@@ -61937,10 +61553,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1908" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1909">
@@ -61971,10 +61585,8 @@
           <t>5.7%</t>
         </is>
       </c>
-      <c r="H1909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1909" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1910">
@@ -62005,10 +61617,8 @@
           <t>S$ 818.2B</t>
         </is>
       </c>
-      <c r="H1910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1910" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1911">
@@ -62035,10 +61645,8 @@
       </c>
       <c r="F1911" t="inlineStr"/>
       <c r="G1911" t="inlineStr"/>
-      <c r="H1911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1911" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1912">
@@ -62065,10 +61673,8 @@
       </c>
       <c r="F1912" t="inlineStr"/>
       <c r="G1912" t="inlineStr"/>
-      <c r="H1912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1912" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1913">
@@ -62091,10 +61697,8 @@
       </c>
       <c r="F1913" t="inlineStr"/>
       <c r="G1913" t="inlineStr"/>
-      <c r="H1913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1913" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1914">
@@ -62121,10 +61725,8 @@
           <t>10.6%</t>
         </is>
       </c>
-      <c r="H1914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1914" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1915">
@@ -62151,10 +61753,8 @@
           <t>12.8%</t>
         </is>
       </c>
-      <c r="H1915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1915" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1916">
@@ -62181,10 +61781,8 @@
           <t>90.0K</t>
         </is>
       </c>
-      <c r="H1916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1916" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1917">
@@ -62211,10 +61809,8 @@
           <t>MXN-1120.0B</t>
         </is>
       </c>
-      <c r="H1917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1917" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1918">
@@ -62241,132 +61837,146 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1918" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1919">
       <c r="A1919" t="inlineStr">
         <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B1919" t="inlineStr"/>
-      <c r="C1919" t="inlineStr"/>
+          <t>03:00 AM</t>
+        </is>
+      </c>
+      <c r="B1919" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="C1919" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYDEC</t>
+        </is>
+      </c>
       <c r="D1919" t="inlineStr"/>
-      <c r="E1919" t="inlineStr"/>
+      <c r="E1919" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="F1919" t="inlineStr"/>
-      <c r="G1919" t="inlineStr"/>
-      <c r="H1919" t="inlineStr"/>
+      <c r="G1919" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H1919" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1920">
       <c r="A1920" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1920" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1920" t="inlineStr">
         <is>
-          <t>Housing Starts YoYDEC</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D1920" t="inlineStr"/>
       <c r="E1920" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>8.25%</t>
         </is>
       </c>
       <c r="F1920" t="inlineStr"/>
-      <c r="G1920" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="G1920" t="inlineStr"/>
       <c r="H1920" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1921">
       <c r="A1921" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B1921" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1921" t="inlineStr">
         <is>
-          <t>Construction Orders YoYDEC</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D1921" t="inlineStr"/>
       <c r="E1921" t="inlineStr">
         <is>
-          <t>-10.2%</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="F1921" t="inlineStr"/>
       <c r="G1921" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>7.0K</t>
         </is>
       </c>
       <c r="H1921" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1922">
       <c r="A1922" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B1922" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1922" t="inlineStr">
         <is>
-          <t>Business ConfidenceQ4</t>
+          <t>Unemployed PersonsJAN</t>
         </is>
       </c>
       <c r="D1922" t="inlineStr"/>
       <c r="E1922" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2.869M</t>
         </is>
       </c>
       <c r="F1922" t="inlineStr"/>
       <c r="G1922" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2.876M</t>
         </is>
       </c>
       <c r="H1922" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1923">
       <c r="A1923" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B1923" t="inlineStr">
@@ -62376,19 +61986,19 @@
       </c>
       <c r="C1923" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D1923" t="inlineStr"/>
       <c r="E1923" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F1923" t="inlineStr"/>
       <c r="G1923" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>6.2%</t>
         </is>
       </c>
       <c r="H1923" t="inlineStr">
@@ -62400,7 +62010,7 @@
     <row r="1924">
       <c r="A1924" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1924" t="inlineStr">
@@ -62410,31 +62020,27 @@
       </c>
       <c r="C1924" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Baden Wuerttemberg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1924" t="inlineStr"/>
       <c r="E1924" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1924" t="inlineStr"/>
-      <c r="G1924" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1924" t="inlineStr"/>
       <c r="H1924" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1925">
       <c r="A1925" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1925" t="inlineStr">
@@ -62444,21 +62050,17 @@
       </c>
       <c r="C1925" t="inlineStr">
         <is>
-          <t>Import Prices MoMDEC</t>
+          <t>Baden Wuerttemberg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1925" t="inlineStr"/>
       <c r="E1925" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1925" t="inlineStr"/>
-      <c r="G1925" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1925" t="inlineStr"/>
       <c r="H1925" t="inlineStr">
         <is>
           <t>3</t>
@@ -62468,7 +62070,7 @@
     <row r="1926">
       <c r="A1926" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1926" t="inlineStr">
@@ -62478,21 +62080,17 @@
       </c>
       <c r="C1926" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Bavaria CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1926" t="inlineStr"/>
       <c r="E1926" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1926" t="inlineStr"/>
-      <c r="G1926" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="G1926" t="inlineStr"/>
       <c r="H1926" t="inlineStr">
         <is>
           <t>3</t>
@@ -62502,69 +62100,57 @@
     <row r="1927">
       <c r="A1927" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1927" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1927" t="inlineStr">
         <is>
-          <t>Balance of Trade FinalDEC</t>
+          <t>Bavaria CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1927" t="inlineStr"/>
       <c r="E1927" t="inlineStr">
         <is>
-          <t>$-7.46B</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F1927" t="inlineStr"/>
-      <c r="G1927" t="inlineStr">
-        <is>
-          <t>$-8.82B</t>
-        </is>
-      </c>
+      <c r="G1927" t="inlineStr"/>
       <c r="H1927" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1928">
       <c r="A1928" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1928" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1928" t="inlineStr">
         <is>
-          <t>Exports FinalDEC</t>
+          <t>Brandenburg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1928" t="inlineStr"/>
       <c r="E1928" t="inlineStr">
         <is>
-          <t>$22.29B</t>
-        </is>
-      </c>
-      <c r="F1928" t="inlineStr">
-        <is>
-          <t>$23.46B</t>
-        </is>
-      </c>
-      <c r="G1928" t="inlineStr">
-        <is>
-          <t>$ 23.46B</t>
-        </is>
-      </c>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F1928" t="inlineStr"/>
+      <c r="G1928" t="inlineStr"/>
       <c r="H1928" t="inlineStr">
         <is>
           <t>3</t>
@@ -62574,31 +62160,27 @@
     <row r="1929">
       <c r="A1929" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1929" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1929" t="inlineStr">
         <is>
-          <t>Imports FinalDEC</t>
+          <t>Brandenburg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1929" t="inlineStr"/>
       <c r="E1929" t="inlineStr">
         <is>
-          <t>$29.75B</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1929" t="inlineStr"/>
-      <c r="G1929" t="inlineStr">
-        <is>
-          <t>$32.29B</t>
-        </is>
-      </c>
+      <c r="G1929" t="inlineStr"/>
       <c r="H1929" t="inlineStr">
         <is>
           <t>3</t>
@@ -62608,31 +62190,27 @@
     <row r="1930">
       <c r="A1930" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1930" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1930" t="inlineStr">
         <is>
-          <t>Tourism RevenuesQ4</t>
+          <t>Hesse CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1930" t="inlineStr"/>
       <c r="E1930" t="inlineStr">
         <is>
-          <t>$23.22B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F1930" t="inlineStr"/>
-      <c r="G1930" t="inlineStr">
-        <is>
-          <t>$ 23.5B</t>
-        </is>
-      </c>
+      <c r="G1930" t="inlineStr"/>
       <c r="H1930" t="inlineStr">
         <is>
           <t>3</t>
@@ -62642,167 +62220,147 @@
     <row r="1931">
       <c r="A1931" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1931" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1931" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices MoMJAN</t>
+          <t>Hesse CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1931" t="inlineStr"/>
       <c r="E1931" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1931" t="inlineStr"/>
-      <c r="G1931" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="G1931" t="inlineStr"/>
       <c r="H1931" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1932">
       <c r="A1932" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1932" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1932" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices YoYJAN</t>
+          <t>North Rhine Westphalia CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1932" t="inlineStr"/>
       <c r="E1932" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1932" t="inlineStr"/>
-      <c r="G1932" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G1932" t="inlineStr"/>
       <c r="H1932" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1933">
       <c r="A1933" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1933" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1933" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>North Rhine Westphalia CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1933" t="inlineStr"/>
       <c r="E1933" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="F1933" t="inlineStr"/>
-      <c r="G1933" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G1933" t="inlineStr"/>
       <c r="H1933" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1934">
       <c r="A1934" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1934" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1934" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Saxony CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1934" t="inlineStr"/>
       <c r="E1934" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1934" t="inlineStr"/>
-      <c r="G1934" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1934" t="inlineStr"/>
       <c r="H1934" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1935">
       <c r="A1935" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1935" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1935" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Saxony CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1935" t="inlineStr"/>
       <c r="E1935" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F1935" t="inlineStr"/>
-      <c r="G1935" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1935" t="inlineStr"/>
       <c r="H1935" t="inlineStr">
         <is>
           <t>3</t>
@@ -62812,29 +62370,29 @@
     <row r="1936">
       <c r="A1936" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1936" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1936" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D1936" t="inlineStr"/>
       <c r="E1936" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>€4.9B</t>
         </is>
       </c>
       <c r="F1936" t="inlineStr"/>
       <c r="G1936" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>€5.0B</t>
         </is>
       </c>
       <c r="H1936" t="inlineStr">
@@ -62846,12 +62404,12 @@
     <row r="1937">
       <c r="A1937" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1937" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1937" t="inlineStr">
@@ -62862,13 +62420,13 @@
       <c r="D1937" t="inlineStr"/>
       <c r="E1937" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F1937" t="inlineStr"/>
       <c r="G1937" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1937" t="inlineStr">
@@ -62880,12 +62438,12 @@
     <row r="1938">
       <c r="A1938" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1938" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1938" t="inlineStr">
@@ -62896,13 +62454,13 @@
       <c r="D1938" t="inlineStr"/>
       <c r="E1938" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F1938" t="inlineStr"/>
       <c r="G1938" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1938" t="inlineStr">
@@ -62914,31 +62472,27 @@
     <row r="1939">
       <c r="A1939" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1939" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1939" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Government Budget ValueDEC</t>
         </is>
       </c>
       <c r="D1939" t="inlineStr"/>
       <c r="E1939" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>INR-8465.9B</t>
         </is>
       </c>
       <c r="F1939" t="inlineStr"/>
-      <c r="G1939" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G1939" t="inlineStr"/>
       <c r="H1939" t="inlineStr">
         <is>
           <t>3</t>
@@ -62948,29 +62502,29 @@
     <row r="1940">
       <c r="A1940" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1940" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1940" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Gross Debt to GDPDEC</t>
         </is>
       </c>
       <c r="D1940" t="inlineStr"/>
       <c r="E1940" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>77.7%</t>
         </is>
       </c>
       <c r="F1940" t="inlineStr"/>
       <c r="G1940" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>77.9%</t>
         </is>
       </c>
       <c r="H1940" t="inlineStr">
@@ -62982,27 +62536,31 @@
     <row r="1941">
       <c r="A1941" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1941" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1941" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Nominal Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D1941" t="inlineStr"/>
       <c r="E1941" t="inlineStr">
         <is>
-          <t>8.25%</t>
+          <t>BRL-99.1B</t>
         </is>
       </c>
       <c r="F1941" t="inlineStr"/>
-      <c r="G1941" t="inlineStr"/>
+      <c r="G1941" t="inlineStr">
+        <is>
+          <t>BRL-103.0B</t>
+        </is>
+      </c>
       <c r="H1941" t="inlineStr">
         <is>
           <t>3</t>
@@ -63012,129 +62570,117 @@
     <row r="1942">
       <c r="A1942" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1942" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1942" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Bank Loan Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D1942" t="inlineStr"/>
       <c r="E1942" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>11.2%</t>
         </is>
       </c>
       <c r="F1942" t="inlineStr"/>
-      <c r="G1942" t="inlineStr">
-        <is>
-          <t>7.0K</t>
-        </is>
-      </c>
+      <c r="G1942" t="inlineStr"/>
       <c r="H1942" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1943">
       <c r="A1943" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1943" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1943" t="inlineStr">
         <is>
-          <t>Unemployed PersonsJAN</t>
+          <t>Deposit Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D1943" t="inlineStr"/>
       <c r="E1943" t="inlineStr">
         <is>
-          <t>2.869M</t>
+          <t>9.8%</t>
         </is>
       </c>
       <c r="F1943" t="inlineStr"/>
-      <c r="G1943" t="inlineStr">
-        <is>
-          <t>2.876M</t>
-        </is>
-      </c>
+      <c r="G1943" t="inlineStr"/>
       <c r="H1943" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1944">
       <c r="A1944" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1944" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1944" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Foreign Exchange ReservesJAN/24</t>
         </is>
       </c>
       <c r="D1944" t="inlineStr"/>
-      <c r="E1944" t="inlineStr">
-        <is>
-          <t>6.1%</t>
-        </is>
-      </c>
+      <c r="E1944" t="inlineStr"/>
       <c r="F1944" t="inlineStr"/>
-      <c r="G1944" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
+      <c r="G1944" t="inlineStr"/>
       <c r="H1944" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1945">
       <c r="A1945" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1945" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1945" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI MoMJAN</t>
+          <t>Infrastructure Output YoYDEC</t>
         </is>
       </c>
       <c r="D1945" t="inlineStr"/>
       <c r="E1945" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1945" t="inlineStr"/>
-      <c r="G1945" t="inlineStr"/>
+      <c r="G1945" t="inlineStr">
+        <is>
+          <t>4.8%</t>
+        </is>
+      </c>
       <c r="H1945" t="inlineStr">
         <is>
           <t>3</t>
@@ -63144,67 +62690,75 @@
     <row r="1946">
       <c r="A1946" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1946" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1946" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI YoYJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D1946" t="inlineStr"/>
       <c r="E1946" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F1946" t="inlineStr"/>
-      <c r="G1946" t="inlineStr"/>
+      <c r="G1946" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
       <c r="H1946" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1947">
       <c r="A1947" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1947" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1947" t="inlineStr">
         <is>
-          <t>Bavaria CPI MoMJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1947" t="inlineStr"/>
       <c r="E1947" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>ZAR34.7B</t>
         </is>
       </c>
       <c r="F1947" t="inlineStr"/>
-      <c r="G1947" t="inlineStr"/>
+      <c r="G1947" t="inlineStr">
+        <is>
+          <t>ZAR 18B</t>
+        </is>
+      </c>
       <c r="H1947" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1948">
       <c r="A1948" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1948" t="inlineStr">
@@ -63214,27 +62768,31 @@
       </c>
       <c r="C1948" t="inlineStr">
         <is>
-          <t>Bavaria CPI YoYJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1948" t="inlineStr"/>
       <c r="E1948" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1948" t="inlineStr"/>
-      <c r="G1948" t="inlineStr"/>
+      <c r="G1948" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1948" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1949">
       <c r="A1949" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1949" t="inlineStr">
@@ -63244,27 +62802,31 @@
       </c>
       <c r="C1949" t="inlineStr">
         <is>
-          <t>Brandenburg CPI MoMJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1949" t="inlineStr"/>
       <c r="E1949" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1949" t="inlineStr"/>
-      <c r="G1949" t="inlineStr"/>
+      <c r="G1949" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1949" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1950">
       <c r="A1950" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1950" t="inlineStr">
@@ -63274,17 +62836,21 @@
       </c>
       <c r="C1950" t="inlineStr">
         <is>
-          <t>Brandenburg CPI YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1950" t="inlineStr"/>
       <c r="E1950" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1950" t="inlineStr"/>
-      <c r="G1950" t="inlineStr"/>
+      <c r="G1950" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1950" t="inlineStr">
         <is>
           <t>3</t>
@@ -63294,7 +62860,7 @@
     <row r="1951">
       <c r="A1951" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1951" t="inlineStr">
@@ -63304,17 +62870,21 @@
       </c>
       <c r="C1951" t="inlineStr">
         <is>
-          <t>Hesse CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1951" t="inlineStr"/>
       <c r="E1951" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1951" t="inlineStr"/>
-      <c r="G1951" t="inlineStr"/>
+      <c r="G1951" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H1951" t="inlineStr">
         <is>
           <t>3</t>
@@ -63324,345 +62894,381 @@
     <row r="1952">
       <c r="A1952" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1952" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1952" t="inlineStr">
         <is>
-          <t>Hesse CPI YoYJAN</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D1952" t="inlineStr"/>
       <c r="E1952" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1952" t="inlineStr"/>
-      <c r="G1952" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1952" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="G1952" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="H1952" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1953">
       <c r="A1953" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1953" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1953" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI MoMJAN</t>
+          <t>GDP MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1953" t="inlineStr"/>
       <c r="E1953" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1953" t="inlineStr"/>
-      <c r="G1953" t="inlineStr"/>
+      <c r="G1953" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1953" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1954">
       <c r="A1954" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1954" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1954" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI YoYJAN</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1954" t="inlineStr"/>
       <c r="E1954" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1954" t="inlineStr"/>
-      <c r="G1954" t="inlineStr"/>
+      <c r="G1954" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1954" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1955">
       <c r="A1955" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1955" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1955" t="inlineStr">
         <is>
-          <t>Saxony CPI MoMJAN</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="D1955" t="inlineStr"/>
       <c r="E1955" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1955" t="inlineStr"/>
-      <c r="G1955" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1955" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G1955" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1955" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1956">
       <c r="A1956" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1956" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1956" t="inlineStr">
         <is>
-          <t>Saxony CPI YoYJAN</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="D1956" t="inlineStr"/>
       <c r="E1956" t="inlineStr">
         <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F1956" t="inlineStr"/>
-      <c r="G1956" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F1956" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G1956" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1956" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1957">
       <c r="A1957" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1957" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1957" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="D1957" t="inlineStr"/>
       <c r="E1957" t="inlineStr">
         <is>
-          <t>€4.9B</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1957" t="inlineStr"/>
       <c r="G1957" t="inlineStr">
         <is>
-          <t>€5.0B</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1957" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1958">
       <c r="A1958" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1958" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1958" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="D1958" t="inlineStr"/>
       <c r="E1958" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1958" t="inlineStr"/>
       <c r="G1958" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1958" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1959">
       <c r="A1959" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1959" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1959" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="D1959" t="inlineStr"/>
       <c r="E1959" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1959" t="inlineStr"/>
       <c r="G1959" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1959" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1960">
       <c r="A1960" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1960" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1960" t="inlineStr">
         <is>
-          <t>Government Budget ValueDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1960" t="inlineStr"/>
       <c r="E1960" t="inlineStr">
         <is>
-          <t>INR-8465.9B</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1960" t="inlineStr"/>
-      <c r="G1960" t="inlineStr"/>
+      <c r="G1960" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1960" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1961">
       <c r="A1961" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1961" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1961" t="inlineStr">
         <is>
-          <t>Gross Debt to GDPDEC</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1961" t="inlineStr"/>
       <c r="E1961" t="inlineStr">
         <is>
-          <t>77.7%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1961" t="inlineStr"/>
       <c r="G1961" t="inlineStr">
         <is>
-          <t>77.9%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="H1961" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1962">
       <c r="A1962" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1962" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1962" t="inlineStr">
         <is>
-          <t>Nominal Budget BalanceDEC</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1962" t="inlineStr"/>
       <c r="E1962" t="inlineStr">
         <is>
-          <t>BRL-99.1B</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1962" t="inlineStr"/>
       <c r="G1962" t="inlineStr">
         <is>
-          <t>BRL-103.0B</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="H1962" t="inlineStr">
@@ -63674,57 +63280,65 @@
     <row r="1963">
       <c r="A1963" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1963" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1963" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/17</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="D1963" t="inlineStr"/>
       <c r="E1963" t="inlineStr">
         <is>
-          <t>11.2%</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="F1963" t="inlineStr"/>
-      <c r="G1963" t="inlineStr"/>
+      <c r="G1963" t="inlineStr">
+        <is>
+          <t>37.2</t>
+        </is>
+      </c>
       <c r="H1963" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1964">
       <c r="A1964" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1964" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1964" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/17</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D1964" t="inlineStr"/>
       <c r="E1964" t="inlineStr">
         <is>
-          <t>9.8%</t>
+          <t>C$-1.49B</t>
         </is>
       </c>
       <c r="F1964" t="inlineStr"/>
-      <c r="G1964" t="inlineStr"/>
+      <c r="G1964" t="inlineStr">
+        <is>
+          <t>C$-1.9B</t>
+        </is>
+      </c>
       <c r="H1964" t="inlineStr">
         <is>
           <t>3</t>
@@ -63734,17 +63348,17 @@
     <row r="1965">
       <c r="A1965" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1965" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1965" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/24</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="D1965" t="inlineStr"/>
@@ -63760,31 +63374,23 @@
     <row r="1966">
       <c r="A1966" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1966" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1966" t="inlineStr">
         <is>
-          <t>Infrastructure Output YoYDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="D1966" t="inlineStr"/>
-      <c r="E1966" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E1966" t="inlineStr"/>
       <c r="F1966" t="inlineStr"/>
-      <c r="G1966" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="G1966" t="inlineStr"/>
       <c r="H1966" t="inlineStr">
         <is>
           <t>3</t>
@@ -63794,29 +63400,29 @@
     <row r="1967">
       <c r="A1967" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1967" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1967" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Exports YoYJAN</t>
         </is>
       </c>
       <c r="D1967" t="inlineStr"/>
       <c r="E1967" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="F1967" t="inlineStr"/>
       <c r="G1967" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1967" t="inlineStr">
@@ -63828,131 +63434,123 @@
     <row r="1968">
       <c r="A1968" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1968" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1968" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D1968" t="inlineStr"/>
       <c r="E1968" t="inlineStr">
         <is>
-          <t>ZAR34.7B</t>
+          <t>$6.49B</t>
         </is>
       </c>
       <c r="F1968" t="inlineStr"/>
       <c r="G1968" t="inlineStr">
         <is>
-          <t>ZAR 18B</t>
+          <t>$0.9B</t>
         </is>
       </c>
       <c r="H1968" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1969">
       <c r="A1969" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1969" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1969" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Imports YoYJAN</t>
         </is>
       </c>
       <c r="D1969" t="inlineStr"/>
       <c r="E1969" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F1969" t="inlineStr"/>
       <c r="G1969" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H1969" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1970">
-      <c r="A1970" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
+      <c r="A1970" t="inlineStr"/>
       <c r="B1970" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1970" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D1970" t="inlineStr"/>
       <c r="E1970" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F1970" t="inlineStr"/>
       <c r="G1970" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H1970" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1971">
-      <c r="A1971" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
+      <c r="A1971" t="inlineStr"/>
       <c r="B1971" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1971" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D1971" t="inlineStr"/>
       <c r="E1971" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>28.8%</t>
         </is>
       </c>
       <c r="F1971" t="inlineStr"/>
       <c r="G1971" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H1971" t="inlineStr">
@@ -63962,31 +63560,27 @@
       </c>
     </row>
     <row r="1972">
-      <c r="A1972" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
+      <c r="A1972" t="inlineStr"/>
       <c r="B1972" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1972" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D1972" t="inlineStr"/>
       <c r="E1972" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>-4.9%</t>
         </is>
       </c>
       <c r="F1972" t="inlineStr"/>
       <c r="G1972" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>-4.0%</t>
         </is>
       </c>
       <c r="H1972" t="inlineStr">
@@ -63996,249 +63590,201 @@
       </c>
     </row>
     <row r="1973">
-      <c r="A1973" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1973" t="inlineStr"/>
       <c r="B1973" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1973" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1973" t="inlineStr"/>
       <c r="E1973" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1973" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="F1973" t="inlineStr"/>
       <c r="G1973" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H1973" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1974">
       <c r="A1974" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1974" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1974" t="inlineStr">
-        <is>
-          <t>GDP MoM PrelDEC</t>
-        </is>
-      </c>
+          <t>Sunday February 02 2025</t>
+        </is>
+      </c>
+      <c r="B1974" t="inlineStr"/>
+      <c r="C1974" t="inlineStr"/>
       <c r="D1974" t="inlineStr"/>
-      <c r="E1974" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="E1974" t="inlineStr"/>
       <c r="F1974" t="inlineStr"/>
-      <c r="G1974" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H1974" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1974" t="inlineStr"/>
+      <c r="H1974" t="inlineStr"/>
     </row>
     <row r="1975">
       <c r="A1975" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1975" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1975" t="inlineStr">
         <is>
-          <t>Core PCE Price Index MoMDEC</t>
+          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1975" t="inlineStr"/>
       <c r="E1975" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="F1975" t="inlineStr"/>
-      <c r="G1975" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1975" t="inlineStr"/>
       <c r="H1975" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1976">
       <c r="A1976" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1976" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1976" t="inlineStr">
         <is>
-          <t>Personal Income MoMDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1976" t="inlineStr"/>
       <c r="E1976" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1976" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="F1976" t="inlineStr"/>
       <c r="G1976" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1976" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1977">
       <c r="A1977" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1977" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1977" t="inlineStr">
         <is>
-          <t>Personal Spending MoMDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1977" t="inlineStr"/>
       <c r="E1977" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F1977" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1977" t="inlineStr"/>
       <c r="G1977" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H1977" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1978">
       <c r="A1978" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1978" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1978" t="inlineStr">
         <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1978" t="inlineStr"/>
       <c r="E1978" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F1978" t="inlineStr"/>
       <c r="G1978" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1978" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1979">
       <c r="A1979" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1979" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1979" t="inlineStr">
         <is>
-          <t>Employment Cost - Wages QoQQ4</t>
+          <t>BoJ Summary of Opinions</t>
         </is>
       </c>
       <c r="D1979" t="inlineStr"/>
-      <c r="E1979" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1979" t="inlineStr"/>
       <c r="F1979" t="inlineStr"/>
-      <c r="G1979" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G1979" t="inlineStr"/>
       <c r="H1979" t="inlineStr">
         <is>
           <t>2</t>
@@ -64248,29 +63794,29 @@
     <row r="1980">
       <c r="A1980" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1980" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1980" t="inlineStr">
         <is>
-          <t>Employment Cost Index QoQQ4</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1980" t="inlineStr"/>
       <c r="E1980" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F1980" t="inlineStr"/>
       <c r="G1980" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H1980" t="inlineStr">
@@ -64282,29 +63828,29 @@
     <row r="1981">
       <c r="A1981" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1981" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1981" t="inlineStr">
         <is>
-          <t>PCE Price Index MoMDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1981" t="inlineStr"/>
       <c r="E1981" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1981" t="inlineStr"/>
       <c r="G1981" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1981" t="inlineStr">
@@ -64316,65 +63862,57 @@
     <row r="1982">
       <c r="A1982" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1982" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1982" t="inlineStr">
         <is>
-          <t>PCE Price Index YoYDEC</t>
+          <t>ANZ-Indeed Job Ads MoMJAN</t>
         </is>
       </c>
       <c r="D1982" t="inlineStr"/>
       <c r="E1982" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1982" t="inlineStr"/>
-      <c r="G1982" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G1982" t="inlineStr"/>
       <c r="H1982" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1983">
       <c r="A1983" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1983" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1983" t="inlineStr">
         <is>
-          <t>Core PCE Price Index YoYDEC</t>
+          <t>Private House Approvals MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1983" t="inlineStr"/>
       <c r="E1983" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F1983" t="inlineStr"/>
-      <c r="G1983" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="G1983" t="inlineStr"/>
       <c r="H1983" t="inlineStr">
         <is>
           <t>3</t>
@@ -64384,143 +63922,163 @@
     <row r="1984">
       <c r="A1984" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1984" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1984" t="inlineStr">
         <is>
-          <t>Chicago PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1984" t="inlineStr"/>
       <c r="E1984" t="inlineStr">
         <is>
-          <t>36.9</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F1984" t="inlineStr"/>
       <c r="G1984" t="inlineStr">
         <is>
-          <t>37.2</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="H1984" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1985">
       <c r="A1985" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1985" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1985" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1985" t="inlineStr"/>
       <c r="E1985" t="inlineStr">
         <is>
-          <t>C$-1.49B</t>
-        </is>
-      </c>
-      <c r="F1985" t="inlineStr"/>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F1985" t="inlineStr">
+        <is>
+          <t>48.8</t>
+        </is>
+      </c>
       <c r="G1985" t="inlineStr">
         <is>
-          <t>C$-1.9B</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="H1985" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1986">
       <c r="A1986" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1986" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1986" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1986" t="inlineStr"/>
-      <c r="E1986" t="inlineStr"/>
+      <c r="E1986" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
       <c r="F1986" t="inlineStr"/>
-      <c r="G1986" t="inlineStr"/>
+      <c r="G1986" t="inlineStr">
+        <is>
+          <t>49.5</t>
+        </is>
+      </c>
       <c r="H1986" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1987">
       <c r="A1987" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:45 PM</t>
         </is>
       </c>
       <c r="B1987" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1987" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
+          <t>Caixin Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1987" t="inlineStr"/>
-      <c r="E1987" t="inlineStr"/>
+      <c r="E1987" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="F1987" t="inlineStr"/>
-      <c r="G1987" t="inlineStr"/>
+      <c r="G1987" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="H1987" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1988">
       <c r="A1988" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B1988" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1988" t="inlineStr">
         <is>
-          <t>Exports YoYJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1988" t="inlineStr"/>
       <c r="E1988" t="inlineStr">
         <is>
-          <t>6.6%</t>
+          <t>1.57%</t>
         </is>
       </c>
       <c r="F1988" t="inlineStr"/>
@@ -64534,23 +64092,23 @@
     <row r="1989">
       <c r="A1989" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B1989" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1989" t="inlineStr">
         <is>
-          <t>Balance of TradeJAN</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1989" t="inlineStr"/>
       <c r="E1989" t="inlineStr">
         <is>
-          <t>$6.49B</t>
+          <t>2.26%</t>
         </is>
       </c>
       <c r="F1989" t="inlineStr"/>
@@ -64564,23 +64122,23 @@
     <row r="1990">
       <c r="A1990" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B1990" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1990" t="inlineStr">
         <is>
-          <t>Imports YoYJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1990" t="inlineStr"/>
       <c r="E1990" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.44%</t>
         </is>
       </c>
       <c r="F1990" t="inlineStr"/>
@@ -64592,29 +64150,29 @@
       </c>
     </row>
     <row r="1991">
-      <c r="A1991" t="inlineStr"/>
+      <c r="A1991" t="inlineStr">
+        <is>
+          <t>11:45 PM</t>
+        </is>
+      </c>
       <c r="B1991" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1991" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D1991" t="inlineStr"/>
       <c r="E1991" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>17.27%</t>
         </is>
       </c>
       <c r="F1991" t="inlineStr"/>
-      <c r="G1991" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G1991" t="inlineStr"/>
       <c r="H1991" t="inlineStr">
         <is>
           <t>3</t>
@@ -64622,57 +64180,49 @@
       </c>
     </row>
     <row r="1992">
-      <c r="A1992" t="inlineStr"/>
-      <c r="B1992" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C1992" t="inlineStr">
-        <is>
-          <t>New Car Sales YoYJAN</t>
-        </is>
-      </c>
+      <c r="A1992" t="inlineStr">
+        <is>
+          <t>Monday February 03 2025</t>
+        </is>
+      </c>
+      <c r="B1992" t="inlineStr"/>
+      <c r="C1992" t="inlineStr"/>
       <c r="D1992" t="inlineStr"/>
-      <c r="E1992" t="inlineStr">
-        <is>
-          <t>28.8%</t>
-        </is>
-      </c>
+      <c r="E1992" t="inlineStr"/>
       <c r="F1992" t="inlineStr"/>
-      <c r="G1992" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H1992" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1992" t="inlineStr"/>
+      <c r="H1992" t="inlineStr"/>
     </row>
     <row r="1993">
-      <c r="A1993" t="inlineStr"/>
+      <c r="A1993" t="inlineStr">
+        <is>
+          <t>12:00 AM</t>
+        </is>
+      </c>
       <c r="B1993" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1993" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>HSBC Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1993" t="inlineStr"/>
       <c r="E1993" t="inlineStr">
         <is>
-          <t>-4.9%</t>
-        </is>
-      </c>
-      <c r="F1993" t="inlineStr"/>
+          <t>56.4</t>
+        </is>
+      </c>
+      <c r="F1993" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
       <c r="G1993" t="inlineStr">
         <is>
-          <t>-4.0%</t>
+          <t>58</t>
         </is>
       </c>
       <c r="H1993" t="inlineStr">
@@ -64682,29 +64232,29 @@
       </c>
     </row>
     <row r="1994">
-      <c r="A1994" t="inlineStr"/>
+      <c r="A1994" t="inlineStr">
+        <is>
+          <t>12:30 AM</t>
+        </is>
+      </c>
       <c r="B1994" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1994" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>Commodity Prices YoYJAN</t>
         </is>
       </c>
       <c r="D1994" t="inlineStr"/>
       <c r="E1994" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>-10.7%</t>
         </is>
       </c>
       <c r="F1994" t="inlineStr"/>
-      <c r="G1994" t="inlineStr">
-        <is>
-          <t>20.7%</t>
-        </is>
-      </c>
+      <c r="G1994" t="inlineStr"/>
       <c r="H1994" t="inlineStr">
         <is>
           <t>3</t>
@@ -64714,37 +64264,53 @@
     <row r="1995">
       <c r="A1995" t="inlineStr">
         <is>
-          <t>Sunday February 02 2025</t>
-        </is>
-      </c>
-      <c r="B1995" t="inlineStr"/>
-      <c r="C1995" t="inlineStr"/>
+          <t>01:00 AM</t>
+        </is>
+      </c>
+      <c r="B1995" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C1995" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
+        </is>
+      </c>
       <c r="D1995" t="inlineStr"/>
-      <c r="E1995" t="inlineStr"/>
+      <c r="E1995" t="inlineStr">
+        <is>
+          <t>50.8</t>
+        </is>
+      </c>
       <c r="F1995" t="inlineStr"/>
       <c r="G1995" t="inlineStr"/>
-      <c r="H1995" t="inlineStr"/>
+      <c r="H1995" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1996">
       <c r="A1996" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1996" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1996" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1996" t="inlineStr"/>
       <c r="E1996" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>1.03%</t>
         </is>
       </c>
       <c r="F1996" t="inlineStr"/>
@@ -64758,65 +64324,57 @@
     <row r="1997">
       <c r="A1997" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1997" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1997" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1997" t="inlineStr"/>
       <c r="E1997" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F1997" t="inlineStr"/>
-      <c r="G1997" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G1997" t="inlineStr"/>
       <c r="H1997" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1998">
       <c r="A1998" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1998" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1998" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1998" t="inlineStr"/>
       <c r="E1998" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F1998" t="inlineStr"/>
-      <c r="G1998" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+      <c r="G1998" t="inlineStr"/>
       <c r="H1998" t="inlineStr">
         <is>
           <t>3</t>
@@ -64826,17 +64384,17 @@
     <row r="1999">
       <c r="A1999" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1999" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1999" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D1999" t="inlineStr"/>
@@ -64846,11 +64404,7 @@
         </is>
       </c>
       <c r="F1999" t="inlineStr"/>
-      <c r="G1999" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1999" t="inlineStr"/>
       <c r="H1999" t="inlineStr">
         <is>
           <t>3</t>
@@ -64860,57 +64414,57 @@
     <row r="2000">
       <c r="A2000" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2000" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2000" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2000" t="inlineStr"/>
-      <c r="E2000" t="inlineStr"/>
+      <c r="E2000" t="inlineStr">
+        <is>
+          <t>28.52%</t>
+        </is>
+      </c>
       <c r="F2000" t="inlineStr"/>
       <c r="G2000" t="inlineStr"/>
       <c r="H2000" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2001">
       <c r="A2001" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2001" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2001" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2001" t="inlineStr"/>
       <c r="E2001" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>-25.3K</t>
         </is>
       </c>
       <c r="F2001" t="inlineStr"/>
-      <c r="G2001" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2001" t="inlineStr"/>
       <c r="H2001" t="inlineStr">
         <is>
           <t>2</t>
@@ -64920,161 +64474,157 @@
     <row r="2002">
       <c r="A2002" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2002" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2002" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2002" t="inlineStr"/>
-      <c r="E2002" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E2002" t="inlineStr"/>
       <c r="F2002" t="inlineStr"/>
-      <c r="G2002" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2002" t="inlineStr"/>
       <c r="H2002" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2003">
       <c r="A2003" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B2003" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2003" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2003" t="inlineStr"/>
       <c r="E2003" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2003" t="inlineStr"/>
       <c r="G2003" t="inlineStr"/>
       <c r="H2003" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2004">
       <c r="A2004" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:45 AM</t>
         </is>
       </c>
       <c r="B2004" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2004" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2004" t="inlineStr"/>
       <c r="E2004" t="inlineStr">
         <is>
-          <t>-1.7%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2004" t="inlineStr"/>
       <c r="G2004" t="inlineStr"/>
       <c r="H2004" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2005">
       <c r="A2005" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:50 AM</t>
         </is>
       </c>
       <c r="B2005" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2005" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2005" t="inlineStr"/>
       <c r="E2005" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2005" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F2005" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="G2005" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="H2005" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2006">
       <c r="A2006" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2006" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2006" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2006" t="inlineStr"/>
       <c r="E2006" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>42.5</t>
         </is>
       </c>
       <c r="F2006" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="G2006" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="H2006" t="inlineStr">
@@ -65086,23 +64636,35 @@
     <row r="2007">
       <c r="A2007" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2007" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2007" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2007" t="inlineStr"/>
-      <c r="E2007" t="inlineStr"/>
-      <c r="F2007" t="inlineStr"/>
-      <c r="G2007" t="inlineStr"/>
+      <c r="E2007" t="inlineStr">
+        <is>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="F2007" t="inlineStr">
+        <is>
+          <t>46.1</t>
+        </is>
+      </c>
+      <c r="G2007" t="inlineStr">
+        <is>
+          <t>46.1</t>
+        </is>
+      </c>
       <c r="H2007" t="inlineStr">
         <is>
           <t>2</t>
@@ -65112,61 +64674,69 @@
     <row r="2008">
       <c r="A2008" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2008" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2008" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2008" t="inlineStr"/>
       <c r="E2008" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2008" t="inlineStr"/>
       <c r="G2008" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H2008" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2009" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2009" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2009" t="inlineStr"/>
       <c r="E2009" t="inlineStr">
         <is>
-          <t>1.57%</t>
-        </is>
-      </c>
-      <c r="F2009" t="inlineStr"/>
-      <c r="G2009" t="inlineStr"/>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F2009" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
+      <c r="G2009" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
       <c r="H2009" t="inlineStr">
         <is>
           <t>2</t>
@@ -65176,614 +64746,264 @@
     <row r="2010">
       <c r="A2010" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2010" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2010" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2010" t="inlineStr"/>
-      <c r="E2010" t="inlineStr">
-        <is>
-          <t>2.26%</t>
-        </is>
-      </c>
+      <c r="E2010" t="inlineStr"/>
       <c r="F2010" t="inlineStr"/>
       <c r="G2010" t="inlineStr"/>
       <c r="H2010" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2011">
       <c r="A2011" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2011" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2011" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2011" t="inlineStr"/>
       <c r="E2011" t="inlineStr">
         <is>
-          <t>0.44%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F2011" t="inlineStr"/>
       <c r="G2011" t="inlineStr"/>
       <c r="H2011" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2012">
       <c r="A2012" t="inlineStr">
         <is>
-          <t>11:45 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2012" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2012" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2012" t="inlineStr"/>
-      <c r="E2012" t="inlineStr">
-        <is>
-          <t>17.27%</t>
-        </is>
-      </c>
+      <c r="E2012" t="inlineStr"/>
       <c r="F2012" t="inlineStr"/>
       <c r="G2012" t="inlineStr"/>
       <c r="H2012" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2013">
       <c r="A2013" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2013" t="inlineStr"/>
-      <c r="C2013" t="inlineStr"/>
+          <t>05:00 AM</t>
+        </is>
+      </c>
+      <c r="B2013" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C2013" t="inlineStr">
+        <is>
+          <t>CPI FlashJAN</t>
+        </is>
+      </c>
       <c r="D2013" t="inlineStr"/>
-      <c r="E2013" t="inlineStr"/>
+      <c r="E2013" t="inlineStr">
+        <is>
+          <t>127.07</t>
+        </is>
+      </c>
       <c r="F2013" t="inlineStr"/>
       <c r="G2013" t="inlineStr"/>
-      <c r="H2013" t="inlineStr"/>
+      <c r="H2013" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2014">
       <c r="A2014" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2014" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2014" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2014" t="inlineStr"/>
       <c r="E2014" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2014" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2014" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F2014" t="inlineStr"/>
+      <c r="G2014" t="inlineStr"/>
       <c r="H2014" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2015">
       <c r="A2015" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2015" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2015" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2015" t="inlineStr"/>
       <c r="E2015" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2015" t="inlineStr"/>
       <c r="G2015" t="inlineStr"/>
       <c r="H2015" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2016">
       <c r="A2016" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2016" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2016" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2016" t="inlineStr"/>
       <c r="E2016" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2016" t="inlineStr"/>
       <c r="G2016" t="inlineStr"/>
       <c r="H2016" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2017">
       <c r="A2017" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2017" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2017" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2017" t="inlineStr"/>
       <c r="E2017" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2017" t="inlineStr"/>
       <c r="G2017" t="inlineStr"/>
       <c r="H2017" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2018">
       <c r="A2018" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2018" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2018" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2018" t="inlineStr"/>
       <c r="E2018" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2018" t="inlineStr"/>
-      <c r="G2018" t="inlineStr"/>
+      <c r="G2018" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2018" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2019">
-      <c r="A2019" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2019" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2019" t="inlineStr">
-        <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2019" t="inlineStr"/>
-      <c r="E2019" t="inlineStr">
-        <is>
-          <t>49.1</t>
-        </is>
-      </c>
-      <c r="F2019" t="inlineStr"/>
-      <c r="G2019" t="inlineStr"/>
-      <c r="H2019" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2020">
-      <c r="A2020" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2020" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2020" t="inlineStr">
-        <is>
-          <t>PPI MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2020" t="inlineStr"/>
-      <c r="E2020" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2020" t="inlineStr"/>
-      <c r="G2020" t="inlineStr"/>
-      <c r="H2020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2021">
-      <c r="A2021" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2021" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2021" t="inlineStr">
-        <is>
-          <t>PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2021" t="inlineStr"/>
-      <c r="E2021" t="inlineStr">
-        <is>
-          <t>28.52%</t>
-        </is>
-      </c>
-      <c r="F2021" t="inlineStr"/>
-      <c r="G2021" t="inlineStr"/>
-      <c r="H2021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2022">
-      <c r="A2022" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B2022" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C2022" t="inlineStr">
-        <is>
-          <t>Unemployment ChangeJAN</t>
-        </is>
-      </c>
-      <c r="D2022" t="inlineStr"/>
-      <c r="E2022" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
-      <c r="F2022" t="inlineStr"/>
-      <c r="G2022" t="inlineStr"/>
-      <c r="H2022" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2023">
-      <c r="A2023" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B2023" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C2023" t="inlineStr">
-        <is>
-          <t>Tourist Arrivals YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2023" t="inlineStr"/>
-      <c r="E2023" t="inlineStr"/>
-      <c r="F2023" t="inlineStr"/>
-      <c r="G2023" t="inlineStr"/>
-      <c r="H2023" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2024">
-      <c r="A2024" t="inlineStr">
-        <is>
-          <t>03:15 AM</t>
-        </is>
-      </c>
-      <c r="B2024" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C2024" t="inlineStr">
-        <is>
-          <t>HCOB Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2024" t="inlineStr"/>
-      <c r="E2024" t="inlineStr">
-        <is>
-          <t>53.3</t>
-        </is>
-      </c>
-      <c r="F2024" t="inlineStr"/>
-      <c r="G2024" t="inlineStr"/>
-      <c r="H2024" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2025">
-      <c r="A2025" t="inlineStr">
-        <is>
-          <t>03:45 AM</t>
-        </is>
-      </c>
-      <c r="B2025" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2025" t="inlineStr">
-        <is>
-          <t>HCOB Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2025" t="inlineStr"/>
-      <c r="E2025" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
-      <c r="F2025" t="inlineStr"/>
-      <c r="G2025" t="inlineStr"/>
-      <c r="H2025" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2026">
-      <c r="A2026" t="inlineStr">
-        <is>
-          <t>03:50 AM</t>
-        </is>
-      </c>
-      <c r="B2026" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2026" t="inlineStr">
-        <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2026" t="inlineStr"/>
-      <c r="E2026" t="inlineStr">
-        <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2026" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2026" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="H2026" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2027">
-      <c r="A2027" t="inlineStr">
-        <is>
-          <t>03:55 AM</t>
-        </is>
-      </c>
-      <c r="B2027" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C2027" t="inlineStr">
-        <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2027" t="inlineStr"/>
-      <c r="E2027" t="inlineStr">
-        <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2027" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="G2027" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="H2027" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2028">
-      <c r="A2028" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B2028" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C2028" t="inlineStr">
-        <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2028" t="inlineStr"/>
-      <c r="E2028" t="inlineStr">
-        <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2028" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
-      <c r="G2028" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
-      <c r="H2028" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2029">
-      <c r="A2029" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B2029" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2029" t="inlineStr">
-        <is>
-          <t>ABSA Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2029" t="inlineStr"/>
-      <c r="E2029" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
-      <c r="F2029" t="inlineStr"/>
-      <c r="G2029" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="H2029" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-03.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2046"/>
+  <dimension ref="A1:H2027"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56483,10 +56483,8 @@
       </c>
       <c r="F1740" t="inlineStr"/>
       <c r="G1740" t="inlineStr"/>
-      <c r="H1740" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1740" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1741">
@@ -56521,10 +56519,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1741" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1741" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1742">
@@ -56555,10 +56551,8 @@
           <t>433</t>
         </is>
       </c>
-      <c r="H1742" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1742" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1743">
@@ -56593,10 +56587,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1743" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1743" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1744">
@@ -56627,10 +56619,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1744" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1744" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1745">
@@ -56661,10 +56651,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1745" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1745" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1746">
@@ -56687,10 +56675,8 @@
       <c r="E1746" t="inlineStr"/>
       <c r="F1746" t="inlineStr"/>
       <c r="G1746" t="inlineStr"/>
-      <c r="H1746" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1746" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1747">
@@ -56725,10 +56711,8 @@
           <t>104</t>
         </is>
       </c>
-      <c r="H1747" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1747" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1748">
@@ -56763,10 +56747,8 @@
           <t>-8</t>
         </is>
       </c>
-      <c r="H1748" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1748" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1749">
@@ -56797,10 +56779,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H1749" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1749" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1750">
@@ -56831,10 +56811,8 @@
           <t>21</t>
         </is>
       </c>
-      <c r="H1750" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1750" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1751">
@@ -56865,10 +56843,8 @@
           <t>9.5</t>
         </is>
       </c>
-      <c r="H1751" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1751" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1752">
@@ -56899,10 +56875,8 @@
           <t>13</t>
         </is>
       </c>
-      <c r="H1752" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1752" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1753">
@@ -56929,10 +56903,8 @@
       </c>
       <c r="F1753" t="inlineStr"/>
       <c r="G1753" t="inlineStr"/>
-      <c r="H1753" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1753" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1754">
@@ -56959,10 +56931,8 @@
       </c>
       <c r="F1754" t="inlineStr"/>
       <c r="G1754" t="inlineStr"/>
-      <c r="H1754" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1754" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1755">
@@ -56985,10 +56955,8 @@
       <c r="E1755" t="inlineStr"/>
       <c r="F1755" t="inlineStr"/>
       <c r="G1755" t="inlineStr"/>
-      <c r="H1755" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1755" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1756">
@@ -57015,10 +56983,8 @@
       </c>
       <c r="F1756" t="inlineStr"/>
       <c r="G1756" t="inlineStr"/>
-      <c r="H1756" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1756" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1757">
@@ -57045,10 +57011,8 @@
       </c>
       <c r="F1757" t="inlineStr"/>
       <c r="G1757" t="inlineStr"/>
-      <c r="H1757" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1757" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1758">
@@ -57075,10 +57039,8 @@
       </c>
       <c r="F1758" t="inlineStr"/>
       <c r="G1758" t="inlineStr"/>
-      <c r="H1758" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1758" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1759">
@@ -57101,10 +57063,8 @@
       <c r="E1759" t="inlineStr"/>
       <c r="F1759" t="inlineStr"/>
       <c r="G1759" t="inlineStr"/>
-      <c r="H1759" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1759" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1760">
@@ -57139,10 +57099,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H1760" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1760" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1761">
@@ -57177,10 +57135,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1761" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1761" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1762">
@@ -57215,10 +57171,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H1762" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1762" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1763">
@@ -57253,10 +57207,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1763" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1763" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1764">
@@ -57291,10 +57243,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H1764" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1764" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1765">
@@ -57325,10 +57275,8 @@
           <t>139.1</t>
         </is>
       </c>
-      <c r="H1765" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1765" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1766">
@@ -57363,10 +57311,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1766" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1766" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1767">
@@ -57401,10 +57347,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H1767" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1767" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1768">
@@ -57431,10 +57375,8 @@
       </c>
       <c r="F1768" t="inlineStr"/>
       <c r="G1768" t="inlineStr"/>
-      <c r="H1768" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1768" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1769">
@@ -57483,10 +57425,8 @@
           <t>36.3</t>
         </is>
       </c>
-      <c r="H1770" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1770" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1771">
@@ -57521,10 +57461,8 @@
           <t>-21</t>
         </is>
       </c>
-      <c r="H1771" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1771" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1772">
@@ -57559,10 +57497,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1772" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1772" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1773">
@@ -57593,10 +57529,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1773" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1773" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1774">
@@ -57627,10 +57561,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H1774" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1774" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1775">
@@ -57665,10 +57597,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1775" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1775" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1776">
@@ -57703,10 +57633,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1776" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1776" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1777">
@@ -57737,10 +57665,8 @@
           <t>85.5</t>
         </is>
       </c>
-      <c r="H1777" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1777" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1778">
@@ -57771,10 +57697,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H1778" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1778" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1779">
@@ -57801,10 +57725,8 @@
       </c>
       <c r="F1779" t="inlineStr"/>
       <c r="G1779" t="inlineStr"/>
-      <c r="H1779" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1779" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1780">
@@ -57831,10 +57753,8 @@
       </c>
       <c r="F1780" t="inlineStr"/>
       <c r="G1780" t="inlineStr"/>
-      <c r="H1780" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1780" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1781">
@@ -57861,10 +57781,8 @@
       </c>
       <c r="F1781" t="inlineStr"/>
       <c r="G1781" t="inlineStr"/>
-      <c r="H1781" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1781" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1782">
@@ -57895,10 +57813,8 @@
           <t>2.70%</t>
         </is>
       </c>
-      <c r="H1782" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1782" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1783">
@@ -57925,10 +57841,8 @@
       </c>
       <c r="F1783" t="inlineStr"/>
       <c r="G1783" t="inlineStr"/>
-      <c r="H1783" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1783" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1784">
@@ -57955,10 +57869,8 @@
       </c>
       <c r="F1784" t="inlineStr"/>
       <c r="G1784" t="inlineStr"/>
-      <c r="H1784" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1784" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1785">
@@ -57985,10 +57897,8 @@
       </c>
       <c r="F1785" t="inlineStr"/>
       <c r="G1785" t="inlineStr"/>
-      <c r="H1785" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1785" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1786">
@@ -58015,10 +57925,8 @@
       </c>
       <c r="F1786" t="inlineStr"/>
       <c r="G1786" t="inlineStr"/>
-      <c r="H1786" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1786" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1787">
@@ -58045,10 +57953,8 @@
       </c>
       <c r="F1787" t="inlineStr"/>
       <c r="G1787" t="inlineStr"/>
-      <c r="H1787" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1787" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1788">
@@ -58083,10 +57989,8 @@
           <t>$ -101.0B</t>
         </is>
       </c>
-      <c r="H1788" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1788" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1789">
@@ -58117,10 +58021,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1789" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1789" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1790">
@@ -58155,10 +58057,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1790" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1790" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1791">
@@ -58193,10 +58093,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1791" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1791" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1792">
@@ -58219,10 +58117,8 @@
       <c r="E1792" t="inlineStr"/>
       <c r="F1792" t="inlineStr"/>
       <c r="G1792" t="inlineStr"/>
-      <c r="H1792" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1792" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1793">
@@ -58245,10 +58141,8 @@
       <c r="E1793" t="inlineStr"/>
       <c r="F1793" t="inlineStr"/>
       <c r="G1793" t="inlineStr"/>
-      <c r="H1793" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1793" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1794">
@@ -58275,10 +58169,8 @@
       </c>
       <c r="F1794" t="inlineStr"/>
       <c r="G1794" t="inlineStr"/>
-      <c r="H1794" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1794" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1795">
@@ -58305,10 +58197,8 @@
       </c>
       <c r="F1795" t="inlineStr"/>
       <c r="G1795" t="inlineStr"/>
-      <c r="H1795" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1795" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1796">
@@ -58335,10 +58225,8 @@
       </c>
       <c r="F1796" t="inlineStr"/>
       <c r="G1796" t="inlineStr"/>
-      <c r="H1796" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1796" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1797">
@@ -58365,10 +58253,8 @@
       </c>
       <c r="F1797" t="inlineStr"/>
       <c r="G1797" t="inlineStr"/>
-      <c r="H1797" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1797" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1798">
@@ -58395,10 +58281,8 @@
       </c>
       <c r="F1798" t="inlineStr"/>
       <c r="G1798" t="inlineStr"/>
-      <c r="H1798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1798" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1799">
@@ -58425,10 +58309,8 @@
       </c>
       <c r="F1799" t="inlineStr"/>
       <c r="G1799" t="inlineStr"/>
-      <c r="H1799" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1799" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1800">
@@ -58455,10 +58337,8 @@
       </c>
       <c r="F1800" t="inlineStr"/>
       <c r="G1800" t="inlineStr"/>
-      <c r="H1800" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1800" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1801">
@@ -58485,10 +58365,8 @@
       </c>
       <c r="F1801" t="inlineStr"/>
       <c r="G1801" t="inlineStr"/>
-      <c r="H1801" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1801" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1802">
@@ -58515,10 +58393,8 @@
       </c>
       <c r="F1802" t="inlineStr"/>
       <c r="G1802" t="inlineStr"/>
-      <c r="H1802" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1802" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1803">
@@ -58549,10 +58425,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1803" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1804">
@@ -58583,10 +58457,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1804" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1804" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1805">
@@ -58613,10 +58485,8 @@
       </c>
       <c r="F1805" t="inlineStr"/>
       <c r="G1805" t="inlineStr"/>
-      <c r="H1805" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1805" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1806">
@@ -58651,10 +58521,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H1806" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1806" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1807">
@@ -58677,10 +58545,8 @@
       <c r="E1807" t="inlineStr"/>
       <c r="F1807" t="inlineStr"/>
       <c r="G1807" t="inlineStr"/>
-      <c r="H1807" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1807" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1808">
@@ -58711,10 +58577,8 @@
           <t>12.25%</t>
         </is>
       </c>
-      <c r="H1808" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1808" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1809">
@@ -58741,10 +58605,8 @@
       </c>
       <c r="F1809" t="inlineStr"/>
       <c r="G1809" t="inlineStr"/>
-      <c r="H1809" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1809" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1810">
@@ -58771,10 +58633,8 @@
       </c>
       <c r="F1810" t="inlineStr"/>
       <c r="G1810" t="inlineStr"/>
-      <c r="H1810" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1810" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1811">
@@ -58805,10 +58665,8 @@
           <t>-20.0%</t>
         </is>
       </c>
-      <c r="H1811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1811" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1812">
@@ -58831,10 +58689,8 @@
       <c r="E1812" t="inlineStr"/>
       <c r="F1812" t="inlineStr"/>
       <c r="G1812" t="inlineStr"/>
-      <c r="H1812" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1812" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1813">
@@ -58865,10 +58721,8 @@
           <t>-6.6%</t>
         </is>
       </c>
-      <c r="H1813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1813" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1814">
@@ -58903,10 +58757,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1814" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1814" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1815">
@@ -58951,10 +58803,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1816" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1816" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1817">
@@ -58981,10 +58831,8 @@
       </c>
       <c r="F1817" t="inlineStr"/>
       <c r="G1817" t="inlineStr"/>
-      <c r="H1817" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1817" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1818">
@@ -59015,10 +58863,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1818" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1818" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1819">
@@ -59053,10 +58899,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1819" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1819" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1820">
@@ -59087,10 +58931,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H1820" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1820" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1821">
@@ -59125,10 +58967,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1821" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1822">
@@ -59163,10 +59003,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1822" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1823">
@@ -59197,10 +59035,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1823" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1824">
@@ -59231,10 +59067,8 @@
           <t>98.3</t>
         </is>
       </c>
-      <c r="H1824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1824" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1825">
@@ -59265,10 +59099,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1825" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1825" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1826">
@@ -59303,10 +59135,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H1826" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1826" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1827">
@@ -59337,10 +59167,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H1827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1827" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1828">
@@ -59371,10 +59199,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1828" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1829">
@@ -59405,10 +59231,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1829" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1830">
@@ -59443,10 +59267,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1830" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1830" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1831">
@@ -59481,10 +59303,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1831" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1831" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1832">
@@ -59519,10 +59339,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1832" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1832" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1833">
@@ -59553,10 +59371,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1833" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1833" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1834">
@@ -59587,10 +59403,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1834" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1834" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1835">
@@ -59621,10 +59435,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1835" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1835" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1836">
@@ -59655,10 +59467,8 @@
           <t>£ 1.3B</t>
         </is>
       </c>
-      <c r="H1836" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1836" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1837">
@@ -59693,10 +59503,8 @@
           <t>65.1K</t>
         </is>
       </c>
-      <c r="H1837" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1837" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1838">
@@ -59727,10 +59535,8 @@
           <t>£ 2.2B</t>
         </is>
       </c>
-      <c r="H1838" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1838" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1839">
@@ -59765,10 +59571,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1839" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1840">
@@ -59803,10 +59607,8 @@
           <t>£3.5B</t>
         </is>
       </c>
-      <c r="H1840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1840" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1841">
@@ -59841,10 +59643,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1841" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1841" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1842">
@@ -59879,10 +59679,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H1842" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1842" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1843">
@@ -59913,10 +59711,8 @@
         </is>
       </c>
       <c r="G1843" t="inlineStr"/>
-      <c r="H1843" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1843" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1844">
@@ -59951,10 +59747,8 @@
           <t>93.5</t>
         </is>
       </c>
-      <c r="H1844" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1844" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1845">
@@ -59989,10 +59783,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1845" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1845" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1846">
@@ -60023,10 +59815,8 @@
           <t>22</t>
         </is>
       </c>
-      <c r="H1846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1846" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1847">
@@ -60057,10 +59847,8 @@
           <t>-14.5</t>
         </is>
       </c>
-      <c r="H1847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1847" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1848">
@@ -60091,10 +59879,8 @@
           <t>8</t>
         </is>
       </c>
-      <c r="H1848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1849">
@@ -60125,10 +59911,8 @@
           <t>6</t>
         </is>
       </c>
-      <c r="H1849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1849" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1850">
@@ -60163,10 +59947,8 @@
           <t>5.6%</t>
         </is>
       </c>
-      <c r="H1850" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1850" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1851">
@@ -60189,10 +59971,8 @@
       <c r="E1851" t="inlineStr"/>
       <c r="F1851" t="inlineStr"/>
       <c r="G1851" t="inlineStr"/>
-      <c r="H1851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1851" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1852">
@@ -60223,10 +60003,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H1852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1852" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1853">
@@ -60257,10 +60035,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H1853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1853" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1854">
@@ -60291,10 +60067,8 @@
           <t>-5.1%</t>
         </is>
       </c>
-      <c r="H1854" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1854" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1855">
@@ -60317,10 +60091,8 @@
       <c r="E1855" t="inlineStr"/>
       <c r="F1855" t="inlineStr"/>
       <c r="G1855" t="inlineStr"/>
-      <c r="H1855" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1855" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1856">
@@ -60347,10 +60119,8 @@
       </c>
       <c r="F1856" t="inlineStr"/>
       <c r="G1856" t="inlineStr"/>
-      <c r="H1856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1856" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1857">
@@ -60381,10 +60151,8 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H1857" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1857" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1858">
@@ -60415,10 +60183,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1858" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1858" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1859">
@@ -60449,10 +60215,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1859" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1859" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1860">
@@ -60483,10 +60247,8 @@
           <t>-5</t>
         </is>
       </c>
-      <c r="H1860" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1860" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1861">
@@ -60521,10 +60283,8 @@
           <t>7.50%</t>
         </is>
       </c>
-      <c r="H1861" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1861" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1862">
@@ -60555,10 +60315,8 @@
           <t>11.0%</t>
         </is>
       </c>
-      <c r="H1862" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1862" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1863">
@@ -60593,10 +60351,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H1863" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1863" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1864">
@@ -60631,10 +60387,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1864" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1864" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1865">
@@ -60665,10 +60419,8 @@
           <t>3.15%</t>
         </is>
       </c>
-      <c r="H1865" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1865" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1866">
@@ -60699,10 +60451,8 @@
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H1866" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1866" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1867">
@@ -60737,10 +60487,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1867" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1867" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1868">
@@ -60775,10 +60523,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H1868" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1868" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1869">
@@ -60813,10 +60559,8 @@
           <t>228.0K</t>
         </is>
       </c>
-      <c r="H1869" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1869" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1870">
@@ -60847,10 +60591,8 @@
           <t>1885.0K</t>
         </is>
       </c>
-      <c r="H1870" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1870" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1871">
@@ -60881,10 +60623,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1871" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1871" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1872">
@@ -60915,10 +60655,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1872" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1873">
@@ -60949,10 +60687,8 @@
           <t>214.0K</t>
         </is>
       </c>
-      <c r="H1873" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1873" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1874">
@@ -60983,10 +60719,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H1874" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1874" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1875">
@@ -61017,10 +60751,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1875" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1875" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1876">
@@ -61043,10 +60775,8 @@
       <c r="E1876" t="inlineStr"/>
       <c r="F1876" t="inlineStr"/>
       <c r="G1876" t="inlineStr"/>
-      <c r="H1876" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1876" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1877">
@@ -61081,10 +60811,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1877" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1877" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1878">
@@ -61115,10 +60843,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1878" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1878" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1879">
@@ -61145,10 +60871,8 @@
       </c>
       <c r="F1879" t="inlineStr"/>
       <c r="G1879" t="inlineStr"/>
-      <c r="H1879" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1879" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1880">
@@ -61175,10 +60899,8 @@
       </c>
       <c r="F1880" t="inlineStr"/>
       <c r="G1880" t="inlineStr"/>
-      <c r="H1880" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1880" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1881">
@@ -61205,10 +60927,8 @@
       </c>
       <c r="F1881" t="inlineStr"/>
       <c r="G1881" t="inlineStr"/>
-      <c r="H1881" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1881" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1882">
@@ -61235,10 +60955,8 @@
       </c>
       <c r="F1882" t="inlineStr"/>
       <c r="G1882" t="inlineStr"/>
-      <c r="H1882" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1882" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1883">
@@ -61265,10 +60983,8 @@
       </c>
       <c r="F1883" t="inlineStr"/>
       <c r="G1883" t="inlineStr"/>
-      <c r="H1883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1883" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1884">
@@ -61295,10 +61011,8 @@
       </c>
       <c r="F1884" t="inlineStr"/>
       <c r="G1884" t="inlineStr"/>
-      <c r="H1884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1884" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1885">
@@ -61333,10 +61047,8 @@
           <t>2.50%</t>
         </is>
       </c>
-      <c r="H1885" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1885" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1886">
@@ -61371,10 +61083,8 @@
           <t>1.25</t>
         </is>
       </c>
-      <c r="H1886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1887">
@@ -61409,10 +61119,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1887" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1888">
@@ -61443,10 +61151,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1888" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1889">
@@ -61477,10 +61183,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H1889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1889" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1890">
@@ -61515,10 +61219,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1890" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1890" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1891">
@@ -61553,10 +61255,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H1891" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1891" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1892">
@@ -61587,10 +61287,8 @@
           <t>-1.6%</t>
         </is>
       </c>
-      <c r="H1892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1893">
@@ -61621,10 +61319,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1893" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1894">
@@ -61655,10 +61351,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1894" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1894" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1895">
@@ -61693,10 +61387,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1895" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1896">
@@ -61727,10 +61419,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1896" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1897">
@@ -61761,10 +61451,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1897" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1897" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1898">
@@ -61795,10 +61483,8 @@
           <t>5.7%</t>
         </is>
       </c>
-      <c r="H1898" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1898" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1899">
@@ -61829,10 +61515,8 @@
           <t>S$ 818.2B</t>
         </is>
       </c>
-      <c r="H1899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1899" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1900">
@@ -61859,10 +61543,8 @@
       </c>
       <c r="F1900" t="inlineStr"/>
       <c r="G1900" t="inlineStr"/>
-      <c r="H1900" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1900" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1901">
@@ -61889,10 +61571,8 @@
       </c>
       <c r="F1901" t="inlineStr"/>
       <c r="G1901" t="inlineStr"/>
-      <c r="H1901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1901" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1902">
@@ -61919,10 +61599,8 @@
           <t>ZAR14.0B</t>
         </is>
       </c>
-      <c r="H1902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1902" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1903">
@@ -61949,10 +61627,8 @@
           <t>10.6%</t>
         </is>
       </c>
-      <c r="H1903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1903" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1904">
@@ -61979,10 +61655,8 @@
           <t>12.8%</t>
         </is>
       </c>
-      <c r="H1904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1904" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1905">
@@ -62005,10 +61679,8 @@
       </c>
       <c r="F1905" t="inlineStr"/>
       <c r="G1905" t="inlineStr"/>
-      <c r="H1905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1905" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1906">
@@ -62031,10 +61703,8 @@
       </c>
       <c r="F1906" t="inlineStr"/>
       <c r="G1906" t="inlineStr"/>
-      <c r="H1906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1906" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1907">
@@ -62061,10 +61731,8 @@
           <t>90.0K</t>
         </is>
       </c>
-      <c r="H1907" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1907" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1908">
@@ -62091,10 +61759,8 @@
           <t>MXN-1120.0B</t>
         </is>
       </c>
-      <c r="H1908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1908" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1909">
@@ -62121,56 +61787,74 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1909" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1910">
       <c r="A1910" t="inlineStr">
         <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B1910" t="inlineStr"/>
-      <c r="C1910" t="inlineStr"/>
+          <t>03:55 AM</t>
+        </is>
+      </c>
+      <c r="B1910" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C1910" t="inlineStr">
+        <is>
+          <t>Unemployment ChangeJAN</t>
+        </is>
+      </c>
       <c r="D1910" t="inlineStr"/>
-      <c r="E1910" t="inlineStr"/>
-      <c r="F1910" t="inlineStr"/>
-      <c r="G1910" t="inlineStr"/>
-      <c r="H1910" t="inlineStr"/>
+      <c r="E1910" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="F1910" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="G1910" t="inlineStr">
+        <is>
+          <t>7.0K</t>
+        </is>
+      </c>
+      <c r="H1910" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1911">
       <c r="A1911" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B1911" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1911" t="inlineStr">
         <is>
-          <t>Housing Starts YoYDEC</t>
+          <t>Unemployed PersonsJAN</t>
         </is>
       </c>
       <c r="D1911" t="inlineStr"/>
       <c r="E1911" t="inlineStr">
         <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
-      <c r="F1911" t="inlineStr">
-        <is>
-          <t>-3.9%</t>
-        </is>
-      </c>
+          <t>2.869M</t>
+        </is>
+      </c>
+      <c r="F1911" t="inlineStr"/>
       <c r="G1911" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>2.876M</t>
         </is>
       </c>
       <c r="H1911" t="inlineStr">
@@ -62182,75 +61866,71 @@
     <row r="1912">
       <c r="A1912" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B1912" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1912" t="inlineStr">
         <is>
-          <t>Construction Orders YoYDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D1912" t="inlineStr"/>
       <c r="E1912" t="inlineStr">
         <is>
-          <t>-10.2%</t>
-        </is>
-      </c>
-      <c r="F1912" t="inlineStr"/>
+          <t>6.1%</t>
+        </is>
+      </c>
+      <c r="F1912" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
       <c r="G1912" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>6.2%</t>
         </is>
       </c>
       <c r="H1912" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1913">
       <c r="A1913" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1913" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1913" t="inlineStr">
         <is>
-          <t>Business ConfidenceQ4</t>
+          <t>ECB Survey of Professional Forecasters</t>
         </is>
       </c>
       <c r="D1913" t="inlineStr"/>
-      <c r="E1913" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="E1913" t="inlineStr"/>
       <c r="F1913" t="inlineStr"/>
-      <c r="G1913" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+      <c r="G1913" t="inlineStr"/>
       <c r="H1913" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1914">
       <c r="A1914" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1914" t="inlineStr">
@@ -62260,35 +61940,27 @@
       </c>
       <c r="C1914" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Baden Wuerttemberg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1914" t="inlineStr"/>
       <c r="E1914" t="inlineStr">
         <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F1914" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G1914" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1914" t="inlineStr"/>
+      <c r="G1914" t="inlineStr"/>
       <c r="H1914" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1915">
       <c r="A1915" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1915" t="inlineStr">
@@ -62298,93 +61970,77 @@
       </c>
       <c r="C1915" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Baden Wuerttemberg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1915" t="inlineStr"/>
       <c r="E1915" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1915" t="inlineStr"/>
-      <c r="G1915" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1915" t="inlineStr"/>
       <c r="H1915" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1916">
       <c r="A1916" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1916" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1916" t="inlineStr">
         <is>
-          <t>Balance of Trade FinalDEC</t>
+          <t>Bavaria CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1916" t="inlineStr"/>
       <c r="E1916" t="inlineStr">
         <is>
-          <t>$-7.46B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1916" t="inlineStr"/>
-      <c r="G1916" t="inlineStr">
-        <is>
-          <t>$-8.82B</t>
-        </is>
-      </c>
+      <c r="G1916" t="inlineStr"/>
       <c r="H1916" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1917">
       <c r="A1917" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1917" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1917" t="inlineStr">
         <is>
-          <t>Exports FinalDEC</t>
+          <t>Bavaria CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1917" t="inlineStr"/>
       <c r="E1917" t="inlineStr">
         <is>
-          <t>$22.29B</t>
-        </is>
-      </c>
-      <c r="F1917" t="inlineStr">
-        <is>
-          <t>$23.46B</t>
-        </is>
-      </c>
-      <c r="G1917" t="inlineStr">
-        <is>
-          <t>$ 23.46B</t>
-        </is>
-      </c>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1917" t="inlineStr"/>
+      <c r="G1917" t="inlineStr"/>
       <c r="H1917" t="inlineStr">
         <is>
           <t>3</t>
@@ -62394,31 +62050,27 @@
     <row r="1918">
       <c r="A1918" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1918" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1918" t="inlineStr">
         <is>
-          <t>Imports FinalDEC</t>
+          <t>Brandenburg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1918" t="inlineStr"/>
       <c r="E1918" t="inlineStr">
         <is>
-          <t>$29.75B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F1918" t="inlineStr"/>
-      <c r="G1918" t="inlineStr">
-        <is>
-          <t>$32.29B</t>
-        </is>
-      </c>
+      <c r="G1918" t="inlineStr"/>
       <c r="H1918" t="inlineStr">
         <is>
           <t>3</t>
@@ -62428,31 +62080,27 @@
     <row r="1919">
       <c r="A1919" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1919" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1919" t="inlineStr">
         <is>
-          <t>Tourism RevenuesQ4</t>
+          <t>Brandenburg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1919" t="inlineStr"/>
       <c r="E1919" t="inlineStr">
         <is>
-          <t>$23.22B</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1919" t="inlineStr"/>
-      <c r="G1919" t="inlineStr">
-        <is>
-          <t>$ 23.5B</t>
-        </is>
-      </c>
+      <c r="G1919" t="inlineStr"/>
       <c r="H1919" t="inlineStr">
         <is>
           <t>3</t>
@@ -62462,171 +62110,147 @@
     <row r="1920">
       <c r="A1920" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1920" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1920" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices MoMJAN</t>
+          <t>Hesse CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1920" t="inlineStr"/>
       <c r="E1920" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F1920" t="inlineStr"/>
-      <c r="G1920" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="G1920" t="inlineStr"/>
       <c r="H1920" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1921">
       <c r="A1921" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1921" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1921" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices YoYJAN</t>
+          <t>Hesse CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1921" t="inlineStr"/>
       <c r="E1921" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1921" t="inlineStr"/>
-      <c r="G1921" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G1921" t="inlineStr"/>
       <c r="H1921" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1922">
       <c r="A1922" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1922" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1922" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>North Rhine Westphalia CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1922" t="inlineStr"/>
       <c r="E1922" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1922" t="inlineStr"/>
-      <c r="G1922" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G1922" t="inlineStr"/>
       <c r="H1922" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1923">
       <c r="A1923" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1923" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1923" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>North Rhine Westphalia CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1923" t="inlineStr"/>
       <c r="E1923" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1923" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G1923" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>2.5%</t>
+        </is>
+      </c>
+      <c r="F1923" t="inlineStr"/>
+      <c r="G1923" t="inlineStr"/>
       <c r="H1923" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1924">
       <c r="A1924" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1924" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1924" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Saxony CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1924" t="inlineStr"/>
       <c r="E1924" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1924" t="inlineStr"/>
-      <c r="G1924" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1924" t="inlineStr"/>
       <c r="H1924" t="inlineStr">
         <is>
           <t>3</t>
@@ -62636,31 +62260,27 @@
     <row r="1925">
       <c r="A1925" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1925" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1925" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Saxony CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1925" t="inlineStr"/>
       <c r="E1925" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F1925" t="inlineStr"/>
-      <c r="G1925" t="inlineStr">
-        <is>
-          <t>2.0%</t>
-        </is>
-      </c>
+      <c r="G1925" t="inlineStr"/>
       <c r="H1925" t="inlineStr">
         <is>
           <t>3</t>
@@ -62670,29 +62290,29 @@
     <row r="1926">
       <c r="A1926" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1926" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1926" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D1926" t="inlineStr"/>
       <c r="E1926" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>€4.9B</t>
         </is>
       </c>
       <c r="F1926" t="inlineStr"/>
       <c r="G1926" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>€5.0B</t>
         </is>
       </c>
       <c r="H1926" t="inlineStr">
@@ -62704,29 +62324,29 @@
     <row r="1927">
       <c r="A1927" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1927" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1927" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1927" t="inlineStr"/>
       <c r="E1927" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F1927" t="inlineStr"/>
       <c r="G1927" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1927" t="inlineStr">
@@ -62738,29 +62358,29 @@
     <row r="1928">
       <c r="A1928" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1928" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1928" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1928" t="inlineStr"/>
       <c r="E1928" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F1928" t="inlineStr"/>
       <c r="G1928" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1928" t="inlineStr">
@@ -62772,29 +62392,29 @@
     <row r="1929">
       <c r="A1929" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1929" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1929" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Government Budget ValueDEC</t>
         </is>
       </c>
       <c r="D1929" t="inlineStr"/>
       <c r="E1929" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>INR-8465.9B</t>
         </is>
       </c>
       <c r="F1929" t="inlineStr"/>
       <c r="G1929" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>INR-9700.0B</t>
         </is>
       </c>
       <c r="H1929" t="inlineStr">
@@ -62806,27 +62426,31 @@
     <row r="1930">
       <c r="A1930" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1930" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1930" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Gross Debt to GDPDEC</t>
         </is>
       </c>
       <c r="D1930" t="inlineStr"/>
       <c r="E1930" t="inlineStr">
         <is>
-          <t>8.25%</t>
+          <t>77.7%</t>
         </is>
       </c>
       <c r="F1930" t="inlineStr"/>
-      <c r="G1930" t="inlineStr"/>
+      <c r="G1930" t="inlineStr">
+        <is>
+          <t>77.9%</t>
+        </is>
+      </c>
       <c r="H1930" t="inlineStr">
         <is>
           <t>3</t>
@@ -62836,163 +62460,155 @@
     <row r="1931">
       <c r="A1931" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1931" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1931" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Nominal Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D1931" t="inlineStr"/>
       <c r="E1931" t="inlineStr">
         <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="F1931" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
+          <t>BRL-99.1B</t>
+        </is>
+      </c>
+      <c r="F1931" t="inlineStr"/>
       <c r="G1931" t="inlineStr">
         <is>
-          <t>7.0K</t>
+          <t>BRL-103.0B</t>
         </is>
       </c>
       <c r="H1931" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1932">
       <c r="A1932" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1932" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1932" t="inlineStr">
         <is>
-          <t>Unemployed PersonsJAN</t>
+          <t>Bank Loan Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D1932" t="inlineStr"/>
       <c r="E1932" t="inlineStr">
         <is>
-          <t>2.869M</t>
+          <t>11.2%</t>
         </is>
       </c>
       <c r="F1932" t="inlineStr"/>
-      <c r="G1932" t="inlineStr">
-        <is>
-          <t>2.876M</t>
-        </is>
-      </c>
+      <c r="G1932" t="inlineStr"/>
       <c r="H1932" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1933">
       <c r="A1933" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1933" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1933" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Deposit Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D1933" t="inlineStr"/>
       <c r="E1933" t="inlineStr">
         <is>
-          <t>6.1%</t>
-        </is>
-      </c>
-      <c r="F1933" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
-      <c r="G1933" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
+          <t>9.8%</t>
+        </is>
+      </c>
+      <c r="F1933" t="inlineStr"/>
+      <c r="G1933" t="inlineStr"/>
       <c r="H1933" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1934">
       <c r="A1934" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1934" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1934" t="inlineStr">
         <is>
-          <t>ECB Survey of Professional Forecasters</t>
+          <t>Foreign Exchange ReservesJAN/24</t>
         </is>
       </c>
       <c r="D1934" t="inlineStr"/>
-      <c r="E1934" t="inlineStr"/>
+      <c r="E1934" t="inlineStr">
+        <is>
+          <t>$623.98B</t>
+        </is>
+      </c>
       <c r="F1934" t="inlineStr"/>
       <c r="G1934" t="inlineStr"/>
       <c r="H1934" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1935">
       <c r="A1935" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1935" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1935" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI MoMJAN</t>
+          <t>Infrastructure Output YoYDEC</t>
         </is>
       </c>
       <c r="D1935" t="inlineStr"/>
       <c r="E1935" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1935" t="inlineStr"/>
-      <c r="G1935" t="inlineStr"/>
+      <c r="G1935" t="inlineStr">
+        <is>
+          <t>4.8%</t>
+        </is>
+      </c>
       <c r="H1935" t="inlineStr">
         <is>
           <t>3</t>
@@ -63002,67 +62618,75 @@
     <row r="1936">
       <c r="A1936" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1936" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1936" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI YoYJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D1936" t="inlineStr"/>
       <c r="E1936" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F1936" t="inlineStr"/>
-      <c r="G1936" t="inlineStr"/>
+      <c r="G1936" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
       <c r="H1936" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1937">
       <c r="A1937" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1937" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1937" t="inlineStr">
         <is>
-          <t>Bavaria CPI MoMJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1937" t="inlineStr"/>
       <c r="E1937" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>ZAR34.7B</t>
         </is>
       </c>
       <c r="F1937" t="inlineStr"/>
-      <c r="G1937" t="inlineStr"/>
+      <c r="G1937" t="inlineStr">
+        <is>
+          <t>ZAR 27.0B</t>
+        </is>
+      </c>
       <c r="H1937" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1938">
       <c r="A1938" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1938" t="inlineStr">
@@ -63072,27 +62696,35 @@
       </c>
       <c r="C1938" t="inlineStr">
         <is>
-          <t>Bavaria CPI YoYJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1938" t="inlineStr"/>
       <c r="E1938" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1938" t="inlineStr"/>
-      <c r="G1938" t="inlineStr"/>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="F1938" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="G1938" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1938" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1939">
       <c r="A1939" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1939" t="inlineStr">
@@ -63102,27 +62734,35 @@
       </c>
       <c r="C1939" t="inlineStr">
         <is>
-          <t>Brandenburg CPI MoMJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1939" t="inlineStr"/>
       <c r="E1939" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F1939" t="inlineStr"/>
-      <c r="G1939" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1939" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="G1939" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1939" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1940">
       <c r="A1940" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1940" t="inlineStr">
@@ -63132,17 +62772,21 @@
       </c>
       <c r="C1940" t="inlineStr">
         <is>
-          <t>Brandenburg CPI YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1940" t="inlineStr"/>
       <c r="E1940" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1940" t="inlineStr"/>
-      <c r="G1940" t="inlineStr"/>
+      <c r="G1940" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1940" t="inlineStr">
         <is>
           <t>3</t>
@@ -63152,7 +62796,7 @@
     <row r="1941">
       <c r="A1941" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1941" t="inlineStr">
@@ -63162,17 +62806,25 @@
       </c>
       <c r="C1941" t="inlineStr">
         <is>
-          <t>Hesse CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1941" t="inlineStr"/>
       <c r="E1941" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F1941" t="inlineStr"/>
-      <c r="G1941" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F1941" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
+      <c r="G1941" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H1941" t="inlineStr">
         <is>
           <t>3</t>
@@ -63182,381 +62834,417 @@
     <row r="1942">
       <c r="A1942" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1942" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1942" t="inlineStr">
         <is>
-          <t>Hesse CPI YoYJAN</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D1942" t="inlineStr"/>
       <c r="E1942" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1942" t="inlineStr"/>
-      <c r="G1942" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1942" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="G1942" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="H1942" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1943">
       <c r="A1943" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1943" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1943" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI MoMJAN</t>
+          <t>GDP MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1943" t="inlineStr"/>
       <c r="E1943" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1943" t="inlineStr"/>
-      <c r="G1943" t="inlineStr"/>
+      <c r="G1943" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1943" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1944">
       <c r="A1944" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1944" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1944" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI YoYJAN</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1944" t="inlineStr"/>
       <c r="E1944" t="inlineStr">
         <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="F1944" t="inlineStr"/>
-      <c r="G1944" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1944" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G1944" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1944" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1945">
       <c r="A1945" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1945" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1945" t="inlineStr">
         <is>
-          <t>Saxony CPI MoMJAN</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="D1945" t="inlineStr"/>
       <c r="E1945" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1945" t="inlineStr"/>
-      <c r="G1945" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1945" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G1945" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1945" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1946">
       <c r="A1946" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1946" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1946" t="inlineStr">
         <is>
-          <t>Saxony CPI YoYJAN</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="D1946" t="inlineStr"/>
       <c r="E1946" t="inlineStr">
         <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F1946" t="inlineStr"/>
-      <c r="G1946" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F1946" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G1946" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1946" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1947">
       <c r="A1947" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1947" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1947" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="D1947" t="inlineStr"/>
       <c r="E1947" t="inlineStr">
         <is>
-          <t>€4.9B</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1947" t="inlineStr"/>
       <c r="G1947" t="inlineStr">
         <is>
-          <t>€5.0B</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1947" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1948">
       <c r="A1948" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1948" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1948" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="D1948" t="inlineStr"/>
       <c r="E1948" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1948" t="inlineStr"/>
       <c r="G1948" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1948" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1949">
       <c r="A1949" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1949" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1949" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="D1949" t="inlineStr"/>
       <c r="E1949" t="inlineStr">
         <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F1949" t="inlineStr"/>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="F1949" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="G1949" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1949" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1950">
       <c r="A1950" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1950" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1950" t="inlineStr">
         <is>
-          <t>Government Budget ValueDEC</t>
+          <t>Fed Bowman Speech</t>
         </is>
       </c>
       <c r="D1950" t="inlineStr"/>
-      <c r="E1950" t="inlineStr">
-        <is>
-          <t>INR-8465.9B</t>
-        </is>
-      </c>
+      <c r="E1950" t="inlineStr"/>
       <c r="F1950" t="inlineStr"/>
-      <c r="G1950" t="inlineStr">
-        <is>
-          <t>INR-9700.0B</t>
-        </is>
-      </c>
+      <c r="G1950" t="inlineStr"/>
       <c r="H1950" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1951">
       <c r="A1951" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1951" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1951" t="inlineStr">
         <is>
-          <t>Gross Debt to GDPDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1951" t="inlineStr"/>
       <c r="E1951" t="inlineStr">
         <is>
-          <t>77.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1951" t="inlineStr"/>
       <c r="G1951" t="inlineStr">
         <is>
-          <t>77.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1951" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1952">
       <c r="A1952" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1952" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1952" t="inlineStr">
         <is>
-          <t>Nominal Budget BalanceDEC</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1952" t="inlineStr"/>
       <c r="E1952" t="inlineStr">
         <is>
-          <t>BRL-99.1B</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1952" t="inlineStr"/>
       <c r="G1952" t="inlineStr">
         <is>
-          <t>BRL-103.0B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="H1952" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1953">
       <c r="A1953" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1953" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1953" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/17</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1953" t="inlineStr"/>
       <c r="E1953" t="inlineStr">
         <is>
-          <t>11.2%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1953" t="inlineStr"/>
-      <c r="G1953" t="inlineStr"/>
+      <c r="G1953" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H1953" t="inlineStr">
         <is>
           <t>3</t>
@@ -63566,57 +63254,69 @@
     <row r="1954">
       <c r="A1954" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1954" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1954" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/17</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="D1954" t="inlineStr"/>
       <c r="E1954" t="inlineStr">
         <is>
-          <t>9.8%</t>
-        </is>
-      </c>
-      <c r="F1954" t="inlineStr"/>
-      <c r="G1954" t="inlineStr"/>
+          <t>36.9</t>
+        </is>
+      </c>
+      <c r="F1954" t="inlineStr">
+        <is>
+          <t>39.9</t>
+        </is>
+      </c>
+      <c r="G1954" t="inlineStr">
+        <is>
+          <t>37.2</t>
+        </is>
+      </c>
       <c r="H1954" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1955">
       <c r="A1955" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1955" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1955" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/24</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D1955" t="inlineStr"/>
       <c r="E1955" t="inlineStr">
         <is>
-          <t>$623.98B</t>
+          <t>C$-1.49B</t>
         </is>
       </c>
       <c r="F1955" t="inlineStr"/>
-      <c r="G1955" t="inlineStr"/>
+      <c r="G1955" t="inlineStr">
+        <is>
+          <t>C$-1.9B</t>
+        </is>
+      </c>
       <c r="H1955" t="inlineStr">
         <is>
           <t>3</t>
@@ -63626,31 +63326,23 @@
     <row r="1956">
       <c r="A1956" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1956" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1956" t="inlineStr">
         <is>
-          <t>Infrastructure Output YoYDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="D1956" t="inlineStr"/>
-      <c r="E1956" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E1956" t="inlineStr"/>
       <c r="F1956" t="inlineStr"/>
-      <c r="G1956" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="G1956" t="inlineStr"/>
       <c r="H1956" t="inlineStr">
         <is>
           <t>3</t>
@@ -63660,63 +63352,55 @@
     <row r="1957">
       <c r="A1957" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1957" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1957" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="D1957" t="inlineStr"/>
-      <c r="E1957" t="inlineStr">
-        <is>
-          <t>6.1%</t>
-        </is>
-      </c>
+      <c r="E1957" t="inlineStr"/>
       <c r="F1957" t="inlineStr"/>
-      <c r="G1957" t="inlineStr">
-        <is>
-          <t>6.1%</t>
-        </is>
-      </c>
+      <c r="G1957" t="inlineStr"/>
       <c r="H1957" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1958">
       <c r="A1958" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1958" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1958" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Exports YoYJAN</t>
         </is>
       </c>
       <c r="D1958" t="inlineStr"/>
       <c r="E1958" t="inlineStr">
         <is>
-          <t>ZAR34.7B</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="F1958" t="inlineStr"/>
       <c r="G1958" t="inlineStr">
         <is>
-          <t>ZAR 27.0B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1958" t="inlineStr">
@@ -63728,105 +63412,93 @@
     <row r="1959">
       <c r="A1959" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1959" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1959" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D1959" t="inlineStr"/>
       <c r="E1959" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F1959" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+          <t>$6.49B</t>
+        </is>
+      </c>
+      <c r="F1959" t="inlineStr"/>
       <c r="G1959" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>$0.9B</t>
         </is>
       </c>
       <c r="H1959" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1960">
       <c r="A1960" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1960" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1960" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Imports YoYJAN</t>
         </is>
       </c>
       <c r="D1960" t="inlineStr"/>
       <c r="E1960" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1960" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="F1960" t="inlineStr"/>
       <c r="G1960" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H1960" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1961">
-      <c r="A1961" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
+      <c r="A1961" t="inlineStr"/>
       <c r="B1961" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1961" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Consumer Inflation ExpectationsDEC</t>
         </is>
       </c>
       <c r="D1961" t="inlineStr"/>
       <c r="E1961" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1961" t="inlineStr"/>
       <c r="G1961" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H1961" t="inlineStr">
@@ -63836,35 +63508,27 @@
       </c>
     </row>
     <row r="1962">
-      <c r="A1962" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
+      <c r="A1962" t="inlineStr"/>
       <c r="B1962" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1962" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D1962" t="inlineStr"/>
       <c r="E1962" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1962" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="F1962" t="inlineStr"/>
       <c r="G1962" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H1962" t="inlineStr">
@@ -63874,311 +63538,255 @@
       </c>
     </row>
     <row r="1963">
-      <c r="A1963" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1963" t="inlineStr"/>
       <c r="B1963" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1963" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D1963" t="inlineStr"/>
       <c r="E1963" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1963" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+          <t>28.8%</t>
+        </is>
+      </c>
+      <c r="F1963" t="inlineStr"/>
       <c r="G1963" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H1963" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1964">
-      <c r="A1964" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1964" t="inlineStr"/>
       <c r="B1964" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1964" t="inlineStr">
         <is>
-          <t>GDP MoM PrelDEC</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D1964" t="inlineStr"/>
       <c r="E1964" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-4.9%</t>
         </is>
       </c>
       <c r="F1964" t="inlineStr"/>
       <c r="G1964" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-4.0%</t>
         </is>
       </c>
       <c r="H1964" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1965">
-      <c r="A1965" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1965" t="inlineStr"/>
       <c r="B1965" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1965" t="inlineStr">
         <is>
-          <t>Core PCE Price Index MoMDEC</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1965" t="inlineStr"/>
       <c r="E1965" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1965" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="F1965" t="inlineStr"/>
       <c r="G1965" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H1965" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1966">
       <c r="A1966" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1966" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1966" t="inlineStr">
-        <is>
-          <t>Personal Income MoMDEC</t>
-        </is>
-      </c>
+          <t>Sunday February 02 2025</t>
+        </is>
+      </c>
+      <c r="B1966" t="inlineStr"/>
+      <c r="C1966" t="inlineStr"/>
       <c r="D1966" t="inlineStr"/>
-      <c r="E1966" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1966" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1966" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1966" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="E1966" t="inlineStr"/>
+      <c r="F1966" t="inlineStr"/>
+      <c r="G1966" t="inlineStr"/>
+      <c r="H1966" t="inlineStr"/>
     </row>
     <row r="1967">
       <c r="A1967" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1967" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1967" t="inlineStr">
         <is>
-          <t>Personal Spending MoMDEC</t>
+          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1967" t="inlineStr"/>
       <c r="E1967" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F1967" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1967" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+          <t>47.8</t>
+        </is>
+      </c>
+      <c r="F1967" t="inlineStr"/>
+      <c r="G1967" t="inlineStr"/>
       <c r="H1967" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1968">
       <c r="A1968" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1968" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1968" t="inlineStr">
         <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1968" t="inlineStr"/>
       <c r="E1968" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1968" t="inlineStr"/>
       <c r="G1968" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1968" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1969">
       <c r="A1969" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1969" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1969" t="inlineStr">
         <is>
-          <t>Employment Cost - Wages QoQQ4</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1969" t="inlineStr"/>
       <c r="E1969" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1969" t="inlineStr"/>
       <c r="G1969" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H1969" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1970">
       <c r="A1970" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1970" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1970" t="inlineStr">
         <is>
-          <t>Employment Cost Index QoQQ4</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1970" t="inlineStr"/>
       <c r="E1970" t="inlineStr">
         <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F1970" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F1970" t="inlineStr"/>
       <c r="G1970" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1970" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1971">
       <c r="A1971" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1971" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1971" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>BoJ Summary of Opinions</t>
         </is>
       </c>
       <c r="D1971" t="inlineStr"/>
@@ -64194,29 +63802,29 @@
     <row r="1972">
       <c r="A1972" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1972" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1972" t="inlineStr">
         <is>
-          <t>PCE Price Index MoMDEC</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1972" t="inlineStr"/>
       <c r="E1972" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F1972" t="inlineStr"/>
       <c r="G1972" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H1972" t="inlineStr">
@@ -64228,29 +63836,29 @@
     <row r="1973">
       <c r="A1973" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1973" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1973" t="inlineStr">
         <is>
-          <t>PCE Price Index YoYDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1973" t="inlineStr"/>
       <c r="E1973" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1973" t="inlineStr"/>
       <c r="G1973" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1973" t="inlineStr">
@@ -64262,31 +63870,27 @@
     <row r="1974">
       <c r="A1974" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1974" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1974" t="inlineStr">
         <is>
-          <t>Core PCE Price Index YoYDEC</t>
+          <t>ANZ-Indeed Job Ads MoMJAN</t>
         </is>
       </c>
       <c r="D1974" t="inlineStr"/>
       <c r="E1974" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1974" t="inlineStr"/>
-      <c r="G1974" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="G1974" t="inlineStr"/>
       <c r="H1974" t="inlineStr">
         <is>
           <t>3</t>
@@ -64296,67 +63900,59 @@
     <row r="1975">
       <c r="A1975" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1975" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1975" t="inlineStr">
         <is>
-          <t>Chicago PMIJAN</t>
+          <t>Private House Approvals MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1975" t="inlineStr"/>
       <c r="E1975" t="inlineStr">
         <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="F1975" t="inlineStr">
-        <is>
-          <t>39.9</t>
-        </is>
-      </c>
-      <c r="G1975" t="inlineStr">
-        <is>
-          <t>37.2</t>
-        </is>
-      </c>
+          <t>-1.7%</t>
+        </is>
+      </c>
+      <c r="F1975" t="inlineStr"/>
+      <c r="G1975" t="inlineStr"/>
       <c r="H1975" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1976">
       <c r="A1976" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1976" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1976" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1976" t="inlineStr"/>
       <c r="E1976" t="inlineStr">
         <is>
-          <t>C$-1.49B</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F1976" t="inlineStr"/>
       <c r="G1976" t="inlineStr">
         <is>
-          <t>C$-1.9B</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="H1976" t="inlineStr">
@@ -64368,149 +63964,173 @@
     <row r="1977">
       <c r="A1977" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1977" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1977" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
+          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1977" t="inlineStr"/>
-      <c r="E1977" t="inlineStr"/>
-      <c r="F1977" t="inlineStr"/>
-      <c r="G1977" t="inlineStr"/>
+      <c r="E1977" t="inlineStr">
+        <is>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F1977" t="inlineStr">
+        <is>
+          <t>48.8</t>
+        </is>
+      </c>
+      <c r="G1977" t="inlineStr">
+        <is>
+          <t>48.8</t>
+        </is>
+      </c>
       <c r="H1977" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1978">
       <c r="A1978" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1978" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1978" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1978" t="inlineStr"/>
-      <c r="E1978" t="inlineStr"/>
+      <c r="E1978" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
       <c r="F1978" t="inlineStr"/>
-      <c r="G1978" t="inlineStr"/>
+      <c r="G1978" t="inlineStr">
+        <is>
+          <t>49.5</t>
+        </is>
+      </c>
       <c r="H1978" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1979">
       <c r="A1979" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:45 PM</t>
         </is>
       </c>
       <c r="B1979" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1979" t="inlineStr">
         <is>
-          <t>Exports YoYJAN</t>
+          <t>Caixin Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1979" t="inlineStr"/>
       <c r="E1979" t="inlineStr">
         <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="F1979" t="inlineStr"/>
+          <t>50.5</t>
+        </is>
+      </c>
+      <c r="F1979" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="G1979" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="H1979" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1980">
       <c r="A1980" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B1980" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1980" t="inlineStr">
         <is>
-          <t>Balance of TradeJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1980" t="inlineStr"/>
       <c r="E1980" t="inlineStr">
         <is>
-          <t>$6.49B</t>
+          <t>1.57%</t>
         </is>
       </c>
       <c r="F1980" t="inlineStr"/>
       <c r="G1980" t="inlineStr">
         <is>
-          <t>$0.9B</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H1980" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1981">
       <c r="A1981" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B1981" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1981" t="inlineStr">
         <is>
-          <t>Imports YoYJAN</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1981" t="inlineStr"/>
       <c r="E1981" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2.26%</t>
         </is>
       </c>
       <c r="F1981" t="inlineStr"/>
       <c r="G1981" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H1981" t="inlineStr">
@@ -64520,27 +64140,31 @@
       </c>
     </row>
     <row r="1982">
-      <c r="A1982" t="inlineStr"/>
+      <c r="A1982" t="inlineStr">
+        <is>
+          <t>11:00 PM</t>
+        </is>
+      </c>
       <c r="B1982" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1982" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1982" t="inlineStr"/>
       <c r="E1982" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.44%</t>
         </is>
       </c>
       <c r="F1982" t="inlineStr"/>
       <c r="G1982" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1982" t="inlineStr">
@@ -64550,27 +64174,31 @@
       </c>
     </row>
     <row r="1983">
-      <c r="A1983" t="inlineStr"/>
+      <c r="A1983" t="inlineStr">
+        <is>
+          <t>11:45 PM</t>
+        </is>
+      </c>
       <c r="B1983" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1983" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D1983" t="inlineStr"/>
       <c r="E1983" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>17.27%</t>
         </is>
       </c>
       <c r="F1983" t="inlineStr"/>
       <c r="G1983" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>18.0%</t>
         </is>
       </c>
       <c r="H1983" t="inlineStr">
@@ -64580,57 +64208,49 @@
       </c>
     </row>
     <row r="1984">
-      <c r="A1984" t="inlineStr"/>
-      <c r="B1984" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C1984" t="inlineStr">
-        <is>
-          <t>New Car Sales YoYJAN</t>
-        </is>
-      </c>
+      <c r="A1984" t="inlineStr">
+        <is>
+          <t>Monday February 03 2025</t>
+        </is>
+      </c>
+      <c r="B1984" t="inlineStr"/>
+      <c r="C1984" t="inlineStr"/>
       <c r="D1984" t="inlineStr"/>
-      <c r="E1984" t="inlineStr">
-        <is>
-          <t>28.8%</t>
-        </is>
-      </c>
+      <c r="E1984" t="inlineStr"/>
       <c r="F1984" t="inlineStr"/>
-      <c r="G1984" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H1984" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1984" t="inlineStr"/>
+      <c r="H1984" t="inlineStr"/>
     </row>
     <row r="1985">
-      <c r="A1985" t="inlineStr"/>
+      <c r="A1985" t="inlineStr">
+        <is>
+          <t>12:00 AM</t>
+        </is>
+      </c>
       <c r="B1985" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1985" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>HSBC Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1985" t="inlineStr"/>
       <c r="E1985" t="inlineStr">
         <is>
-          <t>-4.9%</t>
-        </is>
-      </c>
-      <c r="F1985" t="inlineStr"/>
+          <t>56.4</t>
+        </is>
+      </c>
+      <c r="F1985" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
       <c r="G1985" t="inlineStr">
         <is>
-          <t>-4.0%</t>
+          <t>58</t>
         </is>
       </c>
       <c r="H1985" t="inlineStr">
@@ -64640,29 +64260,29 @@
       </c>
     </row>
     <row r="1986">
-      <c r="A1986" t="inlineStr"/>
+      <c r="A1986" t="inlineStr">
+        <is>
+          <t>12:00 AM</t>
+        </is>
+      </c>
       <c r="B1986" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1986" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>2-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1986" t="inlineStr"/>
       <c r="E1986" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>2.670%</t>
         </is>
       </c>
       <c r="F1986" t="inlineStr"/>
-      <c r="G1986" t="inlineStr">
-        <is>
-          <t>20.7%</t>
-        </is>
-      </c>
+      <c r="G1986" t="inlineStr"/>
       <c r="H1986" t="inlineStr">
         <is>
           <t>3</t>
@@ -64672,37 +64292,53 @@
     <row r="1987">
       <c r="A1987" t="inlineStr">
         <is>
-          <t>Sunday February 02 2025</t>
-        </is>
-      </c>
-      <c r="B1987" t="inlineStr"/>
-      <c r="C1987" t="inlineStr"/>
+          <t>12:30 AM</t>
+        </is>
+      </c>
+      <c r="B1987" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C1987" t="inlineStr">
+        <is>
+          <t>Commodity Prices YoYJAN</t>
+        </is>
+      </c>
       <c r="D1987" t="inlineStr"/>
-      <c r="E1987" t="inlineStr"/>
+      <c r="E1987" t="inlineStr">
+        <is>
+          <t>-10.7%</t>
+        </is>
+      </c>
       <c r="F1987" t="inlineStr"/>
       <c r="G1987" t="inlineStr"/>
-      <c r="H1987" t="inlineStr"/>
+      <c r="H1987" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1988">
       <c r="A1988" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B1988" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1988" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1988" t="inlineStr"/>
       <c r="E1988" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F1988" t="inlineStr"/>
@@ -64716,99 +64352,87 @@
     <row r="1989">
       <c r="A1989" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1989" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1989" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1989" t="inlineStr"/>
       <c r="E1989" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>1.03%</t>
         </is>
       </c>
       <c r="F1989" t="inlineStr"/>
-      <c r="G1989" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G1989" t="inlineStr"/>
       <c r="H1989" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1990">
       <c r="A1990" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1990" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1990" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1990" t="inlineStr"/>
       <c r="E1990" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F1990" t="inlineStr"/>
-      <c r="G1990" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1990" t="inlineStr"/>
       <c r="H1990" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1991">
       <c r="A1991" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1991" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1991" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1991" t="inlineStr"/>
       <c r="E1991" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F1991" t="inlineStr"/>
-      <c r="G1991" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1991" t="inlineStr"/>
       <c r="H1991" t="inlineStr">
         <is>
           <t>3</t>
@@ -64818,91 +64442,87 @@
     <row r="1992">
       <c r="A1992" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1992" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1992" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D1992" t="inlineStr"/>
-      <c r="E1992" t="inlineStr"/>
+      <c r="E1992" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F1992" t="inlineStr"/>
       <c r="G1992" t="inlineStr"/>
       <c r="H1992" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1993">
       <c r="A1993" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1993" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1993" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D1993" t="inlineStr"/>
       <c r="E1993" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F1993" t="inlineStr"/>
-      <c r="G1993" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G1993" t="inlineStr"/>
       <c r="H1993" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1994">
       <c r="A1994" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1994" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1994" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D1994" t="inlineStr"/>
       <c r="E1994" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>-25.3K</t>
         </is>
       </c>
       <c r="F1994" t="inlineStr"/>
-      <c r="G1994" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1994" t="inlineStr"/>
       <c r="H1994" t="inlineStr">
         <is>
           <t>2</t>
@@ -64912,25 +64532,21 @@
     <row r="1995">
       <c r="A1995" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1995" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1995" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D1995" t="inlineStr"/>
-      <c r="E1995" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="E1995" t="inlineStr"/>
       <c r="F1995" t="inlineStr"/>
       <c r="G1995" t="inlineStr"/>
       <c r="H1995" t="inlineStr">
@@ -64942,97 +64558,93 @@
     <row r="1996">
       <c r="A1996" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B1996" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1996" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1996" t="inlineStr"/>
       <c r="E1996" t="inlineStr">
         <is>
-          <t>-1.7%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F1996" t="inlineStr"/>
       <c r="G1996" t="inlineStr"/>
       <c r="H1996" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1997">
       <c r="A1997" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:45 AM</t>
         </is>
       </c>
       <c r="B1997" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1997" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1997" t="inlineStr"/>
       <c r="E1997" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F1997" t="inlineStr"/>
-      <c r="G1997" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
+      <c r="G1997" t="inlineStr"/>
       <c r="H1997" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1998">
       <c r="A1998" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:50 AM</t>
         </is>
       </c>
       <c r="B1998" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1998" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1998" t="inlineStr"/>
       <c r="E1998" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>41.9</t>
         </is>
       </c>
       <c r="F1998" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="G1998" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="H1998" t="inlineStr">
@@ -65044,29 +64656,33 @@
     <row r="1999">
       <c r="A1999" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B1999" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1999" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1999" t="inlineStr"/>
       <c r="E1999" t="inlineStr">
         <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F1999" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F1999" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
       <c r="G1999" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="H1999" t="inlineStr">
@@ -65078,223 +64694,219 @@
     <row r="2000">
       <c r="A2000" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2000" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2000" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2000" t="inlineStr"/>
       <c r="E2000" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="F2000" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="G2000" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="H2000" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2001">
       <c r="A2001" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2001" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2001" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2001" t="inlineStr"/>
       <c r="E2001" t="inlineStr">
         <is>
-          <t>1.57%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2001" t="inlineStr"/>
       <c r="G2001" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H2001" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2002">
       <c r="A2002" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2002" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2002" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2002" t="inlineStr"/>
       <c r="E2002" t="inlineStr">
         <is>
-          <t>2.26%</t>
-        </is>
-      </c>
-      <c r="F2002" t="inlineStr"/>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F2002" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
       <c r="G2002" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="H2002" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2003">
       <c r="A2003" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2003" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2003" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2003" t="inlineStr"/>
-      <c r="E2003" t="inlineStr">
-        <is>
-          <t>0.44%</t>
-        </is>
-      </c>
+      <c r="E2003" t="inlineStr"/>
       <c r="F2003" t="inlineStr"/>
-      <c r="G2003" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2003" t="inlineStr"/>
       <c r="H2003" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2004">
       <c r="A2004" t="inlineStr">
         <is>
-          <t>11:45 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2004" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2004" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2004" t="inlineStr"/>
       <c r="E2004" t="inlineStr">
         <is>
-          <t>17.27%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F2004" t="inlineStr"/>
-      <c r="G2004" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
+      <c r="G2004" t="inlineStr"/>
       <c r="H2004" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2005">
       <c r="A2005" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2005" t="inlineStr"/>
-      <c r="C2005" t="inlineStr"/>
+          <t>05:00 AM</t>
+        </is>
+      </c>
+      <c r="B2005" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C2005" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoM FlashJAN</t>
+        </is>
+      </c>
       <c r="D2005" t="inlineStr"/>
       <c r="E2005" t="inlineStr"/>
       <c r="F2005" t="inlineStr"/>
       <c r="G2005" t="inlineStr"/>
-      <c r="H2005" t="inlineStr"/>
+      <c r="H2005" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2006">
       <c r="A2006" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2006" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2006" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D2006" t="inlineStr"/>
       <c r="E2006" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2006" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2006" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>127.07</t>
+        </is>
+      </c>
+      <c r="F2006" t="inlineStr"/>
+      <c r="G2006" t="inlineStr"/>
       <c r="H2006" t="inlineStr">
         <is>
           <t>3</t>
@@ -65304,177 +64916,185 @@
     <row r="2007">
       <c r="A2007" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2007" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2007" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2007" t="inlineStr"/>
       <c r="E2007" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F2007" t="inlineStr"/>
       <c r="G2007" t="inlineStr"/>
       <c r="H2007" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2008">
       <c r="A2008" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2008" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2008" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2008" t="inlineStr"/>
       <c r="E2008" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2008" t="inlineStr"/>
       <c r="G2008" t="inlineStr"/>
       <c r="H2008" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2009" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2009" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2009" t="inlineStr"/>
       <c r="E2009" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2009" t="inlineStr"/>
       <c r="G2009" t="inlineStr"/>
       <c r="H2009" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2010" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2010" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2010" t="inlineStr"/>
       <c r="E2010" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2010" t="inlineStr"/>
       <c r="G2010" t="inlineStr"/>
       <c r="H2010" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2011">
       <c r="A2011" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2011" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2011" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2011" t="inlineStr"/>
       <c r="E2011" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2011" t="inlineStr"/>
-      <c r="G2011" t="inlineStr"/>
+      <c r="G2011" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2011" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2012">
       <c r="A2012" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2012" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2012" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2012" t="inlineStr"/>
       <c r="E2012" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2012" t="inlineStr"/>
-      <c r="G2012" t="inlineStr"/>
+      <c r="G2012" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2012" t="inlineStr">
         <is>
           <t>3</t>
@@ -65484,27 +65104,31 @@
     <row r="2013">
       <c r="A2013" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2013" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2013" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2013" t="inlineStr"/>
       <c r="E2013" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2013" t="inlineStr"/>
-      <c r="G2013" t="inlineStr"/>
+      <c r="G2013" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2013" t="inlineStr">
         <is>
           <t>3</t>
@@ -65514,77 +65138,69 @@
     <row r="2014">
       <c r="A2014" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2014" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2014" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2014" t="inlineStr"/>
-      <c r="E2014" t="inlineStr">
-        <is>
-          <t>28.52%</t>
-        </is>
-      </c>
+      <c r="E2014" t="inlineStr"/>
       <c r="F2014" t="inlineStr"/>
       <c r="G2014" t="inlineStr"/>
       <c r="H2014" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2015">
       <c r="A2015" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2015" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2015" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2015" t="inlineStr"/>
-      <c r="E2015" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2015" t="inlineStr"/>
       <c r="F2015" t="inlineStr"/>
       <c r="G2015" t="inlineStr"/>
       <c r="H2015" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2016">
       <c r="A2016" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2016" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2016" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2016" t="inlineStr"/>
@@ -65600,53 +65216,49 @@
     <row r="2017">
       <c r="A2017" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2017" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2017" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2017" t="inlineStr"/>
-      <c r="E2017" t="inlineStr">
-        <is>
-          <t>53.3</t>
-        </is>
-      </c>
+      <c r="E2017" t="inlineStr"/>
       <c r="F2017" t="inlineStr"/>
       <c r="G2017" t="inlineStr"/>
       <c r="H2017" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2018">
       <c r="A2018" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2018" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2018" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2018" t="inlineStr"/>
       <c r="E2018" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2018" t="inlineStr"/>
@@ -65660,33 +65272,33 @@
     <row r="2019">
       <c r="A2019" t="inlineStr">
         <is>
-          <t>03:50 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2019" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2019" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2019" t="inlineStr"/>
       <c r="E2019" t="inlineStr">
         <is>
-          <t>41.9</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="F2019" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="G2019" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="H2019" t="inlineStr">
@@ -65698,73 +65310,57 @@
     <row r="2020">
       <c r="A2020" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2020" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2020" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2020" t="inlineStr"/>
       <c r="E2020" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2020" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="G2020" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2020" t="inlineStr"/>
+      <c r="G2020" t="inlineStr"/>
       <c r="H2020" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2021">
       <c r="A2021" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2021" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2021" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2021" t="inlineStr"/>
       <c r="E2021" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2021" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
-      <c r="G2021" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="F2021" t="inlineStr"/>
+      <c r="G2021" t="inlineStr"/>
       <c r="H2021" t="inlineStr">
         <is>
           <t>2</t>
@@ -65774,29 +65370,29 @@
     <row r="2022">
       <c r="A2022" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2022" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2022" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2022" t="inlineStr"/>
       <c r="E2022" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F2022" t="inlineStr"/>
       <c r="G2022" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2022" t="inlineStr">
@@ -65808,55 +65404,43 @@
     <row r="2023">
       <c r="A2023" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2023" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2023" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2023" t="inlineStr"/>
-      <c r="E2023" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2023" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G2023" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2023" t="inlineStr"/>
+      <c r="F2023" t="inlineStr"/>
+      <c r="G2023" t="inlineStr"/>
       <c r="H2023" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2024">
       <c r="A2024" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2024" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2024" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2024" t="inlineStr"/>
@@ -65865,54 +65449,50 @@
       <c r="G2024" t="inlineStr"/>
       <c r="H2024" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2025">
       <c r="A2025" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2025" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2025" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2025" t="inlineStr"/>
-      <c r="E2025" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2025" t="inlineStr"/>
       <c r="F2025" t="inlineStr"/>
       <c r="G2025" t="inlineStr"/>
       <c r="H2025" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2026">
       <c r="A2026" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2026" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2026" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2026" t="inlineStr"/>
@@ -65921,605 +65501,35 @@
       <c r="G2026" t="inlineStr"/>
       <c r="H2026" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2027">
-      <c r="A2027" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A2027" t="inlineStr"/>
       <c r="B2027" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2027" t="inlineStr">
         <is>
-          <t>CPI FlashJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2027" t="inlineStr"/>
       <c r="E2027" t="inlineStr">
         <is>
-          <t>127.07</t>
+          <t>41.27K</t>
         </is>
       </c>
       <c r="F2027" t="inlineStr"/>
-      <c r="G2027" t="inlineStr"/>
+      <c r="G2027" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H2027" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2028">
-      <c r="A2028" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B2028" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2028" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoY PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2028" t="inlineStr"/>
-      <c r="E2028" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="F2028" t="inlineStr"/>
-      <c r="G2028" t="inlineStr"/>
-      <c r="H2028" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2029">
-      <c r="A2029" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B2029" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2029" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2029" t="inlineStr"/>
-      <c r="E2029" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2029" t="inlineStr"/>
-      <c r="G2029" t="inlineStr"/>
-      <c r="H2029" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2030">
-      <c r="A2030" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B2030" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2030" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2030" t="inlineStr"/>
-      <c r="E2030" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2030" t="inlineStr"/>
-      <c r="G2030" t="inlineStr"/>
-      <c r="H2030" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2031">
-      <c r="A2031" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B2031" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2031" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2031" t="inlineStr"/>
-      <c r="E2031" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F2031" t="inlineStr"/>
-      <c r="G2031" t="inlineStr"/>
-      <c r="H2031" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2032">
-      <c r="A2032" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B2032" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2032" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesDEC</t>
-        </is>
-      </c>
-      <c r="D2032" t="inlineStr"/>
-      <c r="E2032" t="inlineStr">
-        <is>
-          <t>$232.2B</t>
-        </is>
-      </c>
-      <c r="F2032" t="inlineStr"/>
-      <c r="G2032" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
-      <c r="H2032" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2033">
-      <c r="A2033" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B2033" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2033" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2033" t="inlineStr"/>
-      <c r="E2033" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
-      <c r="F2033" t="inlineStr"/>
-      <c r="G2033" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
-      <c r="H2033" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2034">
-      <c r="A2034" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B2034" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2034" t="inlineStr">
-        <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2034" t="inlineStr"/>
-      <c r="E2034" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F2034" t="inlineStr"/>
-      <c r="G2034" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
-      <c r="H2034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2035">
-      <c r="A2035" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2035" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2035" t="inlineStr">
-        <is>
-          <t>Fed Bostic Speech</t>
-        </is>
-      </c>
-      <c r="D2035" t="inlineStr"/>
-      <c r="E2035" t="inlineStr"/>
-      <c r="F2035" t="inlineStr"/>
-      <c r="G2035" t="inlineStr"/>
-      <c r="H2035" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2036">
-      <c r="A2036" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2036" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2036" t="inlineStr">
-        <is>
-          <t>12-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D2036" t="inlineStr"/>
-      <c r="E2036" t="inlineStr"/>
-      <c r="F2036" t="inlineStr"/>
-      <c r="G2036" t="inlineStr"/>
-      <c r="H2036" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2037">
-      <c r="A2037" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2037" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2037" t="inlineStr">
-        <is>
-          <t>3-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D2037" t="inlineStr"/>
-      <c r="E2037" t="inlineStr"/>
-      <c r="F2037" t="inlineStr"/>
-      <c r="G2037" t="inlineStr"/>
-      <c r="H2037" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2038">
-      <c r="A2038" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2038" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2038" t="inlineStr">
-        <is>
-          <t>6-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D2038" t="inlineStr"/>
-      <c r="E2038" t="inlineStr"/>
-      <c r="F2038" t="inlineStr"/>
-      <c r="G2038" t="inlineStr"/>
-      <c r="H2038" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2039">
-      <c r="A2039" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2039" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2039" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2039" t="inlineStr"/>
-      <c r="E2039" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="F2039" t="inlineStr"/>
-      <c r="G2039" t="inlineStr"/>
-      <c r="H2039" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2040">
-      <c r="A2040" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B2040" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2040" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2040" t="inlineStr"/>
-      <c r="E2040" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2040" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2040" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="H2040" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2041">
-      <c r="A2041" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2041" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2041" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2041" t="inlineStr"/>
-      <c r="E2041" t="inlineStr">
-        <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F2041" t="inlineStr"/>
-      <c r="G2041" t="inlineStr"/>
-      <c r="H2041" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2042">
-      <c r="A2042" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2042" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2042" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
-        </is>
-      </c>
-      <c r="D2042" t="inlineStr"/>
-      <c r="E2042" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="F2042" t="inlineStr"/>
-      <c r="G2042" t="inlineStr"/>
-      <c r="H2042" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2043">
-      <c r="A2043" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2043" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2043" t="inlineStr">
-        <is>
-          <t>Construction Spending MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2043" t="inlineStr"/>
-      <c r="E2043" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F2043" t="inlineStr"/>
-      <c r="G2043" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2043" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2044">
-      <c r="A2044" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2044" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2044" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
-        </is>
-      </c>
-      <c r="D2044" t="inlineStr"/>
-      <c r="E2044" t="inlineStr"/>
-      <c r="F2044" t="inlineStr"/>
-      <c r="G2044" t="inlineStr"/>
-      <c r="H2044" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2045">
-      <c r="A2045" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2045" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2045" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing PricesJAN</t>
-        </is>
-      </c>
-      <c r="D2045" t="inlineStr"/>
-      <c r="E2045" t="inlineStr"/>
-      <c r="F2045" t="inlineStr"/>
-      <c r="G2045" t="inlineStr"/>
-      <c r="H2045" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2046">
-      <c r="A2046" t="inlineStr"/>
-      <c r="B2046" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2046" t="inlineStr">
-        <is>
-          <t>Total New Vehicle SalesJAN</t>
-        </is>
-      </c>
-      <c r="D2046" t="inlineStr"/>
-      <c r="E2046" t="inlineStr">
-        <is>
-          <t>41.27K</t>
-        </is>
-      </c>
-      <c r="F2046" t="inlineStr"/>
-      <c r="G2046" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
-      <c r="H2046" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-03.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2030"/>
+  <dimension ref="A1:H2009"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58789,10 +58789,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1815" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1815" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1816">
@@ -58823,10 +58821,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1816" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1816" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1817">
@@ -58857,10 +58853,8 @@
           <t>£ 1.3B</t>
         </is>
       </c>
-      <c r="H1817" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1817" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1818">
@@ -58895,10 +58889,8 @@
           <t>65.1K</t>
         </is>
       </c>
-      <c r="H1818" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1818" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1819">
@@ -58929,10 +58921,8 @@
           <t>£ 2.2B</t>
         </is>
       </c>
-      <c r="H1819" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1819" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1820">
@@ -58967,10 +58957,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1820" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1821">
@@ -59005,10 +58993,8 @@
           <t>£3.5B</t>
         </is>
       </c>
-      <c r="H1821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1821" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1822">
@@ -59043,10 +59029,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1822" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1822" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1823">
@@ -59081,10 +59065,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H1823" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1823" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1824">
@@ -59115,10 +59097,8 @@
         </is>
       </c>
       <c r="G1824" t="inlineStr"/>
-      <c r="H1824" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1824" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1825">
@@ -59153,10 +59133,8 @@
           <t>93.5</t>
         </is>
       </c>
-      <c r="H1825" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1825" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1826">
@@ -59191,10 +59169,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1826" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1826" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1827">
@@ -59225,10 +59201,8 @@
           <t>22</t>
         </is>
       </c>
-      <c r="H1827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1827" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1828">
@@ -59259,10 +59233,8 @@
           <t>-14.5</t>
         </is>
       </c>
-      <c r="H1828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1828" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1829">
@@ -59293,10 +59265,8 @@
           <t>8</t>
         </is>
       </c>
-      <c r="H1829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1829" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1830">
@@ -59327,10 +59297,8 @@
           <t>6</t>
         </is>
       </c>
-      <c r="H1830" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1830" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1831">
@@ -59365,10 +59333,8 @@
           <t>5.6%</t>
         </is>
       </c>
-      <c r="H1831" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1831" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1832">
@@ -59391,10 +59357,8 @@
       <c r="E1832" t="inlineStr"/>
       <c r="F1832" t="inlineStr"/>
       <c r="G1832" t="inlineStr"/>
-      <c r="H1832" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1832" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1833">
@@ -59425,10 +59389,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H1833" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1833" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1834">
@@ -59459,10 +59421,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H1834" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1834" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1835">
@@ -59493,10 +59453,8 @@
           <t>-5.1%</t>
         </is>
       </c>
-      <c r="H1835" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1835" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1836">
@@ -59519,10 +59477,8 @@
       <c r="E1836" t="inlineStr"/>
       <c r="F1836" t="inlineStr"/>
       <c r="G1836" t="inlineStr"/>
-      <c r="H1836" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1836" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1837">
@@ -59549,10 +59505,8 @@
       </c>
       <c r="F1837" t="inlineStr"/>
       <c r="G1837" t="inlineStr"/>
-      <c r="H1837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1837" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1838">
@@ -59583,10 +59537,8 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H1838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1838" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1839">
@@ -59617,10 +59569,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1839" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1839" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1840">
@@ -59651,10 +59601,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1840" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1840" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1841">
@@ -59685,10 +59633,8 @@
           <t>-5</t>
         </is>
       </c>
-      <c r="H1841" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1841" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1842">
@@ -59723,10 +59669,8 @@
           <t>7.50%</t>
         </is>
       </c>
-      <c r="H1842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1842" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1843">
@@ -59757,10 +59701,8 @@
           <t>11.0%</t>
         </is>
       </c>
-      <c r="H1843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1843" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1844">
@@ -59795,10 +59737,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H1844" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1844" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1845">
@@ -59833,10 +59773,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1845" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1845" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1846">
@@ -59867,10 +59805,8 @@
           <t>3.15%</t>
         </is>
       </c>
-      <c r="H1846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1846" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1847">
@@ -59901,10 +59837,8 @@
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H1847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1847" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1848">
@@ -59939,10 +59873,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1848" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1848" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1849">
@@ -59977,10 +59909,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H1849" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1849" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1850">
@@ -60015,10 +59945,8 @@
           <t>228.0K</t>
         </is>
       </c>
-      <c r="H1850" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1850" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1851">
@@ -60049,10 +59977,8 @@
           <t>1885.0K</t>
         </is>
       </c>
-      <c r="H1851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1851" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1852">
@@ -60083,10 +60009,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1852" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1853">
@@ -60117,10 +60041,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1853" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1854">
@@ -60151,10 +60073,8 @@
           <t>214.0K</t>
         </is>
       </c>
-      <c r="H1854" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1854" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1855">
@@ -60185,10 +60105,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H1855" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1855" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1856">
@@ -60219,10 +60137,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1856" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1857">
@@ -60245,10 +60161,8 @@
       <c r="E1857" t="inlineStr"/>
       <c r="F1857" t="inlineStr"/>
       <c r="G1857" t="inlineStr"/>
-      <c r="H1857" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1857" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1858">
@@ -60283,10 +60197,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1858" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1858" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1859">
@@ -60317,10 +60229,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1859" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1859" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1860">
@@ -60347,10 +60257,8 @@
       </c>
       <c r="F1860" t="inlineStr"/>
       <c r="G1860" t="inlineStr"/>
-      <c r="H1860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1860" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1861">
@@ -60377,10 +60285,8 @@
       </c>
       <c r="F1861" t="inlineStr"/>
       <c r="G1861" t="inlineStr"/>
-      <c r="H1861" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1861" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1862">
@@ -60407,10 +60313,8 @@
       </c>
       <c r="F1862" t="inlineStr"/>
       <c r="G1862" t="inlineStr"/>
-      <c r="H1862" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1862" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1863">
@@ -60437,10 +60341,8 @@
       </c>
       <c r="F1863" t="inlineStr"/>
       <c r="G1863" t="inlineStr"/>
-      <c r="H1863" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1863" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1864">
@@ -60467,10 +60369,8 @@
       </c>
       <c r="F1864" t="inlineStr"/>
       <c r="G1864" t="inlineStr"/>
-      <c r="H1864" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1864" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1865">
@@ -60497,10 +60397,8 @@
       </c>
       <c r="F1865" t="inlineStr"/>
       <c r="G1865" t="inlineStr"/>
-      <c r="H1865" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1865" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1866">
@@ -60535,10 +60433,8 @@
           <t>2.50%</t>
         </is>
       </c>
-      <c r="H1866" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1866" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1867">
@@ -60573,10 +60469,8 @@
           <t>1.25</t>
         </is>
       </c>
-      <c r="H1867" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1867" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1868">
@@ -60611,10 +60505,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1868" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1868" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1869">
@@ -60645,10 +60537,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1869" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1869" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1870">
@@ -60679,10 +60569,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H1870" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1870" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1871">
@@ -60717,10 +60605,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1871" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1871" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1872">
@@ -60755,10 +60641,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H1872" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1872" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1873">
@@ -60789,10 +60673,8 @@
           <t>-1.6%</t>
         </is>
       </c>
-      <c r="H1873" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1873" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1874">
@@ -60823,10 +60705,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1874" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1874" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1875">
@@ -60857,10 +60737,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1875" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1875" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1876">
@@ -60895,10 +60773,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1876" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1876" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1877">
@@ -60929,10 +60805,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1877" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1877" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1878">
@@ -60963,10 +60837,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1878" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1878" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1879">
@@ -60997,10 +60869,8 @@
           <t>5.7%</t>
         </is>
       </c>
-      <c r="H1879" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1879" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1880">
@@ -61031,10 +60901,8 @@
           <t>S$ 818.2B</t>
         </is>
       </c>
-      <c r="H1880" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1880" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1881">
@@ -61061,10 +60929,8 @@
       </c>
       <c r="F1881" t="inlineStr"/>
       <c r="G1881" t="inlineStr"/>
-      <c r="H1881" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1881" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1882">
@@ -61091,10 +60957,8 @@
       </c>
       <c r="F1882" t="inlineStr"/>
       <c r="G1882" t="inlineStr"/>
-      <c r="H1882" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1882" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1883">
@@ -61121,10 +60985,8 @@
           <t>ZAR14.0B</t>
         </is>
       </c>
-      <c r="H1883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1883" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1884">
@@ -61151,10 +61013,8 @@
           <t>10.6%</t>
         </is>
       </c>
-      <c r="H1884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1884" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1885">
@@ -61181,10 +61041,8 @@
           <t>12.8%</t>
         </is>
       </c>
-      <c r="H1885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1885" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1886">
@@ -61207,10 +61065,8 @@
       </c>
       <c r="F1886" t="inlineStr"/>
       <c r="G1886" t="inlineStr"/>
-      <c r="H1886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1887">
@@ -61233,10 +61089,8 @@
       </c>
       <c r="F1887" t="inlineStr"/>
       <c r="G1887" t="inlineStr"/>
-      <c r="H1887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1887" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1888">
@@ -61263,10 +61117,8 @@
           <t>90.0K</t>
         </is>
       </c>
-      <c r="H1888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1888" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1889">
@@ -61293,10 +61145,8 @@
           <t>MXN-1120.0B</t>
         </is>
       </c>
-      <c r="H1889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1889" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1890">
@@ -61323,56 +61173,74 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1890" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1891">
       <c r="A1891" t="inlineStr">
         <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B1891" t="inlineStr"/>
-      <c r="C1891" t="inlineStr"/>
+          <t>03:55 AM</t>
+        </is>
+      </c>
+      <c r="B1891" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C1891" t="inlineStr">
+        <is>
+          <t>Unemployment ChangeJAN</t>
+        </is>
+      </c>
       <c r="D1891" t="inlineStr"/>
-      <c r="E1891" t="inlineStr"/>
-      <c r="F1891" t="inlineStr"/>
-      <c r="G1891" t="inlineStr"/>
-      <c r="H1891" t="inlineStr"/>
+      <c r="E1891" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="F1891" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="G1891" t="inlineStr">
+        <is>
+          <t>7.0K</t>
+        </is>
+      </c>
+      <c r="H1891" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1892">
       <c r="A1892" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B1892" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1892" t="inlineStr">
         <is>
-          <t>Housing Starts YoYDEC</t>
+          <t>Unemployed PersonsJAN</t>
         </is>
       </c>
       <c r="D1892" t="inlineStr"/>
       <c r="E1892" t="inlineStr">
         <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
-      <c r="F1892" t="inlineStr">
-        <is>
-          <t>-3.9%</t>
-        </is>
-      </c>
+          <t>2.869M</t>
+        </is>
+      </c>
+      <c r="F1892" t="inlineStr"/>
       <c r="G1892" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>2.876M</t>
         </is>
       </c>
       <c r="H1892" t="inlineStr">
@@ -61384,75 +61252,71 @@
     <row r="1893">
       <c r="A1893" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B1893" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1893" t="inlineStr">
         <is>
-          <t>Construction Orders YoYDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D1893" t="inlineStr"/>
       <c r="E1893" t="inlineStr">
         <is>
-          <t>-10.2%</t>
-        </is>
-      </c>
-      <c r="F1893" t="inlineStr"/>
+          <t>6.1%</t>
+        </is>
+      </c>
+      <c r="F1893" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
       <c r="G1893" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>6.2%</t>
         </is>
       </c>
       <c r="H1893" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1894">
       <c r="A1894" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1894" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1894" t="inlineStr">
         <is>
-          <t>Business ConfidenceQ4</t>
+          <t>ECB Survey of Professional Forecasters</t>
         </is>
       </c>
       <c r="D1894" t="inlineStr"/>
-      <c r="E1894" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="E1894" t="inlineStr"/>
       <c r="F1894" t="inlineStr"/>
-      <c r="G1894" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+      <c r="G1894" t="inlineStr"/>
       <c r="H1894" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1895">
       <c r="A1895" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1895" t="inlineStr">
@@ -61462,35 +61326,27 @@
       </c>
       <c r="C1895" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Baden Wuerttemberg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1895" t="inlineStr"/>
       <c r="E1895" t="inlineStr">
         <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F1895" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G1895" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1895" t="inlineStr"/>
+      <c r="G1895" t="inlineStr"/>
       <c r="H1895" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1896">
       <c r="A1896" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1896" t="inlineStr">
@@ -61500,93 +61356,77 @@
       </c>
       <c r="C1896" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Baden Wuerttemberg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1896" t="inlineStr"/>
       <c r="E1896" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1896" t="inlineStr"/>
-      <c r="G1896" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1896" t="inlineStr"/>
       <c r="H1896" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1897">
       <c r="A1897" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1897" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1897" t="inlineStr">
         <is>
-          <t>Balance of Trade FinalDEC</t>
+          <t>Bavaria CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1897" t="inlineStr"/>
       <c r="E1897" t="inlineStr">
         <is>
-          <t>$-7.46B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1897" t="inlineStr"/>
-      <c r="G1897" t="inlineStr">
-        <is>
-          <t>$-8.82B</t>
-        </is>
-      </c>
+      <c r="G1897" t="inlineStr"/>
       <c r="H1897" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1898">
       <c r="A1898" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1898" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1898" t="inlineStr">
         <is>
-          <t>Exports FinalDEC</t>
+          <t>Bavaria CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1898" t="inlineStr"/>
       <c r="E1898" t="inlineStr">
         <is>
-          <t>$22.29B</t>
-        </is>
-      </c>
-      <c r="F1898" t="inlineStr">
-        <is>
-          <t>$23.46B</t>
-        </is>
-      </c>
-      <c r="G1898" t="inlineStr">
-        <is>
-          <t>$ 23.46B</t>
-        </is>
-      </c>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1898" t="inlineStr"/>
+      <c r="G1898" t="inlineStr"/>
       <c r="H1898" t="inlineStr">
         <is>
           <t>3</t>
@@ -61596,31 +61436,27 @@
     <row r="1899">
       <c r="A1899" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1899" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1899" t="inlineStr">
         <is>
-          <t>Imports FinalDEC</t>
+          <t>Brandenburg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1899" t="inlineStr"/>
       <c r="E1899" t="inlineStr">
         <is>
-          <t>$29.75B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F1899" t="inlineStr"/>
-      <c r="G1899" t="inlineStr">
-        <is>
-          <t>$32.29B</t>
-        </is>
-      </c>
+      <c r="G1899" t="inlineStr"/>
       <c r="H1899" t="inlineStr">
         <is>
           <t>3</t>
@@ -61630,31 +61466,27 @@
     <row r="1900">
       <c r="A1900" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1900" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1900" t="inlineStr">
         <is>
-          <t>Tourism RevenuesQ4</t>
+          <t>Brandenburg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1900" t="inlineStr"/>
       <c r="E1900" t="inlineStr">
         <is>
-          <t>$23.22B</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1900" t="inlineStr"/>
-      <c r="G1900" t="inlineStr">
-        <is>
-          <t>$ 23.5B</t>
-        </is>
-      </c>
+      <c r="G1900" t="inlineStr"/>
       <c r="H1900" t="inlineStr">
         <is>
           <t>3</t>
@@ -61664,171 +61496,147 @@
     <row r="1901">
       <c r="A1901" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1901" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1901" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices MoMJAN</t>
+          <t>Hesse CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1901" t="inlineStr"/>
       <c r="E1901" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F1901" t="inlineStr"/>
-      <c r="G1901" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="G1901" t="inlineStr"/>
       <c r="H1901" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1902">
       <c r="A1902" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1902" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1902" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices YoYJAN</t>
+          <t>Hesse CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1902" t="inlineStr"/>
       <c r="E1902" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1902" t="inlineStr"/>
-      <c r="G1902" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G1902" t="inlineStr"/>
       <c r="H1902" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1903">
       <c r="A1903" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1903" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1903" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>North Rhine Westphalia CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1903" t="inlineStr"/>
       <c r="E1903" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1903" t="inlineStr"/>
-      <c r="G1903" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G1903" t="inlineStr"/>
       <c r="H1903" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1904">
       <c r="A1904" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1904" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1904" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>North Rhine Westphalia CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1904" t="inlineStr"/>
       <c r="E1904" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1904" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G1904" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>2.5%</t>
+        </is>
+      </c>
+      <c r="F1904" t="inlineStr"/>
+      <c r="G1904" t="inlineStr"/>
       <c r="H1904" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1905">
       <c r="A1905" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1905" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1905" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Saxony CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1905" t="inlineStr"/>
       <c r="E1905" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1905" t="inlineStr"/>
-      <c r="G1905" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1905" t="inlineStr"/>
       <c r="H1905" t="inlineStr">
         <is>
           <t>3</t>
@@ -61838,31 +61646,27 @@
     <row r="1906">
       <c r="A1906" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1906" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1906" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Saxony CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1906" t="inlineStr"/>
       <c r="E1906" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F1906" t="inlineStr"/>
-      <c r="G1906" t="inlineStr">
-        <is>
-          <t>2.0%</t>
-        </is>
-      </c>
+      <c r="G1906" t="inlineStr"/>
       <c r="H1906" t="inlineStr">
         <is>
           <t>3</t>
@@ -61872,29 +61676,29 @@
     <row r="1907">
       <c r="A1907" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1907" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1907" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D1907" t="inlineStr"/>
       <c r="E1907" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>€4.9B</t>
         </is>
       </c>
       <c r="F1907" t="inlineStr"/>
       <c r="G1907" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>€5.0B</t>
         </is>
       </c>
       <c r="H1907" t="inlineStr">
@@ -61906,29 +61710,29 @@
     <row r="1908">
       <c r="A1908" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1908" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1908" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1908" t="inlineStr"/>
       <c r="E1908" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F1908" t="inlineStr"/>
       <c r="G1908" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1908" t="inlineStr">
@@ -61940,29 +61744,29 @@
     <row r="1909">
       <c r="A1909" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1909" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1909" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1909" t="inlineStr"/>
       <c r="E1909" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F1909" t="inlineStr"/>
       <c r="G1909" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1909" t="inlineStr">
@@ -61974,29 +61778,29 @@
     <row r="1910">
       <c r="A1910" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1910" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1910" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Government Budget ValueDEC</t>
         </is>
       </c>
       <c r="D1910" t="inlineStr"/>
       <c r="E1910" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>INR-8465.9B</t>
         </is>
       </c>
       <c r="F1910" t="inlineStr"/>
       <c r="G1910" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>INR-9700.0B</t>
         </is>
       </c>
       <c r="H1910" t="inlineStr">
@@ -62008,27 +61812,31 @@
     <row r="1911">
       <c r="A1911" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1911" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1911" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Gross Debt to GDPDEC</t>
         </is>
       </c>
       <c r="D1911" t="inlineStr"/>
       <c r="E1911" t="inlineStr">
         <is>
-          <t>8.25%</t>
+          <t>77.7%</t>
         </is>
       </c>
       <c r="F1911" t="inlineStr"/>
-      <c r="G1911" t="inlineStr"/>
+      <c r="G1911" t="inlineStr">
+        <is>
+          <t>77.9%</t>
+        </is>
+      </c>
       <c r="H1911" t="inlineStr">
         <is>
           <t>3</t>
@@ -62038,163 +61846,155 @@
     <row r="1912">
       <c r="A1912" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1912" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1912" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Nominal Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D1912" t="inlineStr"/>
       <c r="E1912" t="inlineStr">
         <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="F1912" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
+          <t>BRL-99.1B</t>
+        </is>
+      </c>
+      <c r="F1912" t="inlineStr"/>
       <c r="G1912" t="inlineStr">
         <is>
-          <t>7.0K</t>
+          <t>BRL-103.0B</t>
         </is>
       </c>
       <c r="H1912" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1913">
       <c r="A1913" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1913" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1913" t="inlineStr">
         <is>
-          <t>Unemployed PersonsJAN</t>
+          <t>Bank Loan Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D1913" t="inlineStr"/>
       <c r="E1913" t="inlineStr">
         <is>
-          <t>2.869M</t>
+          <t>11.2%</t>
         </is>
       </c>
       <c r="F1913" t="inlineStr"/>
-      <c r="G1913" t="inlineStr">
-        <is>
-          <t>2.876M</t>
-        </is>
-      </c>
+      <c r="G1913" t="inlineStr"/>
       <c r="H1913" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1914">
       <c r="A1914" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1914" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1914" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Deposit Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D1914" t="inlineStr"/>
       <c r="E1914" t="inlineStr">
         <is>
-          <t>6.1%</t>
-        </is>
-      </c>
-      <c r="F1914" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
-      <c r="G1914" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
+          <t>9.8%</t>
+        </is>
+      </c>
+      <c r="F1914" t="inlineStr"/>
+      <c r="G1914" t="inlineStr"/>
       <c r="H1914" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1915">
       <c r="A1915" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1915" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1915" t="inlineStr">
         <is>
-          <t>ECB Survey of Professional Forecasters</t>
+          <t>Foreign Exchange ReservesJAN/24</t>
         </is>
       </c>
       <c r="D1915" t="inlineStr"/>
-      <c r="E1915" t="inlineStr"/>
+      <c r="E1915" t="inlineStr">
+        <is>
+          <t>$623.98B</t>
+        </is>
+      </c>
       <c r="F1915" t="inlineStr"/>
       <c r="G1915" t="inlineStr"/>
       <c r="H1915" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1916">
       <c r="A1916" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1916" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1916" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI MoMJAN</t>
+          <t>Infrastructure Output YoYDEC</t>
         </is>
       </c>
       <c r="D1916" t="inlineStr"/>
       <c r="E1916" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1916" t="inlineStr"/>
-      <c r="G1916" t="inlineStr"/>
+      <c r="G1916" t="inlineStr">
+        <is>
+          <t>4.8%</t>
+        </is>
+      </c>
       <c r="H1916" t="inlineStr">
         <is>
           <t>3</t>
@@ -62204,67 +62004,75 @@
     <row r="1917">
       <c r="A1917" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1917" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1917" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI YoYJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D1917" t="inlineStr"/>
       <c r="E1917" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F1917" t="inlineStr"/>
-      <c r="G1917" t="inlineStr"/>
+      <c r="G1917" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
       <c r="H1917" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1918">
       <c r="A1918" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1918" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1918" t="inlineStr">
         <is>
-          <t>Bavaria CPI MoMJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1918" t="inlineStr"/>
       <c r="E1918" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>ZAR34.7B</t>
         </is>
       </c>
       <c r="F1918" t="inlineStr"/>
-      <c r="G1918" t="inlineStr"/>
+      <c r="G1918" t="inlineStr">
+        <is>
+          <t>ZAR 27.0B</t>
+        </is>
+      </c>
       <c r="H1918" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1919">
       <c r="A1919" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1919" t="inlineStr">
@@ -62274,27 +62082,35 @@
       </c>
       <c r="C1919" t="inlineStr">
         <is>
-          <t>Bavaria CPI YoYJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1919" t="inlineStr"/>
       <c r="E1919" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1919" t="inlineStr"/>
-      <c r="G1919" t="inlineStr"/>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="F1919" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="G1919" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1919" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1920">
       <c r="A1920" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1920" t="inlineStr">
@@ -62304,27 +62120,35 @@
       </c>
       <c r="C1920" t="inlineStr">
         <is>
-          <t>Brandenburg CPI MoMJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1920" t="inlineStr"/>
       <c r="E1920" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F1920" t="inlineStr"/>
-      <c r="G1920" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1920" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="G1920" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1920" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1921">
       <c r="A1921" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1921" t="inlineStr">
@@ -62334,17 +62158,21 @@
       </c>
       <c r="C1921" t="inlineStr">
         <is>
-          <t>Brandenburg CPI YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1921" t="inlineStr"/>
       <c r="E1921" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1921" t="inlineStr"/>
-      <c r="G1921" t="inlineStr"/>
+      <c r="G1921" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1921" t="inlineStr">
         <is>
           <t>3</t>
@@ -62354,7 +62182,7 @@
     <row r="1922">
       <c r="A1922" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1922" t="inlineStr">
@@ -62364,17 +62192,25 @@
       </c>
       <c r="C1922" t="inlineStr">
         <is>
-          <t>Hesse CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1922" t="inlineStr"/>
       <c r="E1922" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F1922" t="inlineStr"/>
-      <c r="G1922" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F1922" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
+      <c r="G1922" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H1922" t="inlineStr">
         <is>
           <t>3</t>
@@ -62384,381 +62220,417 @@
     <row r="1923">
       <c r="A1923" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1923" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1923" t="inlineStr">
         <is>
-          <t>Hesse CPI YoYJAN</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D1923" t="inlineStr"/>
       <c r="E1923" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1923" t="inlineStr"/>
-      <c r="G1923" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1923" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="G1923" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="H1923" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1924">
       <c r="A1924" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1924" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1924" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI MoMJAN</t>
+          <t>GDP MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1924" t="inlineStr"/>
       <c r="E1924" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1924" t="inlineStr"/>
-      <c r="G1924" t="inlineStr"/>
+      <c r="G1924" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1924" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1925">
       <c r="A1925" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1925" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1925" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI YoYJAN</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1925" t="inlineStr"/>
       <c r="E1925" t="inlineStr">
         <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="F1925" t="inlineStr"/>
-      <c r="G1925" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1925" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G1925" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1925" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1926">
       <c r="A1926" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1926" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1926" t="inlineStr">
         <is>
-          <t>Saxony CPI MoMJAN</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="D1926" t="inlineStr"/>
       <c r="E1926" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1926" t="inlineStr"/>
-      <c r="G1926" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1926" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G1926" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1926" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1927">
       <c r="A1927" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1927" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1927" t="inlineStr">
         <is>
-          <t>Saxony CPI YoYJAN</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="D1927" t="inlineStr"/>
       <c r="E1927" t="inlineStr">
         <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F1927" t="inlineStr"/>
-      <c r="G1927" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F1927" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G1927" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1927" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1928">
       <c r="A1928" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1928" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1928" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="D1928" t="inlineStr"/>
       <c r="E1928" t="inlineStr">
         <is>
-          <t>€4.9B</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1928" t="inlineStr"/>
       <c r="G1928" t="inlineStr">
         <is>
-          <t>€5.0B</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1928" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1929">
       <c r="A1929" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1929" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1929" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="D1929" t="inlineStr"/>
       <c r="E1929" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1929" t="inlineStr"/>
       <c r="G1929" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1929" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1930">
       <c r="A1930" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1930" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1930" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="D1930" t="inlineStr"/>
       <c r="E1930" t="inlineStr">
         <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F1930" t="inlineStr"/>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="F1930" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="G1930" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1930" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1931">
       <c r="A1931" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1931" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1931" t="inlineStr">
         <is>
-          <t>Government Budget ValueDEC</t>
+          <t>Fed Bowman Speech</t>
         </is>
       </c>
       <c r="D1931" t="inlineStr"/>
-      <c r="E1931" t="inlineStr">
-        <is>
-          <t>INR-8465.9B</t>
-        </is>
-      </c>
+      <c r="E1931" t="inlineStr"/>
       <c r="F1931" t="inlineStr"/>
-      <c r="G1931" t="inlineStr">
-        <is>
-          <t>INR-9700.0B</t>
-        </is>
-      </c>
+      <c r="G1931" t="inlineStr"/>
       <c r="H1931" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1932">
       <c r="A1932" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1932" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1932" t="inlineStr">
         <is>
-          <t>Gross Debt to GDPDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1932" t="inlineStr"/>
       <c r="E1932" t="inlineStr">
         <is>
-          <t>77.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1932" t="inlineStr"/>
       <c r="G1932" t="inlineStr">
         <is>
-          <t>77.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1932" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1933">
       <c r="A1933" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1933" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1933" t="inlineStr">
         <is>
-          <t>Nominal Budget BalanceDEC</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1933" t="inlineStr"/>
       <c r="E1933" t="inlineStr">
         <is>
-          <t>BRL-99.1B</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1933" t="inlineStr"/>
       <c r="G1933" t="inlineStr">
         <is>
-          <t>BRL-103.0B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="H1933" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1934">
       <c r="A1934" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1934" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1934" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/17</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1934" t="inlineStr"/>
       <c r="E1934" t="inlineStr">
         <is>
-          <t>11.2%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1934" t="inlineStr"/>
-      <c r="G1934" t="inlineStr"/>
+      <c r="G1934" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H1934" t="inlineStr">
         <is>
           <t>3</t>
@@ -62768,57 +62640,69 @@
     <row r="1935">
       <c r="A1935" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1935" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1935" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/17</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="D1935" t="inlineStr"/>
       <c r="E1935" t="inlineStr">
         <is>
-          <t>9.8%</t>
-        </is>
-      </c>
-      <c r="F1935" t="inlineStr"/>
-      <c r="G1935" t="inlineStr"/>
+          <t>36.9</t>
+        </is>
+      </c>
+      <c r="F1935" t="inlineStr">
+        <is>
+          <t>39.9</t>
+        </is>
+      </c>
+      <c r="G1935" t="inlineStr">
+        <is>
+          <t>37.2</t>
+        </is>
+      </c>
       <c r="H1935" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1936">
       <c r="A1936" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1936" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1936" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/24</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D1936" t="inlineStr"/>
       <c r="E1936" t="inlineStr">
         <is>
-          <t>$623.98B</t>
+          <t>C$-1.49B</t>
         </is>
       </c>
       <c r="F1936" t="inlineStr"/>
-      <c r="G1936" t="inlineStr"/>
+      <c r="G1936" t="inlineStr">
+        <is>
+          <t>C$-1.9B</t>
+        </is>
+      </c>
       <c r="H1936" t="inlineStr">
         <is>
           <t>3</t>
@@ -62828,31 +62712,27 @@
     <row r="1937">
       <c r="A1937" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1937" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1937" t="inlineStr">
         <is>
-          <t>Infrastructure Output YoYDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="D1937" t="inlineStr"/>
       <c r="E1937" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>472</t>
         </is>
       </c>
       <c r="F1937" t="inlineStr"/>
-      <c r="G1937" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="G1937" t="inlineStr"/>
       <c r="H1937" t="inlineStr">
         <is>
           <t>3</t>
@@ -62862,63 +62742,59 @@
     <row r="1938">
       <c r="A1938" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1938" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1938" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="D1938" t="inlineStr"/>
       <c r="E1938" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>576</t>
         </is>
       </c>
       <c r="F1938" t="inlineStr"/>
-      <c r="G1938" t="inlineStr">
-        <is>
-          <t>6.1%</t>
-        </is>
-      </c>
+      <c r="G1938" t="inlineStr"/>
       <c r="H1938" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1939">
       <c r="A1939" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1939" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1939" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Exports YoYJAN</t>
         </is>
       </c>
       <c r="D1939" t="inlineStr"/>
       <c r="E1939" t="inlineStr">
         <is>
-          <t>ZAR34.7B</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="F1939" t="inlineStr"/>
       <c r="G1939" t="inlineStr">
         <is>
-          <t>ZAR 27.0B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1939" t="inlineStr">
@@ -62930,105 +62806,93 @@
     <row r="1940">
       <c r="A1940" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1940" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1940" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D1940" t="inlineStr"/>
       <c r="E1940" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F1940" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+          <t>$6.49B</t>
+        </is>
+      </c>
+      <c r="F1940" t="inlineStr"/>
       <c r="G1940" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>$0.9B</t>
         </is>
       </c>
       <c r="H1940" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1941">
       <c r="A1941" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1941" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1941" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Imports YoYJAN</t>
         </is>
       </c>
       <c r="D1941" t="inlineStr"/>
       <c r="E1941" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1941" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="F1941" t="inlineStr"/>
       <c r="G1941" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H1941" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1942">
-      <c r="A1942" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
+      <c r="A1942" t="inlineStr"/>
       <c r="B1942" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1942" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Consumer Inflation ExpectationsDEC</t>
         </is>
       </c>
       <c r="D1942" t="inlineStr"/>
       <c r="E1942" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1942" t="inlineStr"/>
       <c r="G1942" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H1942" t="inlineStr">
@@ -63038,35 +62902,27 @@
       </c>
     </row>
     <row r="1943">
-      <c r="A1943" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
+      <c r="A1943" t="inlineStr"/>
       <c r="B1943" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1943" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D1943" t="inlineStr"/>
       <c r="E1943" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1943" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="F1943" t="inlineStr"/>
       <c r="G1943" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H1943" t="inlineStr">
@@ -63076,311 +62932,255 @@
       </c>
     </row>
     <row r="1944">
-      <c r="A1944" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1944" t="inlineStr"/>
       <c r="B1944" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1944" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D1944" t="inlineStr"/>
       <c r="E1944" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1944" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+          <t>28.8%</t>
+        </is>
+      </c>
+      <c r="F1944" t="inlineStr"/>
       <c r="G1944" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H1944" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1945">
-      <c r="A1945" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1945" t="inlineStr"/>
       <c r="B1945" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1945" t="inlineStr">
         <is>
-          <t>GDP MoM PrelDEC</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D1945" t="inlineStr"/>
       <c r="E1945" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-4.9%</t>
         </is>
       </c>
       <c r="F1945" t="inlineStr"/>
       <c r="G1945" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-4.0%</t>
         </is>
       </c>
       <c r="H1945" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1946">
-      <c r="A1946" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1946" t="inlineStr"/>
       <c r="B1946" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1946" t="inlineStr">
         <is>
-          <t>Core PCE Price Index MoMDEC</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1946" t="inlineStr"/>
       <c r="E1946" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1946" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="F1946" t="inlineStr"/>
       <c r="G1946" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H1946" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1947">
       <c r="A1947" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1947" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1947" t="inlineStr">
-        <is>
-          <t>Personal Income MoMDEC</t>
-        </is>
-      </c>
+          <t>Sunday February 02 2025</t>
+        </is>
+      </c>
+      <c r="B1947" t="inlineStr"/>
+      <c r="C1947" t="inlineStr"/>
       <c r="D1947" t="inlineStr"/>
-      <c r="E1947" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1947" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1947" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1947" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="E1947" t="inlineStr"/>
+      <c r="F1947" t="inlineStr"/>
+      <c r="G1947" t="inlineStr"/>
+      <c r="H1947" t="inlineStr"/>
     </row>
     <row r="1948">
       <c r="A1948" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1948" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1948" t="inlineStr">
         <is>
-          <t>Personal Spending MoMDEC</t>
+          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1948" t="inlineStr"/>
       <c r="E1948" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F1948" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1948" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+          <t>47.8</t>
+        </is>
+      </c>
+      <c r="F1948" t="inlineStr"/>
+      <c r="G1948" t="inlineStr"/>
       <c r="H1948" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1949">
       <c r="A1949" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1949" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1949" t="inlineStr">
         <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1949" t="inlineStr"/>
       <c r="E1949" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1949" t="inlineStr"/>
       <c r="G1949" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1949" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1950">
       <c r="A1950" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1950" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1950" t="inlineStr">
         <is>
-          <t>Employment Cost - Wages QoQQ4</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1950" t="inlineStr"/>
       <c r="E1950" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1950" t="inlineStr"/>
       <c r="G1950" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H1950" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1951">
       <c r="A1951" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1951" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1951" t="inlineStr">
         <is>
-          <t>Employment Cost Index QoQQ4</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1951" t="inlineStr"/>
       <c r="E1951" t="inlineStr">
         <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F1951" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F1951" t="inlineStr"/>
       <c r="G1951" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1951" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1952">
       <c r="A1952" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1952" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1952" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>BoJ Summary of Opinions</t>
         </is>
       </c>
       <c r="D1952" t="inlineStr"/>
@@ -63396,29 +63196,29 @@
     <row r="1953">
       <c r="A1953" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1953" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1953" t="inlineStr">
         <is>
-          <t>PCE Price Index MoMDEC</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1953" t="inlineStr"/>
       <c r="E1953" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F1953" t="inlineStr"/>
       <c r="G1953" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H1953" t="inlineStr">
@@ -63430,29 +63230,29 @@
     <row r="1954">
       <c r="A1954" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1954" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1954" t="inlineStr">
         <is>
-          <t>PCE Price Index YoYDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1954" t="inlineStr"/>
       <c r="E1954" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1954" t="inlineStr"/>
       <c r="G1954" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1954" t="inlineStr">
@@ -63464,31 +63264,27 @@
     <row r="1955">
       <c r="A1955" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1955" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1955" t="inlineStr">
         <is>
-          <t>Core PCE Price Index YoYDEC</t>
+          <t>ANZ-Indeed Job Ads MoMJAN</t>
         </is>
       </c>
       <c r="D1955" t="inlineStr"/>
       <c r="E1955" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1955" t="inlineStr"/>
-      <c r="G1955" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="G1955" t="inlineStr"/>
       <c r="H1955" t="inlineStr">
         <is>
           <t>3</t>
@@ -63498,67 +63294,59 @@
     <row r="1956">
       <c r="A1956" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1956" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1956" t="inlineStr">
         <is>
-          <t>Chicago PMIJAN</t>
+          <t>Private House Approvals MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1956" t="inlineStr"/>
       <c r="E1956" t="inlineStr">
         <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="F1956" t="inlineStr">
-        <is>
-          <t>39.9</t>
-        </is>
-      </c>
-      <c r="G1956" t="inlineStr">
-        <is>
-          <t>37.2</t>
-        </is>
-      </c>
+          <t>-1.7%</t>
+        </is>
+      </c>
+      <c r="F1956" t="inlineStr"/>
+      <c r="G1956" t="inlineStr"/>
       <c r="H1956" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1957">
       <c r="A1957" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1957" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1957" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1957" t="inlineStr"/>
       <c r="E1957" t="inlineStr">
         <is>
-          <t>C$-1.49B</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F1957" t="inlineStr"/>
       <c r="G1957" t="inlineStr">
         <is>
-          <t>C$-1.9B</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="H1957" t="inlineStr">
@@ -63570,157 +63358,173 @@
     <row r="1958">
       <c r="A1958" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1958" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1958" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
+          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1958" t="inlineStr"/>
       <c r="E1958" t="inlineStr">
         <is>
-          <t>472</t>
-        </is>
-      </c>
-      <c r="F1958" t="inlineStr"/>
-      <c r="G1958" t="inlineStr"/>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F1958" t="inlineStr">
+        <is>
+          <t>48.8</t>
+        </is>
+      </c>
+      <c r="G1958" t="inlineStr">
+        <is>
+          <t>48.8</t>
+        </is>
+      </c>
       <c r="H1958" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1959">
       <c r="A1959" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1959" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1959" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1959" t="inlineStr"/>
       <c r="E1959" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F1959" t="inlineStr"/>
-      <c r="G1959" t="inlineStr"/>
+      <c r="G1959" t="inlineStr">
+        <is>
+          <t>49.5</t>
+        </is>
+      </c>
       <c r="H1959" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1960">
       <c r="A1960" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:45 PM</t>
         </is>
       </c>
       <c r="B1960" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1960" t="inlineStr">
         <is>
-          <t>Exports YoYJAN</t>
+          <t>Caixin Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1960" t="inlineStr"/>
       <c r="E1960" t="inlineStr">
         <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="F1960" t="inlineStr"/>
+          <t>50.5</t>
+        </is>
+      </c>
+      <c r="F1960" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="G1960" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="H1960" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1961">
       <c r="A1961" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B1961" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1961" t="inlineStr">
         <is>
-          <t>Balance of TradeJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1961" t="inlineStr"/>
       <c r="E1961" t="inlineStr">
         <is>
-          <t>$6.49B</t>
+          <t>1.57%</t>
         </is>
       </c>
       <c r="F1961" t="inlineStr"/>
       <c r="G1961" t="inlineStr">
         <is>
-          <t>$0.9B</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H1961" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1962">
       <c r="A1962" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B1962" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1962" t="inlineStr">
         <is>
-          <t>Imports YoYJAN</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1962" t="inlineStr"/>
       <c r="E1962" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2.26%</t>
         </is>
       </c>
       <c r="F1962" t="inlineStr"/>
       <c r="G1962" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H1962" t="inlineStr">
@@ -63730,27 +63534,31 @@
       </c>
     </row>
     <row r="1963">
-      <c r="A1963" t="inlineStr"/>
+      <c r="A1963" t="inlineStr">
+        <is>
+          <t>11:00 PM</t>
+        </is>
+      </c>
       <c r="B1963" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1963" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1963" t="inlineStr"/>
       <c r="E1963" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.44%</t>
         </is>
       </c>
       <c r="F1963" t="inlineStr"/>
       <c r="G1963" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1963" t="inlineStr">
@@ -63760,27 +63568,31 @@
       </c>
     </row>
     <row r="1964">
-      <c r="A1964" t="inlineStr"/>
+      <c r="A1964" t="inlineStr">
+        <is>
+          <t>11:45 PM</t>
+        </is>
+      </c>
       <c r="B1964" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1964" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D1964" t="inlineStr"/>
       <c r="E1964" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>17.27%</t>
         </is>
       </c>
       <c r="F1964" t="inlineStr"/>
       <c r="G1964" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>18.0%</t>
         </is>
       </c>
       <c r="H1964" t="inlineStr">
@@ -63790,57 +63602,49 @@
       </c>
     </row>
     <row r="1965">
-      <c r="A1965" t="inlineStr"/>
-      <c r="B1965" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C1965" t="inlineStr">
-        <is>
-          <t>New Car Sales YoYJAN</t>
-        </is>
-      </c>
+      <c r="A1965" t="inlineStr">
+        <is>
+          <t>Monday February 03 2025</t>
+        </is>
+      </c>
+      <c r="B1965" t="inlineStr"/>
+      <c r="C1965" t="inlineStr"/>
       <c r="D1965" t="inlineStr"/>
-      <c r="E1965" t="inlineStr">
-        <is>
-          <t>28.8%</t>
-        </is>
-      </c>
+      <c r="E1965" t="inlineStr"/>
       <c r="F1965" t="inlineStr"/>
-      <c r="G1965" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H1965" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1965" t="inlineStr"/>
+      <c r="H1965" t="inlineStr"/>
     </row>
     <row r="1966">
-      <c r="A1966" t="inlineStr"/>
+      <c r="A1966" t="inlineStr">
+        <is>
+          <t>12:00 AM</t>
+        </is>
+      </c>
       <c r="B1966" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1966" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>HSBC Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1966" t="inlineStr"/>
       <c r="E1966" t="inlineStr">
         <is>
-          <t>-4.9%</t>
-        </is>
-      </c>
-      <c r="F1966" t="inlineStr"/>
+          <t>56.4</t>
+        </is>
+      </c>
+      <c r="F1966" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
       <c r="G1966" t="inlineStr">
         <is>
-          <t>-4.0%</t>
+          <t>58</t>
         </is>
       </c>
       <c r="H1966" t="inlineStr">
@@ -63850,29 +63654,29 @@
       </c>
     </row>
     <row r="1967">
-      <c r="A1967" t="inlineStr"/>
+      <c r="A1967" t="inlineStr">
+        <is>
+          <t>12:00 AM</t>
+        </is>
+      </c>
       <c r="B1967" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1967" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>2-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1967" t="inlineStr"/>
       <c r="E1967" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>2.670%</t>
         </is>
       </c>
       <c r="F1967" t="inlineStr"/>
-      <c r="G1967" t="inlineStr">
-        <is>
-          <t>20.7%</t>
-        </is>
-      </c>
+      <c r="G1967" t="inlineStr"/>
       <c r="H1967" t="inlineStr">
         <is>
           <t>3</t>
@@ -63882,37 +63686,53 @@
     <row r="1968">
       <c r="A1968" t="inlineStr">
         <is>
-          <t>Sunday February 02 2025</t>
-        </is>
-      </c>
-      <c r="B1968" t="inlineStr"/>
-      <c r="C1968" t="inlineStr"/>
+          <t>12:30 AM</t>
+        </is>
+      </c>
+      <c r="B1968" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C1968" t="inlineStr">
+        <is>
+          <t>Commodity Prices YoYJAN</t>
+        </is>
+      </c>
       <c r="D1968" t="inlineStr"/>
-      <c r="E1968" t="inlineStr"/>
+      <c r="E1968" t="inlineStr">
+        <is>
+          <t>-10.7%</t>
+        </is>
+      </c>
       <c r="F1968" t="inlineStr"/>
       <c r="G1968" t="inlineStr"/>
-      <c r="H1968" t="inlineStr"/>
+      <c r="H1968" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1969">
       <c r="A1969" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B1969" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1969" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1969" t="inlineStr"/>
       <c r="E1969" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F1969" t="inlineStr"/>
@@ -63926,99 +63746,87 @@
     <row r="1970">
       <c r="A1970" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1970" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1970" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1970" t="inlineStr"/>
       <c r="E1970" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>1.03%</t>
         </is>
       </c>
       <c r="F1970" t="inlineStr"/>
-      <c r="G1970" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G1970" t="inlineStr"/>
       <c r="H1970" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1971">
       <c r="A1971" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1971" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1971" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1971" t="inlineStr"/>
       <c r="E1971" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F1971" t="inlineStr"/>
-      <c r="G1971" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1971" t="inlineStr"/>
       <c r="H1971" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1972">
       <c r="A1972" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1972" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1972" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1972" t="inlineStr"/>
       <c r="E1972" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F1972" t="inlineStr"/>
-      <c r="G1972" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1972" t="inlineStr"/>
       <c r="H1972" t="inlineStr">
         <is>
           <t>3</t>
@@ -64028,91 +63836,87 @@
     <row r="1973">
       <c r="A1973" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1973" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1973" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D1973" t="inlineStr"/>
-      <c r="E1973" t="inlineStr"/>
+      <c r="E1973" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F1973" t="inlineStr"/>
       <c r="G1973" t="inlineStr"/>
       <c r="H1973" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1974">
       <c r="A1974" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1974" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1974" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D1974" t="inlineStr"/>
       <c r="E1974" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F1974" t="inlineStr"/>
-      <c r="G1974" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G1974" t="inlineStr"/>
       <c r="H1974" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1975">
       <c r="A1975" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1975" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1975" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D1975" t="inlineStr"/>
       <c r="E1975" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>-25.3K</t>
         </is>
       </c>
       <c r="F1975" t="inlineStr"/>
-      <c r="G1975" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1975" t="inlineStr"/>
       <c r="H1975" t="inlineStr">
         <is>
           <t>2</t>
@@ -64122,25 +63926,21 @@
     <row r="1976">
       <c r="A1976" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1976" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1976" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D1976" t="inlineStr"/>
-      <c r="E1976" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="E1976" t="inlineStr"/>
       <c r="F1976" t="inlineStr"/>
       <c r="G1976" t="inlineStr"/>
       <c r="H1976" t="inlineStr">
@@ -64152,97 +63952,93 @@
     <row r="1977">
       <c r="A1977" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B1977" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1977" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1977" t="inlineStr"/>
       <c r="E1977" t="inlineStr">
         <is>
-          <t>-1.7%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F1977" t="inlineStr"/>
       <c r="G1977" t="inlineStr"/>
       <c r="H1977" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1978">
       <c r="A1978" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:45 AM</t>
         </is>
       </c>
       <c r="B1978" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1978" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1978" t="inlineStr"/>
       <c r="E1978" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F1978" t="inlineStr"/>
-      <c r="G1978" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
+      <c r="G1978" t="inlineStr"/>
       <c r="H1978" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1979">
       <c r="A1979" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:50 AM</t>
         </is>
       </c>
       <c r="B1979" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1979" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1979" t="inlineStr"/>
       <c r="E1979" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>41.9</t>
         </is>
       </c>
       <c r="F1979" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="G1979" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="H1979" t="inlineStr">
@@ -64254,29 +64050,33 @@
     <row r="1980">
       <c r="A1980" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B1980" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1980" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1980" t="inlineStr"/>
       <c r="E1980" t="inlineStr">
         <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F1980" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F1980" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
       <c r="G1980" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="H1980" t="inlineStr">
@@ -64288,223 +64088,219 @@
     <row r="1981">
       <c r="A1981" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1981" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1981" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1981" t="inlineStr"/>
       <c r="E1981" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="F1981" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="G1981" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="H1981" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1982">
       <c r="A1982" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1982" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1982" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1982" t="inlineStr"/>
       <c r="E1982" t="inlineStr">
         <is>
-          <t>1.57%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F1982" t="inlineStr"/>
       <c r="G1982" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H1982" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1983">
       <c r="A1983" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1983" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1983" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1983" t="inlineStr"/>
       <c r="E1983" t="inlineStr">
         <is>
-          <t>2.26%</t>
-        </is>
-      </c>
-      <c r="F1983" t="inlineStr"/>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F1983" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
       <c r="G1983" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="H1983" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1984">
       <c r="A1984" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1984" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1984" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D1984" t="inlineStr"/>
-      <c r="E1984" t="inlineStr">
-        <is>
-          <t>0.44%</t>
-        </is>
-      </c>
+      <c r="E1984" t="inlineStr"/>
       <c r="F1984" t="inlineStr"/>
-      <c r="G1984" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1984" t="inlineStr"/>
       <c r="H1984" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1985">
       <c r="A1985" t="inlineStr">
         <is>
-          <t>11:45 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1985" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1985" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D1985" t="inlineStr"/>
       <c r="E1985" t="inlineStr">
         <is>
-          <t>17.27%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F1985" t="inlineStr"/>
-      <c r="G1985" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
+      <c r="G1985" t="inlineStr"/>
       <c r="H1985" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1986">
       <c r="A1986" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B1986" t="inlineStr"/>
-      <c r="C1986" t="inlineStr"/>
+          <t>05:00 AM</t>
+        </is>
+      </c>
+      <c r="B1986" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C1986" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoM FlashJAN</t>
+        </is>
+      </c>
       <c r="D1986" t="inlineStr"/>
       <c r="E1986" t="inlineStr"/>
       <c r="F1986" t="inlineStr"/>
       <c r="G1986" t="inlineStr"/>
-      <c r="H1986" t="inlineStr"/>
+      <c r="H1986" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1987">
       <c r="A1987" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1987" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1987" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D1987" t="inlineStr"/>
       <c r="E1987" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F1987" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G1987" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>127.07</t>
+        </is>
+      </c>
+      <c r="F1987" t="inlineStr"/>
+      <c r="G1987" t="inlineStr"/>
       <c r="H1987" t="inlineStr">
         <is>
           <t>3</t>
@@ -64514,177 +64310,185 @@
     <row r="1988">
       <c r="A1988" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1988" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1988" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1988" t="inlineStr"/>
       <c r="E1988" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F1988" t="inlineStr"/>
       <c r="G1988" t="inlineStr"/>
       <c r="H1988" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1989">
       <c r="A1989" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1989" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1989" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1989" t="inlineStr"/>
       <c r="E1989" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1989" t="inlineStr"/>
       <c r="G1989" t="inlineStr"/>
       <c r="H1989" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1990">
       <c r="A1990" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1990" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1990" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1990" t="inlineStr"/>
       <c r="E1990" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1990" t="inlineStr"/>
       <c r="G1990" t="inlineStr"/>
       <c r="H1990" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1991">
       <c r="A1991" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1991" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1991" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1991" t="inlineStr"/>
       <c r="E1991" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1991" t="inlineStr"/>
       <c r="G1991" t="inlineStr"/>
       <c r="H1991" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1992">
       <c r="A1992" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1992" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1992" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D1992" t="inlineStr"/>
       <c r="E1992" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F1992" t="inlineStr"/>
-      <c r="G1992" t="inlineStr"/>
+      <c r="G1992" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H1992" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1993">
       <c r="A1993" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1993" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1993" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1993" t="inlineStr"/>
       <c r="E1993" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F1993" t="inlineStr"/>
-      <c r="G1993" t="inlineStr"/>
+      <c r="G1993" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H1993" t="inlineStr">
         <is>
           <t>3</t>
@@ -64694,27 +64498,31 @@
     <row r="1994">
       <c r="A1994" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1994" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1994" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1994" t="inlineStr"/>
       <c r="E1994" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F1994" t="inlineStr"/>
-      <c r="G1994" t="inlineStr"/>
+      <c r="G1994" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H1994" t="inlineStr">
         <is>
           <t>3</t>
@@ -64724,77 +64532,69 @@
     <row r="1995">
       <c r="A1995" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1995" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1995" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D1995" t="inlineStr"/>
-      <c r="E1995" t="inlineStr">
-        <is>
-          <t>28.52%</t>
-        </is>
-      </c>
+      <c r="E1995" t="inlineStr"/>
       <c r="F1995" t="inlineStr"/>
       <c r="G1995" t="inlineStr"/>
       <c r="H1995" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1996">
       <c r="A1996" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1996" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1996" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1996" t="inlineStr"/>
-      <c r="E1996" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E1996" t="inlineStr"/>
       <c r="F1996" t="inlineStr"/>
       <c r="G1996" t="inlineStr"/>
       <c r="H1996" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1997">
       <c r="A1997" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1997" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1997" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1997" t="inlineStr"/>
@@ -64810,53 +64610,49 @@
     <row r="1998">
       <c r="A1998" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1998" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1998" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1998" t="inlineStr"/>
-      <c r="E1998" t="inlineStr">
-        <is>
-          <t>53.3</t>
-        </is>
-      </c>
+      <c r="E1998" t="inlineStr"/>
       <c r="F1998" t="inlineStr"/>
       <c r="G1998" t="inlineStr"/>
       <c r="H1998" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1999">
       <c r="A1999" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1999" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1999" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1999" t="inlineStr"/>
       <c r="E1999" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F1999" t="inlineStr"/>
@@ -64870,33 +64666,33 @@
     <row r="2000">
       <c r="A2000" t="inlineStr">
         <is>
-          <t>03:50 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2000" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2000" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2000" t="inlineStr"/>
       <c r="E2000" t="inlineStr">
         <is>
-          <t>41.9</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="F2000" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="G2000" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="H2000" t="inlineStr">
@@ -64908,73 +64704,57 @@
     <row r="2001">
       <c r="A2001" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2001" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2001" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2001" t="inlineStr"/>
       <c r="E2001" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2001" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="G2001" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2001" t="inlineStr"/>
+      <c r="G2001" t="inlineStr"/>
       <c r="H2001" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2002">
       <c r="A2002" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2002" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2002" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2002" t="inlineStr"/>
       <c r="E2002" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2002" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
-      <c r="G2002" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="F2002" t="inlineStr"/>
+      <c r="G2002" t="inlineStr"/>
       <c r="H2002" t="inlineStr">
         <is>
           <t>2</t>
@@ -64984,29 +64764,29 @@
     <row r="2003">
       <c r="A2003" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2003" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2003" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2003" t="inlineStr"/>
       <c r="E2003" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F2003" t="inlineStr"/>
       <c r="G2003" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2003" t="inlineStr">
@@ -65018,55 +64798,43 @@
     <row r="2004">
       <c r="A2004" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2004" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2004" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2004" t="inlineStr"/>
-      <c r="E2004" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2004" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G2004" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2004" t="inlineStr"/>
+      <c r="F2004" t="inlineStr"/>
+      <c r="G2004" t="inlineStr"/>
       <c r="H2004" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2005">
       <c r="A2005" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2005" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2005" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2005" t="inlineStr"/>
@@ -65075,54 +64843,50 @@
       <c r="G2005" t="inlineStr"/>
       <c r="H2005" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2006">
       <c r="A2006" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2006" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2006" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2006" t="inlineStr"/>
-      <c r="E2006" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2006" t="inlineStr"/>
       <c r="F2006" t="inlineStr"/>
       <c r="G2006" t="inlineStr"/>
       <c r="H2006" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2007">
       <c r="A2007" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2007" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2007" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2007" t="inlineStr"/>
@@ -65131,32 +64895,28 @@
       <c r="G2007" t="inlineStr"/>
       <c r="H2007" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2008">
       <c r="A2008" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2008" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2008" t="inlineStr">
         <is>
-          <t>CPI FlashJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2008" t="inlineStr"/>
-      <c r="E2008" t="inlineStr">
-        <is>
-          <t>127.07</t>
-        </is>
-      </c>
+      <c r="E2008" t="inlineStr"/>
       <c r="F2008" t="inlineStr"/>
       <c r="G2008" t="inlineStr"/>
       <c r="H2008" t="inlineStr">
@@ -65166,648 +64926,30 @@
       </c>
     </row>
     <row r="2009">
-      <c r="A2009" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A2009" t="inlineStr"/>
       <c r="B2009" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2009" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2009" t="inlineStr"/>
       <c r="E2009" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>41.27K</t>
         </is>
       </c>
       <c r="F2009" t="inlineStr"/>
-      <c r="G2009" t="inlineStr"/>
+      <c r="G2009" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H2009" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2010">
-      <c r="A2010" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B2010" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2010" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2010" t="inlineStr"/>
-      <c r="E2010" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2010" t="inlineStr"/>
-      <c r="G2010" t="inlineStr"/>
-      <c r="H2010" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2011">
-      <c r="A2011" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B2011" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2011" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2011" t="inlineStr"/>
-      <c r="E2011" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2011" t="inlineStr"/>
-      <c r="G2011" t="inlineStr"/>
-      <c r="H2011" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2012">
-      <c r="A2012" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B2012" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2012" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2012" t="inlineStr"/>
-      <c r="E2012" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F2012" t="inlineStr"/>
-      <c r="G2012" t="inlineStr"/>
-      <c r="H2012" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2013">
-      <c r="A2013" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B2013" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2013" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesDEC</t>
-        </is>
-      </c>
-      <c r="D2013" t="inlineStr"/>
-      <c r="E2013" t="inlineStr">
-        <is>
-          <t>$232.2B</t>
-        </is>
-      </c>
-      <c r="F2013" t="inlineStr"/>
-      <c r="G2013" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
-      <c r="H2013" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2014">
-      <c r="A2014" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B2014" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2014" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2014" t="inlineStr"/>
-      <c r="E2014" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
-      <c r="F2014" t="inlineStr"/>
-      <c r="G2014" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
-      <c r="H2014" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2015">
-      <c r="A2015" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B2015" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2015" t="inlineStr">
-        <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2015" t="inlineStr"/>
-      <c r="E2015" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F2015" t="inlineStr"/>
-      <c r="G2015" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
-      <c r="H2015" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2016">
-      <c r="A2016" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2016" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2016" t="inlineStr">
-        <is>
-          <t>Fed Bostic Speech</t>
-        </is>
-      </c>
-      <c r="D2016" t="inlineStr"/>
-      <c r="E2016" t="inlineStr"/>
-      <c r="F2016" t="inlineStr"/>
-      <c r="G2016" t="inlineStr"/>
-      <c r="H2016" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2017">
-      <c r="A2017" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2017" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2017" t="inlineStr">
-        <is>
-          <t>12-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D2017" t="inlineStr"/>
-      <c r="E2017" t="inlineStr"/>
-      <c r="F2017" t="inlineStr"/>
-      <c r="G2017" t="inlineStr"/>
-      <c r="H2017" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2018">
-      <c r="A2018" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2018" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2018" t="inlineStr">
-        <is>
-          <t>3-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D2018" t="inlineStr"/>
-      <c r="E2018" t="inlineStr"/>
-      <c r="F2018" t="inlineStr"/>
-      <c r="G2018" t="inlineStr"/>
-      <c r="H2018" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2019">
-      <c r="A2019" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2019" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2019" t="inlineStr">
-        <is>
-          <t>6-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D2019" t="inlineStr"/>
-      <c r="E2019" t="inlineStr"/>
-      <c r="F2019" t="inlineStr"/>
-      <c r="G2019" t="inlineStr"/>
-      <c r="H2019" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2020">
-      <c r="A2020" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2020" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2020" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2020" t="inlineStr"/>
-      <c r="E2020" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="F2020" t="inlineStr"/>
-      <c r="G2020" t="inlineStr"/>
-      <c r="H2020" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2021">
-      <c r="A2021" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B2021" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2021" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2021" t="inlineStr"/>
-      <c r="E2021" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2021" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2021" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="H2021" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2022">
-      <c r="A2022" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2022" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2022" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2022" t="inlineStr"/>
-      <c r="E2022" t="inlineStr">
-        <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F2022" t="inlineStr"/>
-      <c r="G2022" t="inlineStr"/>
-      <c r="H2022" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2023">
-      <c r="A2023" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2023" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2023" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
-        </is>
-      </c>
-      <c r="D2023" t="inlineStr"/>
-      <c r="E2023" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="F2023" t="inlineStr"/>
-      <c r="G2023" t="inlineStr"/>
-      <c r="H2023" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2024">
-      <c r="A2024" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2024" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2024" t="inlineStr">
-        <is>
-          <t>Construction Spending MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2024" t="inlineStr"/>
-      <c r="E2024" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F2024" t="inlineStr"/>
-      <c r="G2024" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2024" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2025">
-      <c r="A2025" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2025" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2025" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
-        </is>
-      </c>
-      <c r="D2025" t="inlineStr"/>
-      <c r="E2025" t="inlineStr"/>
-      <c r="F2025" t="inlineStr"/>
-      <c r="G2025" t="inlineStr"/>
-      <c r="H2025" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2026">
-      <c r="A2026" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2026" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2026" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing PricesJAN</t>
-        </is>
-      </c>
-      <c r="D2026" t="inlineStr"/>
-      <c r="E2026" t="inlineStr"/>
-      <c r="F2026" t="inlineStr"/>
-      <c r="G2026" t="inlineStr"/>
-      <c r="H2026" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2027">
-      <c r="A2027" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B2027" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2027" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2027" t="inlineStr"/>
-      <c r="E2027" t="inlineStr"/>
-      <c r="F2027" t="inlineStr"/>
-      <c r="G2027" t="inlineStr"/>
-      <c r="H2027" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2028">
-      <c r="A2028" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B2028" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2028" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2028" t="inlineStr"/>
-      <c r="E2028" t="inlineStr"/>
-      <c r="F2028" t="inlineStr"/>
-      <c r="G2028" t="inlineStr"/>
-      <c r="H2028" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2029">
-      <c r="A2029" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B2029" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2029" t="inlineStr">
-        <is>
-          <t>Treasury Refunding Financing Estimates</t>
-        </is>
-      </c>
-      <c r="D2029" t="inlineStr"/>
-      <c r="E2029" t="inlineStr"/>
-      <c r="F2029" t="inlineStr"/>
-      <c r="G2029" t="inlineStr"/>
-      <c r="H2029" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2030">
-      <c r="A2030" t="inlineStr"/>
-      <c r="B2030" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2030" t="inlineStr">
-        <is>
-          <t>Total New Vehicle SalesJAN</t>
-        </is>
-      </c>
-      <c r="D2030" t="inlineStr"/>
-      <c r="E2030" t="inlineStr">
-        <is>
-          <t>41.27K</t>
-        </is>
-      </c>
-      <c r="F2030" t="inlineStr"/>
-      <c r="G2030" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
-      <c r="H2030" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-03.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2033"/>
+  <dimension ref="A1:H2012"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57411,10 +57411,8 @@
           <t>$ -101.0B</t>
         </is>
       </c>
-      <c r="H1769" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1769" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1770">
@@ -57445,10 +57443,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1770" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1770" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1771">
@@ -57483,10 +57479,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1771" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1771" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1772">
@@ -57521,10 +57515,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1772" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1772" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1773">
@@ -57547,10 +57539,8 @@
       <c r="E1773" t="inlineStr"/>
       <c r="F1773" t="inlineStr"/>
       <c r="G1773" t="inlineStr"/>
-      <c r="H1773" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1773" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1774">
@@ -57573,10 +57563,8 @@
       <c r="E1774" t="inlineStr"/>
       <c r="F1774" t="inlineStr"/>
       <c r="G1774" t="inlineStr"/>
-      <c r="H1774" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1774" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1775">
@@ -57603,10 +57591,8 @@
       </c>
       <c r="F1775" t="inlineStr"/>
       <c r="G1775" t="inlineStr"/>
-      <c r="H1775" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1775" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1776">
@@ -57633,10 +57619,8 @@
       </c>
       <c r="F1776" t="inlineStr"/>
       <c r="G1776" t="inlineStr"/>
-      <c r="H1776" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1776" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1777">
@@ -57663,10 +57647,8 @@
       </c>
       <c r="F1777" t="inlineStr"/>
       <c r="G1777" t="inlineStr"/>
-      <c r="H1777" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1777" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1778">
@@ -57693,10 +57675,8 @@
       </c>
       <c r="F1778" t="inlineStr"/>
       <c r="G1778" t="inlineStr"/>
-      <c r="H1778" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1778" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1779">
@@ -57723,10 +57703,8 @@
       </c>
       <c r="F1779" t="inlineStr"/>
       <c r="G1779" t="inlineStr"/>
-      <c r="H1779" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1779" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1780">
@@ -57753,10 +57731,8 @@
       </c>
       <c r="F1780" t="inlineStr"/>
       <c r="G1780" t="inlineStr"/>
-      <c r="H1780" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1780" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1781">
@@ -57783,10 +57759,8 @@
       </c>
       <c r="F1781" t="inlineStr"/>
       <c r="G1781" t="inlineStr"/>
-      <c r="H1781" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1781" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1782">
@@ -57813,10 +57787,8 @@
       </c>
       <c r="F1782" t="inlineStr"/>
       <c r="G1782" t="inlineStr"/>
-      <c r="H1782" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1782" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1783">
@@ -57843,10 +57815,8 @@
       </c>
       <c r="F1783" t="inlineStr"/>
       <c r="G1783" t="inlineStr"/>
-      <c r="H1783" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1783" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1784">
@@ -57877,10 +57847,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1784" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1784" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1785">
@@ -57911,10 +57879,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1785" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1785" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1786">
@@ -57941,10 +57907,8 @@
       </c>
       <c r="F1786" t="inlineStr"/>
       <c r="G1786" t="inlineStr"/>
-      <c r="H1786" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1786" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1787">
@@ -57979,10 +57943,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H1787" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1787" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1788">
@@ -58005,10 +57967,8 @@
       <c r="E1788" t="inlineStr"/>
       <c r="F1788" t="inlineStr"/>
       <c r="G1788" t="inlineStr"/>
-      <c r="H1788" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1788" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1789">
@@ -58039,10 +57999,8 @@
           <t>12.25%</t>
         </is>
       </c>
-      <c r="H1789" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1789" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1790">
@@ -58069,10 +58027,8 @@
       </c>
       <c r="F1790" t="inlineStr"/>
       <c r="G1790" t="inlineStr"/>
-      <c r="H1790" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1790" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1791">
@@ -58099,10 +58055,8 @@
       </c>
       <c r="F1791" t="inlineStr"/>
       <c r="G1791" t="inlineStr"/>
-      <c r="H1791" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1791" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1792">
@@ -58133,10 +58087,8 @@
           <t>-20.0%</t>
         </is>
       </c>
-      <c r="H1792" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1792" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1793">
@@ -58159,10 +58111,8 @@
       <c r="E1793" t="inlineStr"/>
       <c r="F1793" t="inlineStr"/>
       <c r="G1793" t="inlineStr"/>
-      <c r="H1793" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1793" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1794">
@@ -58193,10 +58143,8 @@
           <t>-6.6%</t>
         </is>
       </c>
-      <c r="H1794" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1794" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1795">
@@ -58231,10 +58179,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1795" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1795" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1796">
@@ -58257,10 +58203,8 @@
       <c r="E1796" t="inlineStr"/>
       <c r="F1796" t="inlineStr"/>
       <c r="G1796" t="inlineStr"/>
-      <c r="H1796" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1796" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1797">
@@ -58305,10 +58249,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1798" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1798" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1799">
@@ -58335,10 +58277,8 @@
       </c>
       <c r="F1799" t="inlineStr"/>
       <c r="G1799" t="inlineStr"/>
-      <c r="H1799" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1799" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1800">
@@ -58369,10 +58309,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1800" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1800" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1801">
@@ -58395,10 +58333,8 @@
       <c r="E1801" t="inlineStr"/>
       <c r="F1801" t="inlineStr"/>
       <c r="G1801" t="inlineStr"/>
-      <c r="H1801" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1801" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1802">
@@ -58433,10 +58369,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1802" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1802" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1803">
@@ -58467,10 +58401,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H1803" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1803" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1804">
@@ -58505,10 +58437,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1804" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1804" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1805">
@@ -58543,10 +58473,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1805" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1805" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1806">
@@ -58577,10 +58505,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1806" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1806" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1807">
@@ -58611,10 +58537,8 @@
           <t>98.3</t>
         </is>
       </c>
-      <c r="H1807" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1807" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1808">
@@ -58645,10 +58569,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1808" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1808" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1809">
@@ -58683,10 +58605,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H1809" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1809" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1810">
@@ -58717,10 +58637,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H1810" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1810" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1811">
@@ -58751,10 +58669,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1811" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1812">
@@ -58785,10 +58701,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1812" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1812" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1813">
@@ -58823,10 +58737,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1813" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1813" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1814">
@@ -58861,10 +58773,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1814" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1814" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1815">
@@ -58899,10 +58809,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1815" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1815" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1816">
@@ -58933,10 +58841,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1816" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1816" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1817">
@@ -58967,10 +58873,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1817" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1817" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1818">
@@ -59001,10 +58905,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1818" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1818" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1819">
@@ -59035,10 +58937,8 @@
           <t>£ 1.3B</t>
         </is>
       </c>
-      <c r="H1819" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1819" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1820">
@@ -59073,10 +58973,8 @@
           <t>65.1K</t>
         </is>
       </c>
-      <c r="H1820" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1820" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1821">
@@ -59107,10 +59005,8 @@
           <t>£ 2.2B</t>
         </is>
       </c>
-      <c r="H1821" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1821" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1822">
@@ -59145,10 +59041,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1822" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1823">
@@ -59183,10 +59077,8 @@
           <t>£3.5B</t>
         </is>
       </c>
-      <c r="H1823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1823" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1824">
@@ -59221,10 +59113,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1824" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1824" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1825">
@@ -59259,10 +59149,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H1825" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1825" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1826">
@@ -59293,10 +59181,8 @@
         </is>
       </c>
       <c r="G1826" t="inlineStr"/>
-      <c r="H1826" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1826" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1827">
@@ -59331,10 +59217,8 @@
           <t>93.5</t>
         </is>
       </c>
-      <c r="H1827" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1827" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1828">
@@ -59369,10 +59253,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1828" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1828" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1829">
@@ -59403,10 +59285,8 @@
           <t>22</t>
         </is>
       </c>
-      <c r="H1829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1829" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1830">
@@ -59437,10 +59317,8 @@
           <t>-14.5</t>
         </is>
       </c>
-      <c r="H1830" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1830" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1831">
@@ -59471,10 +59349,8 @@
           <t>8</t>
         </is>
       </c>
-      <c r="H1831" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1831" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1832">
@@ -59505,10 +59381,8 @@
           <t>6</t>
         </is>
       </c>
-      <c r="H1832" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1832" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1833">
@@ -59543,10 +59417,8 @@
           <t>5.6%</t>
         </is>
       </c>
-      <c r="H1833" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1833" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1834">
@@ -59569,10 +59441,8 @@
       <c r="E1834" t="inlineStr"/>
       <c r="F1834" t="inlineStr"/>
       <c r="G1834" t="inlineStr"/>
-      <c r="H1834" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1834" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1835">
@@ -59603,10 +59473,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H1835" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1835" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1836">
@@ -59637,10 +59505,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H1836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1836" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1837">
@@ -59671,10 +59537,8 @@
           <t>-5.1%</t>
         </is>
       </c>
-      <c r="H1837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1837" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1838">
@@ -59697,10 +59561,8 @@
       <c r="E1838" t="inlineStr"/>
       <c r="F1838" t="inlineStr"/>
       <c r="G1838" t="inlineStr"/>
-      <c r="H1838" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1838" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1839">
@@ -59727,10 +59589,8 @@
       </c>
       <c r="F1839" t="inlineStr"/>
       <c r="G1839" t="inlineStr"/>
-      <c r="H1839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1839" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1840">
@@ -59761,10 +59621,8 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H1840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1840" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1841">
@@ -59795,10 +59653,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1841" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1841" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1842">
@@ -59829,10 +59685,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1842" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1842" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1843">
@@ -59863,10 +59717,8 @@
           <t>-5</t>
         </is>
       </c>
-      <c r="H1843" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1843" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1844">
@@ -59901,10 +59753,8 @@
           <t>7.50%</t>
         </is>
       </c>
-      <c r="H1844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1844" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1845">
@@ -59935,10 +59785,8 @@
           <t>11.0%</t>
         </is>
       </c>
-      <c r="H1845" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1845" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1846">
@@ -59973,10 +59821,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H1846" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1846" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1847">
@@ -60011,10 +59857,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1847" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1847" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1848">
@@ -60045,10 +59889,8 @@
           <t>3.15%</t>
         </is>
       </c>
-      <c r="H1848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1849">
@@ -60079,10 +59921,8 @@
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H1849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1849" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1850">
@@ -60117,10 +59957,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1850" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1850" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1851">
@@ -60155,10 +59993,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H1851" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1851" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1852">
@@ -60193,10 +60029,8 @@
           <t>228.0K</t>
         </is>
       </c>
-      <c r="H1852" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1852" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1853">
@@ -60227,10 +60061,8 @@
           <t>1885.0K</t>
         </is>
       </c>
-      <c r="H1853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1853" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1854">
@@ -60261,10 +60093,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1854" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1854" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1855">
@@ -60295,10 +60125,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1855" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1855" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1856">
@@ -60329,10 +60157,8 @@
           <t>214.0K</t>
         </is>
       </c>
-      <c r="H1856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1856" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1857">
@@ -60363,10 +60189,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H1857" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1857" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1858">
@@ -60397,10 +60221,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1858" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1858" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1859">
@@ -60423,10 +60245,8 @@
       <c r="E1859" t="inlineStr"/>
       <c r="F1859" t="inlineStr"/>
       <c r="G1859" t="inlineStr"/>
-      <c r="H1859" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1859" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1860">
@@ -60461,10 +60281,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1860" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1860" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1861">
@@ -60495,10 +60313,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1861" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1861" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1862">
@@ -60525,10 +60341,8 @@
       </c>
       <c r="F1862" t="inlineStr"/>
       <c r="G1862" t="inlineStr"/>
-      <c r="H1862" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1862" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1863">
@@ -60555,10 +60369,8 @@
       </c>
       <c r="F1863" t="inlineStr"/>
       <c r="G1863" t="inlineStr"/>
-      <c r="H1863" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1863" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1864">
@@ -60585,10 +60397,8 @@
       </c>
       <c r="F1864" t="inlineStr"/>
       <c r="G1864" t="inlineStr"/>
-      <c r="H1864" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1864" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1865">
@@ -60615,10 +60425,8 @@
       </c>
       <c r="F1865" t="inlineStr"/>
       <c r="G1865" t="inlineStr"/>
-      <c r="H1865" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1865" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1866">
@@ -60645,10 +60453,8 @@
       </c>
       <c r="F1866" t="inlineStr"/>
       <c r="G1866" t="inlineStr"/>
-      <c r="H1866" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1866" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1867">
@@ -60675,10 +60481,8 @@
       </c>
       <c r="F1867" t="inlineStr"/>
       <c r="G1867" t="inlineStr"/>
-      <c r="H1867" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1867" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1868">
@@ -60713,10 +60517,8 @@
           <t>2.50%</t>
         </is>
       </c>
-      <c r="H1868" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1868" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1869">
@@ -60751,10 +60553,8 @@
           <t>1.25</t>
         </is>
       </c>
-      <c r="H1869" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1869" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1870">
@@ -60789,10 +60589,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1870" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1870" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1871">
@@ -60823,10 +60621,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1871" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1871" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1872">
@@ -60857,10 +60653,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H1872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1872" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1873">
@@ -60895,10 +60689,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1873" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1873" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1874">
@@ -60933,10 +60725,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H1874" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1874" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1875">
@@ -60967,10 +60757,8 @@
           <t>-1.6%</t>
         </is>
       </c>
-      <c r="H1875" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1875" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1876">
@@ -61001,10 +60789,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1876" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1876" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1877">
@@ -61035,10 +60821,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1877" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1877" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1878">
@@ -61073,10 +60857,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1878" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1878" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1879">
@@ -61107,10 +60889,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1879" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1879" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1880">
@@ -61141,10 +60921,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1880" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1880" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1881">
@@ -61175,10 +60953,8 @@
           <t>5.7%</t>
         </is>
       </c>
-      <c r="H1881" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1881" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1882">
@@ -61209,10 +60985,8 @@
           <t>S$ 818.2B</t>
         </is>
       </c>
-      <c r="H1882" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1882" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1883">
@@ -61239,10 +61013,8 @@
       </c>
       <c r="F1883" t="inlineStr"/>
       <c r="G1883" t="inlineStr"/>
-      <c r="H1883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1883" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1884">
@@ -61269,10 +61041,8 @@
       </c>
       <c r="F1884" t="inlineStr"/>
       <c r="G1884" t="inlineStr"/>
-      <c r="H1884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1884" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1885">
@@ -61299,10 +61069,8 @@
           <t>ZAR14.0B</t>
         </is>
       </c>
-      <c r="H1885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1885" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1886">
@@ -61329,10 +61097,8 @@
           <t>10.6%</t>
         </is>
       </c>
-      <c r="H1886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1887">
@@ -61359,10 +61125,8 @@
           <t>12.8%</t>
         </is>
       </c>
-      <c r="H1887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1887" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1888">
@@ -61385,10 +61149,8 @@
       </c>
       <c r="F1888" t="inlineStr"/>
       <c r="G1888" t="inlineStr"/>
-      <c r="H1888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1888" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1889">
@@ -61411,10 +61173,8 @@
       </c>
       <c r="F1889" t="inlineStr"/>
       <c r="G1889" t="inlineStr"/>
-      <c r="H1889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1889" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1890">
@@ -61441,10 +61201,8 @@
           <t>90.0K</t>
         </is>
       </c>
-      <c r="H1890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1890" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1891">
@@ -61471,10 +61229,8 @@
           <t>MXN-1120.0B</t>
         </is>
       </c>
-      <c r="H1891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1892">
@@ -61501,56 +61257,74 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1893">
       <c r="A1893" t="inlineStr">
         <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B1893" t="inlineStr"/>
-      <c r="C1893" t="inlineStr"/>
+          <t>03:55 AM</t>
+        </is>
+      </c>
+      <c r="B1893" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C1893" t="inlineStr">
+        <is>
+          <t>Unemployment ChangeJAN</t>
+        </is>
+      </c>
       <c r="D1893" t="inlineStr"/>
-      <c r="E1893" t="inlineStr"/>
-      <c r="F1893" t="inlineStr"/>
-      <c r="G1893" t="inlineStr"/>
-      <c r="H1893" t="inlineStr"/>
+      <c r="E1893" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="F1893" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="G1893" t="inlineStr">
+        <is>
+          <t>7.0K</t>
+        </is>
+      </c>
+      <c r="H1893" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1894">
       <c r="A1894" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B1894" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1894" t="inlineStr">
         <is>
-          <t>Housing Starts YoYDEC</t>
+          <t>Unemployed PersonsJAN</t>
         </is>
       </c>
       <c r="D1894" t="inlineStr"/>
       <c r="E1894" t="inlineStr">
         <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
-      <c r="F1894" t="inlineStr">
-        <is>
-          <t>-3.9%</t>
-        </is>
-      </c>
+          <t>2.869M</t>
+        </is>
+      </c>
+      <c r="F1894" t="inlineStr"/>
       <c r="G1894" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>2.876M</t>
         </is>
       </c>
       <c r="H1894" t="inlineStr">
@@ -61562,75 +61336,71 @@
     <row r="1895">
       <c r="A1895" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B1895" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1895" t="inlineStr">
         <is>
-          <t>Construction Orders YoYDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D1895" t="inlineStr"/>
       <c r="E1895" t="inlineStr">
         <is>
-          <t>-10.2%</t>
-        </is>
-      </c>
-      <c r="F1895" t="inlineStr"/>
+          <t>6.1%</t>
+        </is>
+      </c>
+      <c r="F1895" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
       <c r="G1895" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>6.2%</t>
         </is>
       </c>
       <c r="H1895" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1896">
       <c r="A1896" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1896" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1896" t="inlineStr">
         <is>
-          <t>Business ConfidenceQ4</t>
+          <t>ECB Survey of Professional Forecasters</t>
         </is>
       </c>
       <c r="D1896" t="inlineStr"/>
-      <c r="E1896" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="E1896" t="inlineStr"/>
       <c r="F1896" t="inlineStr"/>
-      <c r="G1896" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+      <c r="G1896" t="inlineStr"/>
       <c r="H1896" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1897">
       <c r="A1897" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1897" t="inlineStr">
@@ -61640,35 +61410,27 @@
       </c>
       <c r="C1897" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Baden Wuerttemberg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1897" t="inlineStr"/>
       <c r="E1897" t="inlineStr">
         <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F1897" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G1897" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1897" t="inlineStr"/>
+      <c r="G1897" t="inlineStr"/>
       <c r="H1897" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1898">
       <c r="A1898" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1898" t="inlineStr">
@@ -61678,93 +61440,77 @@
       </c>
       <c r="C1898" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Baden Wuerttemberg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1898" t="inlineStr"/>
       <c r="E1898" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1898" t="inlineStr"/>
-      <c r="G1898" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1898" t="inlineStr"/>
       <c r="H1898" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1899">
       <c r="A1899" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1899" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1899" t="inlineStr">
         <is>
-          <t>Balance of Trade FinalDEC</t>
+          <t>Bavaria CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1899" t="inlineStr"/>
       <c r="E1899" t="inlineStr">
         <is>
-          <t>$-7.46B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1899" t="inlineStr"/>
-      <c r="G1899" t="inlineStr">
-        <is>
-          <t>$-8.82B</t>
-        </is>
-      </c>
+      <c r="G1899" t="inlineStr"/>
       <c r="H1899" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1900">
       <c r="A1900" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1900" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1900" t="inlineStr">
         <is>
-          <t>Exports FinalDEC</t>
+          <t>Bavaria CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1900" t="inlineStr"/>
       <c r="E1900" t="inlineStr">
         <is>
-          <t>$22.29B</t>
-        </is>
-      </c>
-      <c r="F1900" t="inlineStr">
-        <is>
-          <t>$23.46B</t>
-        </is>
-      </c>
-      <c r="G1900" t="inlineStr">
-        <is>
-          <t>$ 23.46B</t>
-        </is>
-      </c>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1900" t="inlineStr"/>
+      <c r="G1900" t="inlineStr"/>
       <c r="H1900" t="inlineStr">
         <is>
           <t>3</t>
@@ -61774,31 +61520,27 @@
     <row r="1901">
       <c r="A1901" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1901" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1901" t="inlineStr">
         <is>
-          <t>Imports FinalDEC</t>
+          <t>Brandenburg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1901" t="inlineStr"/>
       <c r="E1901" t="inlineStr">
         <is>
-          <t>$29.75B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F1901" t="inlineStr"/>
-      <c r="G1901" t="inlineStr">
-        <is>
-          <t>$32.29B</t>
-        </is>
-      </c>
+      <c r="G1901" t="inlineStr"/>
       <c r="H1901" t="inlineStr">
         <is>
           <t>3</t>
@@ -61808,31 +61550,27 @@
     <row r="1902">
       <c r="A1902" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1902" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1902" t="inlineStr">
         <is>
-          <t>Tourism RevenuesQ4</t>
+          <t>Brandenburg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1902" t="inlineStr"/>
       <c r="E1902" t="inlineStr">
         <is>
-          <t>$23.22B</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1902" t="inlineStr"/>
-      <c r="G1902" t="inlineStr">
-        <is>
-          <t>$ 23.5B</t>
-        </is>
-      </c>
+      <c r="G1902" t="inlineStr"/>
       <c r="H1902" t="inlineStr">
         <is>
           <t>3</t>
@@ -61842,171 +61580,147 @@
     <row r="1903">
       <c r="A1903" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1903" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1903" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices MoMJAN</t>
+          <t>Hesse CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1903" t="inlineStr"/>
       <c r="E1903" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F1903" t="inlineStr"/>
-      <c r="G1903" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="G1903" t="inlineStr"/>
       <c r="H1903" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1904">
       <c r="A1904" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1904" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1904" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices YoYJAN</t>
+          <t>Hesse CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1904" t="inlineStr"/>
       <c r="E1904" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1904" t="inlineStr"/>
-      <c r="G1904" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G1904" t="inlineStr"/>
       <c r="H1904" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1905">
       <c r="A1905" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1905" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1905" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>North Rhine Westphalia CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1905" t="inlineStr"/>
       <c r="E1905" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1905" t="inlineStr"/>
-      <c r="G1905" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G1905" t="inlineStr"/>
       <c r="H1905" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1906">
       <c r="A1906" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1906" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1906" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>North Rhine Westphalia CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1906" t="inlineStr"/>
       <c r="E1906" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1906" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G1906" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>2.5%</t>
+        </is>
+      </c>
+      <c r="F1906" t="inlineStr"/>
+      <c r="G1906" t="inlineStr"/>
       <c r="H1906" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1907">
       <c r="A1907" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1907" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1907" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Saxony CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1907" t="inlineStr"/>
       <c r="E1907" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1907" t="inlineStr"/>
-      <c r="G1907" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1907" t="inlineStr"/>
       <c r="H1907" t="inlineStr">
         <is>
           <t>3</t>
@@ -62016,31 +61730,27 @@
     <row r="1908">
       <c r="A1908" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1908" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1908" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Saxony CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1908" t="inlineStr"/>
       <c r="E1908" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F1908" t="inlineStr"/>
-      <c r="G1908" t="inlineStr">
-        <is>
-          <t>2.0%</t>
-        </is>
-      </c>
+      <c r="G1908" t="inlineStr"/>
       <c r="H1908" t="inlineStr">
         <is>
           <t>3</t>
@@ -62050,29 +61760,29 @@
     <row r="1909">
       <c r="A1909" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1909" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1909" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D1909" t="inlineStr"/>
       <c r="E1909" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>€4.9B</t>
         </is>
       </c>
       <c r="F1909" t="inlineStr"/>
       <c r="G1909" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>€5.0B</t>
         </is>
       </c>
       <c r="H1909" t="inlineStr">
@@ -62084,29 +61794,29 @@
     <row r="1910">
       <c r="A1910" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1910" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1910" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1910" t="inlineStr"/>
       <c r="E1910" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F1910" t="inlineStr"/>
       <c r="G1910" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1910" t="inlineStr">
@@ -62118,29 +61828,29 @@
     <row r="1911">
       <c r="A1911" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1911" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1911" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1911" t="inlineStr"/>
       <c r="E1911" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F1911" t="inlineStr"/>
       <c r="G1911" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1911" t="inlineStr">
@@ -62152,29 +61862,29 @@
     <row r="1912">
       <c r="A1912" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1912" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1912" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Government Budget ValueDEC</t>
         </is>
       </c>
       <c r="D1912" t="inlineStr"/>
       <c r="E1912" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>INR-8465.9B</t>
         </is>
       </c>
       <c r="F1912" t="inlineStr"/>
       <c r="G1912" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>INR-9700.0B</t>
         </is>
       </c>
       <c r="H1912" t="inlineStr">
@@ -62186,27 +61896,31 @@
     <row r="1913">
       <c r="A1913" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1913" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1913" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Gross Debt to GDPDEC</t>
         </is>
       </c>
       <c r="D1913" t="inlineStr"/>
       <c r="E1913" t="inlineStr">
         <is>
-          <t>8.25%</t>
+          <t>77.7%</t>
         </is>
       </c>
       <c r="F1913" t="inlineStr"/>
-      <c r="G1913" t="inlineStr"/>
+      <c r="G1913" t="inlineStr">
+        <is>
+          <t>77.9%</t>
+        </is>
+      </c>
       <c r="H1913" t="inlineStr">
         <is>
           <t>3</t>
@@ -62216,163 +61930,155 @@
     <row r="1914">
       <c r="A1914" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1914" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1914" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Nominal Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D1914" t="inlineStr"/>
       <c r="E1914" t="inlineStr">
         <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="F1914" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
+          <t>BRL-99.1B</t>
+        </is>
+      </c>
+      <c r="F1914" t="inlineStr"/>
       <c r="G1914" t="inlineStr">
         <is>
-          <t>7.0K</t>
+          <t>BRL-103.0B</t>
         </is>
       </c>
       <c r="H1914" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1915">
       <c r="A1915" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1915" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1915" t="inlineStr">
         <is>
-          <t>Unemployed PersonsJAN</t>
+          <t>Bank Loan Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D1915" t="inlineStr"/>
       <c r="E1915" t="inlineStr">
         <is>
-          <t>2.869M</t>
+          <t>11.2%</t>
         </is>
       </c>
       <c r="F1915" t="inlineStr"/>
-      <c r="G1915" t="inlineStr">
-        <is>
-          <t>2.876M</t>
-        </is>
-      </c>
+      <c r="G1915" t="inlineStr"/>
       <c r="H1915" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1916">
       <c r="A1916" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1916" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1916" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Deposit Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D1916" t="inlineStr"/>
       <c r="E1916" t="inlineStr">
         <is>
-          <t>6.1%</t>
-        </is>
-      </c>
-      <c r="F1916" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
-      <c r="G1916" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
+          <t>9.8%</t>
+        </is>
+      </c>
+      <c r="F1916" t="inlineStr"/>
+      <c r="G1916" t="inlineStr"/>
       <c r="H1916" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1917">
       <c r="A1917" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1917" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1917" t="inlineStr">
         <is>
-          <t>ECB Survey of Professional Forecasters</t>
+          <t>Foreign Exchange ReservesJAN/24</t>
         </is>
       </c>
       <c r="D1917" t="inlineStr"/>
-      <c r="E1917" t="inlineStr"/>
+      <c r="E1917" t="inlineStr">
+        <is>
+          <t>$623.98B</t>
+        </is>
+      </c>
       <c r="F1917" t="inlineStr"/>
       <c r="G1917" t="inlineStr"/>
       <c r="H1917" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1918">
       <c r="A1918" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1918" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1918" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI MoMJAN</t>
+          <t>Infrastructure Output YoYDEC</t>
         </is>
       </c>
       <c r="D1918" t="inlineStr"/>
       <c r="E1918" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1918" t="inlineStr"/>
-      <c r="G1918" t="inlineStr"/>
+      <c r="G1918" t="inlineStr">
+        <is>
+          <t>4.8%</t>
+        </is>
+      </c>
       <c r="H1918" t="inlineStr">
         <is>
           <t>3</t>
@@ -62382,67 +62088,75 @@
     <row r="1919">
       <c r="A1919" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1919" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1919" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI YoYJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D1919" t="inlineStr"/>
       <c r="E1919" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F1919" t="inlineStr"/>
-      <c r="G1919" t="inlineStr"/>
+      <c r="G1919" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
       <c r="H1919" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1920">
       <c r="A1920" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1920" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1920" t="inlineStr">
         <is>
-          <t>Bavaria CPI MoMJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1920" t="inlineStr"/>
       <c r="E1920" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>ZAR34.7B</t>
         </is>
       </c>
       <c r="F1920" t="inlineStr"/>
-      <c r="G1920" t="inlineStr"/>
+      <c r="G1920" t="inlineStr">
+        <is>
+          <t>ZAR 27.0B</t>
+        </is>
+      </c>
       <c r="H1920" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1921">
       <c r="A1921" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1921" t="inlineStr">
@@ -62452,27 +62166,35 @@
       </c>
       <c r="C1921" t="inlineStr">
         <is>
-          <t>Bavaria CPI YoYJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1921" t="inlineStr"/>
       <c r="E1921" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1921" t="inlineStr"/>
-      <c r="G1921" t="inlineStr"/>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="F1921" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="G1921" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1921" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1922">
       <c r="A1922" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1922" t="inlineStr">
@@ -62482,27 +62204,35 @@
       </c>
       <c r="C1922" t="inlineStr">
         <is>
-          <t>Brandenburg CPI MoMJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1922" t="inlineStr"/>
       <c r="E1922" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F1922" t="inlineStr"/>
-      <c r="G1922" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1922" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="G1922" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1922" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1923">
       <c r="A1923" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1923" t="inlineStr">
@@ -62512,17 +62242,21 @@
       </c>
       <c r="C1923" t="inlineStr">
         <is>
-          <t>Brandenburg CPI YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1923" t="inlineStr"/>
       <c r="E1923" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1923" t="inlineStr"/>
-      <c r="G1923" t="inlineStr"/>
+      <c r="G1923" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1923" t="inlineStr">
         <is>
           <t>3</t>
@@ -62532,7 +62266,7 @@
     <row r="1924">
       <c r="A1924" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1924" t="inlineStr">
@@ -62542,17 +62276,25 @@
       </c>
       <c r="C1924" t="inlineStr">
         <is>
-          <t>Hesse CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1924" t="inlineStr"/>
       <c r="E1924" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F1924" t="inlineStr"/>
-      <c r="G1924" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F1924" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
+      <c r="G1924" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H1924" t="inlineStr">
         <is>
           <t>3</t>
@@ -62562,381 +62304,417 @@
     <row r="1925">
       <c r="A1925" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1925" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1925" t="inlineStr">
         <is>
-          <t>Hesse CPI YoYJAN</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D1925" t="inlineStr"/>
       <c r="E1925" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1925" t="inlineStr"/>
-      <c r="G1925" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1925" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="G1925" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="H1925" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1926">
       <c r="A1926" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1926" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1926" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI MoMJAN</t>
+          <t>GDP MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1926" t="inlineStr"/>
       <c r="E1926" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1926" t="inlineStr"/>
-      <c r="G1926" t="inlineStr"/>
+      <c r="G1926" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1926" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1927">
       <c r="A1927" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1927" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1927" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI YoYJAN</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1927" t="inlineStr"/>
       <c r="E1927" t="inlineStr">
         <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="F1927" t="inlineStr"/>
-      <c r="G1927" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1927" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G1927" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1927" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1928">
       <c r="A1928" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1928" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1928" t="inlineStr">
         <is>
-          <t>Saxony CPI MoMJAN</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="D1928" t="inlineStr"/>
       <c r="E1928" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1928" t="inlineStr"/>
-      <c r="G1928" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1928" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G1928" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1928" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1929">
       <c r="A1929" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1929" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1929" t="inlineStr">
         <is>
-          <t>Saxony CPI YoYJAN</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="D1929" t="inlineStr"/>
       <c r="E1929" t="inlineStr">
         <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F1929" t="inlineStr"/>
-      <c r="G1929" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F1929" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G1929" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1929" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1930">
       <c r="A1930" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1930" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1930" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="D1930" t="inlineStr"/>
       <c r="E1930" t="inlineStr">
         <is>
-          <t>€4.9B</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1930" t="inlineStr"/>
       <c r="G1930" t="inlineStr">
         <is>
-          <t>€5.0B</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1930" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1931">
       <c r="A1931" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1931" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1931" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="D1931" t="inlineStr"/>
       <c r="E1931" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1931" t="inlineStr"/>
       <c r="G1931" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1931" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1932">
       <c r="A1932" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1932" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1932" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="D1932" t="inlineStr"/>
       <c r="E1932" t="inlineStr">
         <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F1932" t="inlineStr"/>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="F1932" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="G1932" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1932" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1933">
       <c r="A1933" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1933" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1933" t="inlineStr">
         <is>
-          <t>Government Budget ValueDEC</t>
+          <t>Fed Bowman Speech</t>
         </is>
       </c>
       <c r="D1933" t="inlineStr"/>
-      <c r="E1933" t="inlineStr">
-        <is>
-          <t>INR-8465.9B</t>
-        </is>
-      </c>
+      <c r="E1933" t="inlineStr"/>
       <c r="F1933" t="inlineStr"/>
-      <c r="G1933" t="inlineStr">
-        <is>
-          <t>INR-9700.0B</t>
-        </is>
-      </c>
+      <c r="G1933" t="inlineStr"/>
       <c r="H1933" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1934">
       <c r="A1934" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1934" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1934" t="inlineStr">
         <is>
-          <t>Gross Debt to GDPDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1934" t="inlineStr"/>
       <c r="E1934" t="inlineStr">
         <is>
-          <t>77.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1934" t="inlineStr"/>
       <c r="G1934" t="inlineStr">
         <is>
-          <t>77.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1934" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1935">
       <c r="A1935" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1935" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1935" t="inlineStr">
         <is>
-          <t>Nominal Budget BalanceDEC</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1935" t="inlineStr"/>
       <c r="E1935" t="inlineStr">
         <is>
-          <t>BRL-99.1B</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1935" t="inlineStr"/>
       <c r="G1935" t="inlineStr">
         <is>
-          <t>BRL-103.0B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="H1935" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1936">
       <c r="A1936" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1936" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1936" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/17</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1936" t="inlineStr"/>
       <c r="E1936" t="inlineStr">
         <is>
-          <t>11.2%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1936" t="inlineStr"/>
-      <c r="G1936" t="inlineStr"/>
+      <c r="G1936" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H1936" t="inlineStr">
         <is>
           <t>3</t>
@@ -62946,57 +62724,69 @@
     <row r="1937">
       <c r="A1937" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1937" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1937" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/17</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="D1937" t="inlineStr"/>
       <c r="E1937" t="inlineStr">
         <is>
-          <t>9.8%</t>
-        </is>
-      </c>
-      <c r="F1937" t="inlineStr"/>
-      <c r="G1937" t="inlineStr"/>
+          <t>36.9</t>
+        </is>
+      </c>
+      <c r="F1937" t="inlineStr">
+        <is>
+          <t>39.9</t>
+        </is>
+      </c>
+      <c r="G1937" t="inlineStr">
+        <is>
+          <t>37.2</t>
+        </is>
+      </c>
       <c r="H1937" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1938">
       <c r="A1938" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1938" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1938" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/24</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D1938" t="inlineStr"/>
       <c r="E1938" t="inlineStr">
         <is>
-          <t>$623.98B</t>
+          <t>C$-1.49B</t>
         </is>
       </c>
       <c r="F1938" t="inlineStr"/>
-      <c r="G1938" t="inlineStr"/>
+      <c r="G1938" t="inlineStr">
+        <is>
+          <t>C$-1.9B</t>
+        </is>
+      </c>
       <c r="H1938" t="inlineStr">
         <is>
           <t>3</t>
@@ -63006,31 +62796,27 @@
     <row r="1939">
       <c r="A1939" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1939" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1939" t="inlineStr">
         <is>
-          <t>Infrastructure Output YoYDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="D1939" t="inlineStr"/>
       <c r="E1939" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>472</t>
         </is>
       </c>
       <c r="F1939" t="inlineStr"/>
-      <c r="G1939" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="G1939" t="inlineStr"/>
       <c r="H1939" t="inlineStr">
         <is>
           <t>3</t>
@@ -63040,63 +62826,59 @@
     <row r="1940">
       <c r="A1940" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1940" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1940" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="D1940" t="inlineStr"/>
       <c r="E1940" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>576</t>
         </is>
       </c>
       <c r="F1940" t="inlineStr"/>
-      <c r="G1940" t="inlineStr">
-        <is>
-          <t>6.1%</t>
-        </is>
-      </c>
+      <c r="G1940" t="inlineStr"/>
       <c r="H1940" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1941">
       <c r="A1941" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1941" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1941" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Exports YoYJAN</t>
         </is>
       </c>
       <c r="D1941" t="inlineStr"/>
       <c r="E1941" t="inlineStr">
         <is>
-          <t>ZAR34.7B</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="F1941" t="inlineStr"/>
       <c r="G1941" t="inlineStr">
         <is>
-          <t>ZAR 27.0B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1941" t="inlineStr">
@@ -63108,105 +62890,93 @@
     <row r="1942">
       <c r="A1942" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1942" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1942" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D1942" t="inlineStr"/>
       <c r="E1942" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F1942" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+          <t>$6.49B</t>
+        </is>
+      </c>
+      <c r="F1942" t="inlineStr"/>
       <c r="G1942" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>$0.9B</t>
         </is>
       </c>
       <c r="H1942" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1943">
       <c r="A1943" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1943" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1943" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Imports YoYJAN</t>
         </is>
       </c>
       <c r="D1943" t="inlineStr"/>
       <c r="E1943" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1943" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="F1943" t="inlineStr"/>
       <c r="G1943" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H1943" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1944">
-      <c r="A1944" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
+      <c r="A1944" t="inlineStr"/>
       <c r="B1944" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1944" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Consumer Inflation ExpectationsDEC</t>
         </is>
       </c>
       <c r="D1944" t="inlineStr"/>
       <c r="E1944" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1944" t="inlineStr"/>
       <c r="G1944" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H1944" t="inlineStr">
@@ -63216,35 +62986,27 @@
       </c>
     </row>
     <row r="1945">
-      <c r="A1945" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
+      <c r="A1945" t="inlineStr"/>
       <c r="B1945" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1945" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D1945" t="inlineStr"/>
       <c r="E1945" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1945" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="F1945" t="inlineStr"/>
       <c r="G1945" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H1945" t="inlineStr">
@@ -63254,311 +63016,255 @@
       </c>
     </row>
     <row r="1946">
-      <c r="A1946" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1946" t="inlineStr"/>
       <c r="B1946" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1946" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D1946" t="inlineStr"/>
       <c r="E1946" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1946" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+          <t>28.8%</t>
+        </is>
+      </c>
+      <c r="F1946" t="inlineStr"/>
       <c r="G1946" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H1946" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1947">
-      <c r="A1947" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1947" t="inlineStr"/>
       <c r="B1947" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1947" t="inlineStr">
         <is>
-          <t>GDP MoM PrelDEC</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D1947" t="inlineStr"/>
       <c r="E1947" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-4.9%</t>
         </is>
       </c>
       <c r="F1947" t="inlineStr"/>
       <c r="G1947" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-4.0%</t>
         </is>
       </c>
       <c r="H1947" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1948">
-      <c r="A1948" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1948" t="inlineStr"/>
       <c r="B1948" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1948" t="inlineStr">
         <is>
-          <t>Core PCE Price Index MoMDEC</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1948" t="inlineStr"/>
       <c r="E1948" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1948" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="F1948" t="inlineStr"/>
       <c r="G1948" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H1948" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1949">
       <c r="A1949" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1949" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1949" t="inlineStr">
-        <is>
-          <t>Personal Income MoMDEC</t>
-        </is>
-      </c>
+          <t>Sunday February 02 2025</t>
+        </is>
+      </c>
+      <c r="B1949" t="inlineStr"/>
+      <c r="C1949" t="inlineStr"/>
       <c r="D1949" t="inlineStr"/>
-      <c r="E1949" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1949" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1949" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1949" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="E1949" t="inlineStr"/>
+      <c r="F1949" t="inlineStr"/>
+      <c r="G1949" t="inlineStr"/>
+      <c r="H1949" t="inlineStr"/>
     </row>
     <row r="1950">
       <c r="A1950" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1950" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1950" t="inlineStr">
         <is>
-          <t>Personal Spending MoMDEC</t>
+          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1950" t="inlineStr"/>
       <c r="E1950" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F1950" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1950" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+          <t>47.8</t>
+        </is>
+      </c>
+      <c r="F1950" t="inlineStr"/>
+      <c r="G1950" t="inlineStr"/>
       <c r="H1950" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1951">
       <c r="A1951" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1951" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1951" t="inlineStr">
         <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1951" t="inlineStr"/>
       <c r="E1951" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1951" t="inlineStr"/>
       <c r="G1951" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1951" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1952">
       <c r="A1952" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1952" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1952" t="inlineStr">
         <is>
-          <t>Employment Cost - Wages QoQQ4</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1952" t="inlineStr"/>
       <c r="E1952" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1952" t="inlineStr"/>
       <c r="G1952" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H1952" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1953">
       <c r="A1953" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1953" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1953" t="inlineStr">
         <is>
-          <t>Employment Cost Index QoQQ4</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1953" t="inlineStr"/>
       <c r="E1953" t="inlineStr">
         <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F1953" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F1953" t="inlineStr"/>
       <c r="G1953" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1953" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1954">
       <c r="A1954" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1954" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1954" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>BoJ Summary of Opinions</t>
         </is>
       </c>
       <c r="D1954" t="inlineStr"/>
@@ -63574,29 +63280,29 @@
     <row r="1955">
       <c r="A1955" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1955" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1955" t="inlineStr">
         <is>
-          <t>PCE Price Index MoMDEC</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1955" t="inlineStr"/>
       <c r="E1955" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F1955" t="inlineStr"/>
       <c r="G1955" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H1955" t="inlineStr">
@@ -63608,29 +63314,29 @@
     <row r="1956">
       <c r="A1956" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1956" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1956" t="inlineStr">
         <is>
-          <t>PCE Price Index YoYDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1956" t="inlineStr"/>
       <c r="E1956" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1956" t="inlineStr"/>
       <c r="G1956" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1956" t="inlineStr">
@@ -63642,31 +63348,27 @@
     <row r="1957">
       <c r="A1957" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1957" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1957" t="inlineStr">
         <is>
-          <t>Core PCE Price Index YoYDEC</t>
+          <t>ANZ-Indeed Job Ads MoMJAN</t>
         </is>
       </c>
       <c r="D1957" t="inlineStr"/>
       <c r="E1957" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1957" t="inlineStr"/>
-      <c r="G1957" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="G1957" t="inlineStr"/>
       <c r="H1957" t="inlineStr">
         <is>
           <t>3</t>
@@ -63676,67 +63378,59 @@
     <row r="1958">
       <c r="A1958" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1958" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1958" t="inlineStr">
         <is>
-          <t>Chicago PMIJAN</t>
+          <t>Private House Approvals MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1958" t="inlineStr"/>
       <c r="E1958" t="inlineStr">
         <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="F1958" t="inlineStr">
-        <is>
-          <t>39.9</t>
-        </is>
-      </c>
-      <c r="G1958" t="inlineStr">
-        <is>
-          <t>37.2</t>
-        </is>
-      </c>
+          <t>-1.7%</t>
+        </is>
+      </c>
+      <c r="F1958" t="inlineStr"/>
+      <c r="G1958" t="inlineStr"/>
       <c r="H1958" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1959">
       <c r="A1959" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1959" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1959" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1959" t="inlineStr"/>
       <c r="E1959" t="inlineStr">
         <is>
-          <t>C$-1.49B</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F1959" t="inlineStr"/>
       <c r="G1959" t="inlineStr">
         <is>
-          <t>C$-1.9B</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="H1959" t="inlineStr">
@@ -63748,157 +63442,173 @@
     <row r="1960">
       <c r="A1960" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1960" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1960" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
+          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1960" t="inlineStr"/>
       <c r="E1960" t="inlineStr">
         <is>
-          <t>472</t>
-        </is>
-      </c>
-      <c r="F1960" t="inlineStr"/>
-      <c r="G1960" t="inlineStr"/>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F1960" t="inlineStr">
+        <is>
+          <t>48.8</t>
+        </is>
+      </c>
+      <c r="G1960" t="inlineStr">
+        <is>
+          <t>48.8</t>
+        </is>
+      </c>
       <c r="H1960" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1961">
       <c r="A1961" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1961" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1961" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1961" t="inlineStr"/>
       <c r="E1961" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F1961" t="inlineStr"/>
-      <c r="G1961" t="inlineStr"/>
+      <c r="G1961" t="inlineStr">
+        <is>
+          <t>49.5</t>
+        </is>
+      </c>
       <c r="H1961" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1962">
       <c r="A1962" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:45 PM</t>
         </is>
       </c>
       <c r="B1962" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1962" t="inlineStr">
         <is>
-          <t>Exports YoYJAN</t>
+          <t>Caixin Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1962" t="inlineStr"/>
       <c r="E1962" t="inlineStr">
         <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="F1962" t="inlineStr"/>
+          <t>50.5</t>
+        </is>
+      </c>
+      <c r="F1962" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="G1962" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="H1962" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1963">
       <c r="A1963" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B1963" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1963" t="inlineStr">
         <is>
-          <t>Balance of TradeJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1963" t="inlineStr"/>
       <c r="E1963" t="inlineStr">
         <is>
-          <t>$6.49B</t>
+          <t>1.57%</t>
         </is>
       </c>
       <c r="F1963" t="inlineStr"/>
       <c r="G1963" t="inlineStr">
         <is>
-          <t>$0.9B</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H1963" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1964">
       <c r="A1964" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B1964" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1964" t="inlineStr">
         <is>
-          <t>Imports YoYJAN</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1964" t="inlineStr"/>
       <c r="E1964" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2.26%</t>
         </is>
       </c>
       <c r="F1964" t="inlineStr"/>
       <c r="G1964" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H1964" t="inlineStr">
@@ -63908,27 +63618,31 @@
       </c>
     </row>
     <row r="1965">
-      <c r="A1965" t="inlineStr"/>
+      <c r="A1965" t="inlineStr">
+        <is>
+          <t>11:00 PM</t>
+        </is>
+      </c>
       <c r="B1965" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1965" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1965" t="inlineStr"/>
       <c r="E1965" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.44%</t>
         </is>
       </c>
       <c r="F1965" t="inlineStr"/>
       <c r="G1965" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1965" t="inlineStr">
@@ -63938,27 +63652,31 @@
       </c>
     </row>
     <row r="1966">
-      <c r="A1966" t="inlineStr"/>
+      <c r="A1966" t="inlineStr">
+        <is>
+          <t>11:45 PM</t>
+        </is>
+      </c>
       <c r="B1966" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1966" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D1966" t="inlineStr"/>
       <c r="E1966" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>17.27%</t>
         </is>
       </c>
       <c r="F1966" t="inlineStr"/>
       <c r="G1966" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>18.0%</t>
         </is>
       </c>
       <c r="H1966" t="inlineStr">
@@ -63968,57 +63686,49 @@
       </c>
     </row>
     <row r="1967">
-      <c r="A1967" t="inlineStr"/>
-      <c r="B1967" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C1967" t="inlineStr">
-        <is>
-          <t>New Car Sales YoYJAN</t>
-        </is>
-      </c>
+      <c r="A1967" t="inlineStr">
+        <is>
+          <t>Monday February 03 2025</t>
+        </is>
+      </c>
+      <c r="B1967" t="inlineStr"/>
+      <c r="C1967" t="inlineStr"/>
       <c r="D1967" t="inlineStr"/>
-      <c r="E1967" t="inlineStr">
-        <is>
-          <t>28.8%</t>
-        </is>
-      </c>
+      <c r="E1967" t="inlineStr"/>
       <c r="F1967" t="inlineStr"/>
-      <c r="G1967" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H1967" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1967" t="inlineStr"/>
+      <c r="H1967" t="inlineStr"/>
     </row>
     <row r="1968">
-      <c r="A1968" t="inlineStr"/>
+      <c r="A1968" t="inlineStr">
+        <is>
+          <t>12:00 AM</t>
+        </is>
+      </c>
       <c r="B1968" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1968" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>HSBC Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1968" t="inlineStr"/>
       <c r="E1968" t="inlineStr">
         <is>
-          <t>-4.9%</t>
-        </is>
-      </c>
-      <c r="F1968" t="inlineStr"/>
+          <t>56.4</t>
+        </is>
+      </c>
+      <c r="F1968" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
       <c r="G1968" t="inlineStr">
         <is>
-          <t>-4.0%</t>
+          <t>58</t>
         </is>
       </c>
       <c r="H1968" t="inlineStr">
@@ -64028,29 +63738,29 @@
       </c>
     </row>
     <row r="1969">
-      <c r="A1969" t="inlineStr"/>
+      <c r="A1969" t="inlineStr">
+        <is>
+          <t>12:00 AM</t>
+        </is>
+      </c>
       <c r="B1969" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1969" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>2-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1969" t="inlineStr"/>
       <c r="E1969" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>2.670%</t>
         </is>
       </c>
       <c r="F1969" t="inlineStr"/>
-      <c r="G1969" t="inlineStr">
-        <is>
-          <t>20.7%</t>
-        </is>
-      </c>
+      <c r="G1969" t="inlineStr"/>
       <c r="H1969" t="inlineStr">
         <is>
           <t>3</t>
@@ -64060,37 +63770,53 @@
     <row r="1970">
       <c r="A1970" t="inlineStr">
         <is>
-          <t>Sunday February 02 2025</t>
-        </is>
-      </c>
-      <c r="B1970" t="inlineStr"/>
-      <c r="C1970" t="inlineStr"/>
+          <t>12:30 AM</t>
+        </is>
+      </c>
+      <c r="B1970" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C1970" t="inlineStr">
+        <is>
+          <t>Commodity Prices YoYJAN</t>
+        </is>
+      </c>
       <c r="D1970" t="inlineStr"/>
-      <c r="E1970" t="inlineStr"/>
+      <c r="E1970" t="inlineStr">
+        <is>
+          <t>-10.7%</t>
+        </is>
+      </c>
       <c r="F1970" t="inlineStr"/>
       <c r="G1970" t="inlineStr"/>
-      <c r="H1970" t="inlineStr"/>
+      <c r="H1970" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1971">
       <c r="A1971" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B1971" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1971" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1971" t="inlineStr"/>
       <c r="E1971" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F1971" t="inlineStr"/>
@@ -64104,99 +63830,87 @@
     <row r="1972">
       <c r="A1972" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1972" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1972" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1972" t="inlineStr"/>
       <c r="E1972" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>1.03%</t>
         </is>
       </c>
       <c r="F1972" t="inlineStr"/>
-      <c r="G1972" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G1972" t="inlineStr"/>
       <c r="H1972" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1973">
       <c r="A1973" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1973" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1973" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1973" t="inlineStr"/>
       <c r="E1973" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F1973" t="inlineStr"/>
-      <c r="G1973" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1973" t="inlineStr"/>
       <c r="H1973" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1974">
       <c r="A1974" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1974" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1974" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1974" t="inlineStr"/>
       <c r="E1974" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F1974" t="inlineStr"/>
-      <c r="G1974" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1974" t="inlineStr"/>
       <c r="H1974" t="inlineStr">
         <is>
           <t>3</t>
@@ -64206,91 +63920,87 @@
     <row r="1975">
       <c r="A1975" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1975" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1975" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D1975" t="inlineStr"/>
-      <c r="E1975" t="inlineStr"/>
+      <c r="E1975" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F1975" t="inlineStr"/>
       <c r="G1975" t="inlineStr"/>
       <c r="H1975" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1976">
       <c r="A1976" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1976" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1976" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D1976" t="inlineStr"/>
       <c r="E1976" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F1976" t="inlineStr"/>
-      <c r="G1976" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G1976" t="inlineStr"/>
       <c r="H1976" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1977">
       <c r="A1977" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1977" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1977" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D1977" t="inlineStr"/>
       <c r="E1977" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>-25.3K</t>
         </is>
       </c>
       <c r="F1977" t="inlineStr"/>
-      <c r="G1977" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1977" t="inlineStr"/>
       <c r="H1977" t="inlineStr">
         <is>
           <t>2</t>
@@ -64300,25 +64010,21 @@
     <row r="1978">
       <c r="A1978" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1978" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1978" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D1978" t="inlineStr"/>
-      <c r="E1978" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="E1978" t="inlineStr"/>
       <c r="F1978" t="inlineStr"/>
       <c r="G1978" t="inlineStr"/>
       <c r="H1978" t="inlineStr">
@@ -64330,97 +64036,93 @@
     <row r="1979">
       <c r="A1979" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B1979" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1979" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1979" t="inlineStr"/>
       <c r="E1979" t="inlineStr">
         <is>
-          <t>-1.7%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F1979" t="inlineStr"/>
       <c r="G1979" t="inlineStr"/>
       <c r="H1979" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1980">
       <c r="A1980" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:45 AM</t>
         </is>
       </c>
       <c r="B1980" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1980" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1980" t="inlineStr"/>
       <c r="E1980" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F1980" t="inlineStr"/>
-      <c r="G1980" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
+      <c r="G1980" t="inlineStr"/>
       <c r="H1980" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1981">
       <c r="A1981" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:50 AM</t>
         </is>
       </c>
       <c r="B1981" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1981" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1981" t="inlineStr"/>
       <c r="E1981" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>41.9</t>
         </is>
       </c>
       <c r="F1981" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="G1981" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="H1981" t="inlineStr">
@@ -64432,29 +64134,33 @@
     <row r="1982">
       <c r="A1982" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B1982" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1982" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1982" t="inlineStr"/>
       <c r="E1982" t="inlineStr">
         <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F1982" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F1982" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
       <c r="G1982" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="H1982" t="inlineStr">
@@ -64466,223 +64172,219 @@
     <row r="1983">
       <c r="A1983" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1983" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1983" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1983" t="inlineStr"/>
       <c r="E1983" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="F1983" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="G1983" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="H1983" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1984">
       <c r="A1984" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1984" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1984" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1984" t="inlineStr"/>
       <c r="E1984" t="inlineStr">
         <is>
-          <t>1.57%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F1984" t="inlineStr"/>
       <c r="G1984" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H1984" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1985">
       <c r="A1985" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1985" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1985" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1985" t="inlineStr"/>
       <c r="E1985" t="inlineStr">
         <is>
-          <t>2.26%</t>
-        </is>
-      </c>
-      <c r="F1985" t="inlineStr"/>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F1985" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
       <c r="G1985" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="H1985" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1986">
       <c r="A1986" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1986" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1986" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D1986" t="inlineStr"/>
-      <c r="E1986" t="inlineStr">
-        <is>
-          <t>0.44%</t>
-        </is>
-      </c>
+      <c r="E1986" t="inlineStr"/>
       <c r="F1986" t="inlineStr"/>
-      <c r="G1986" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1986" t="inlineStr"/>
       <c r="H1986" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1987">
       <c r="A1987" t="inlineStr">
         <is>
-          <t>11:45 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1987" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1987" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D1987" t="inlineStr"/>
       <c r="E1987" t="inlineStr">
         <is>
-          <t>17.27%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F1987" t="inlineStr"/>
-      <c r="G1987" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
+      <c r="G1987" t="inlineStr"/>
       <c r="H1987" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1988">
       <c r="A1988" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B1988" t="inlineStr"/>
-      <c r="C1988" t="inlineStr"/>
+          <t>05:00 AM</t>
+        </is>
+      </c>
+      <c r="B1988" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C1988" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoM FlashJAN</t>
+        </is>
+      </c>
       <c r="D1988" t="inlineStr"/>
       <c r="E1988" t="inlineStr"/>
       <c r="F1988" t="inlineStr"/>
       <c r="G1988" t="inlineStr"/>
-      <c r="H1988" t="inlineStr"/>
+      <c r="H1988" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1989">
       <c r="A1989" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1989" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1989" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D1989" t="inlineStr"/>
       <c r="E1989" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F1989" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G1989" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>127.07</t>
+        </is>
+      </c>
+      <c r="F1989" t="inlineStr"/>
+      <c r="G1989" t="inlineStr"/>
       <c r="H1989" t="inlineStr">
         <is>
           <t>3</t>
@@ -64692,177 +64394,185 @@
     <row r="1990">
       <c r="A1990" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1990" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1990" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1990" t="inlineStr"/>
       <c r="E1990" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F1990" t="inlineStr"/>
       <c r="G1990" t="inlineStr"/>
       <c r="H1990" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1991">
       <c r="A1991" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1991" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1991" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1991" t="inlineStr"/>
       <c r="E1991" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1991" t="inlineStr"/>
       <c r="G1991" t="inlineStr"/>
       <c r="H1991" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1992">
       <c r="A1992" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1992" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1992" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1992" t="inlineStr"/>
       <c r="E1992" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1992" t="inlineStr"/>
       <c r="G1992" t="inlineStr"/>
       <c r="H1992" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1993">
       <c r="A1993" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1993" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1993" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1993" t="inlineStr"/>
       <c r="E1993" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1993" t="inlineStr"/>
       <c r="G1993" t="inlineStr"/>
       <c r="H1993" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1994">
       <c r="A1994" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1994" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1994" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D1994" t="inlineStr"/>
       <c r="E1994" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F1994" t="inlineStr"/>
-      <c r="G1994" t="inlineStr"/>
+      <c r="G1994" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H1994" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1995">
       <c r="A1995" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1995" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1995" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1995" t="inlineStr"/>
       <c r="E1995" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F1995" t="inlineStr"/>
-      <c r="G1995" t="inlineStr"/>
+      <c r="G1995" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H1995" t="inlineStr">
         <is>
           <t>3</t>
@@ -64872,27 +64582,31 @@
     <row r="1996">
       <c r="A1996" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1996" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1996" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1996" t="inlineStr"/>
       <c r="E1996" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F1996" t="inlineStr"/>
-      <c r="G1996" t="inlineStr"/>
+      <c r="G1996" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H1996" t="inlineStr">
         <is>
           <t>3</t>
@@ -64902,77 +64616,69 @@
     <row r="1997">
       <c r="A1997" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1997" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1997" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D1997" t="inlineStr"/>
-      <c r="E1997" t="inlineStr">
-        <is>
-          <t>28.52%</t>
-        </is>
-      </c>
+      <c r="E1997" t="inlineStr"/>
       <c r="F1997" t="inlineStr"/>
       <c r="G1997" t="inlineStr"/>
       <c r="H1997" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1998">
       <c r="A1998" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1998" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1998" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1998" t="inlineStr"/>
-      <c r="E1998" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E1998" t="inlineStr"/>
       <c r="F1998" t="inlineStr"/>
       <c r="G1998" t="inlineStr"/>
       <c r="H1998" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1999">
       <c r="A1999" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1999" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1999" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1999" t="inlineStr"/>
@@ -64988,53 +64694,49 @@
     <row r="2000">
       <c r="A2000" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2000" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2000" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2000" t="inlineStr"/>
-      <c r="E2000" t="inlineStr">
-        <is>
-          <t>53.3</t>
-        </is>
-      </c>
+      <c r="E2000" t="inlineStr"/>
       <c r="F2000" t="inlineStr"/>
       <c r="G2000" t="inlineStr"/>
       <c r="H2000" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2001">
       <c r="A2001" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2001" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2001" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2001" t="inlineStr"/>
       <c r="E2001" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2001" t="inlineStr"/>
@@ -65048,33 +64750,33 @@
     <row r="2002">
       <c r="A2002" t="inlineStr">
         <is>
-          <t>03:50 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2002" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2002" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2002" t="inlineStr"/>
       <c r="E2002" t="inlineStr">
         <is>
-          <t>41.9</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="F2002" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="G2002" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="H2002" t="inlineStr">
@@ -65086,73 +64788,57 @@
     <row r="2003">
       <c r="A2003" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2003" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2003" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2003" t="inlineStr"/>
       <c r="E2003" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2003" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="G2003" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2003" t="inlineStr"/>
+      <c r="G2003" t="inlineStr"/>
       <c r="H2003" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2004">
       <c r="A2004" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2004" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2004" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2004" t="inlineStr"/>
       <c r="E2004" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2004" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
-      <c r="G2004" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="F2004" t="inlineStr"/>
+      <c r="G2004" t="inlineStr"/>
       <c r="H2004" t="inlineStr">
         <is>
           <t>2</t>
@@ -65162,29 +64848,29 @@
     <row r="2005">
       <c r="A2005" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2005" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2005" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2005" t="inlineStr"/>
       <c r="E2005" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F2005" t="inlineStr"/>
       <c r="G2005" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2005" t="inlineStr">
@@ -65196,55 +64882,43 @@
     <row r="2006">
       <c r="A2006" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2006" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2006" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2006" t="inlineStr"/>
-      <c r="E2006" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2006" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G2006" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2006" t="inlineStr"/>
+      <c r="F2006" t="inlineStr"/>
+      <c r="G2006" t="inlineStr"/>
       <c r="H2006" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2007">
       <c r="A2007" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2007" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2007" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2007" t="inlineStr"/>
@@ -65253,54 +64927,50 @@
       <c r="G2007" t="inlineStr"/>
       <c r="H2007" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2008">
       <c r="A2008" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2008" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2008" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2008" t="inlineStr"/>
-      <c r="E2008" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2008" t="inlineStr"/>
       <c r="F2008" t="inlineStr"/>
       <c r="G2008" t="inlineStr"/>
       <c r="H2008" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2009" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2009" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2009" t="inlineStr"/>
@@ -65309,32 +64979,28 @@
       <c r="G2009" t="inlineStr"/>
       <c r="H2009" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2010" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2010" t="inlineStr">
         <is>
-          <t>CPI FlashJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2010" t="inlineStr"/>
-      <c r="E2010" t="inlineStr">
-        <is>
-          <t>127.07</t>
-        </is>
-      </c>
+      <c r="E2010" t="inlineStr"/>
       <c r="F2010" t="inlineStr"/>
       <c r="G2010" t="inlineStr"/>
       <c r="H2010" t="inlineStr">
@@ -65346,676 +65012,58 @@
     <row r="2011">
       <c r="A2011" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2011" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2011" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2011" t="inlineStr"/>
       <c r="E2011" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2011" t="inlineStr"/>
       <c r="G2011" t="inlineStr"/>
       <c r="H2011" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2012">
-      <c r="A2012" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A2012" t="inlineStr"/>
       <c r="B2012" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2012" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2012" t="inlineStr"/>
       <c r="E2012" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>41.27K</t>
         </is>
       </c>
       <c r="F2012" t="inlineStr"/>
-      <c r="G2012" t="inlineStr"/>
+      <c r="G2012" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H2012" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2013">
-      <c r="A2013" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B2013" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2013" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2013" t="inlineStr"/>
-      <c r="E2013" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2013" t="inlineStr"/>
-      <c r="G2013" t="inlineStr"/>
-      <c r="H2013" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2014">
-      <c r="A2014" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B2014" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2014" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2014" t="inlineStr"/>
-      <c r="E2014" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F2014" t="inlineStr"/>
-      <c r="G2014" t="inlineStr"/>
-      <c r="H2014" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2015">
-      <c r="A2015" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B2015" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2015" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesDEC</t>
-        </is>
-      </c>
-      <c r="D2015" t="inlineStr"/>
-      <c r="E2015" t="inlineStr">
-        <is>
-          <t>$232.2B</t>
-        </is>
-      </c>
-      <c r="F2015" t="inlineStr"/>
-      <c r="G2015" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
-      <c r="H2015" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2016">
-      <c r="A2016" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B2016" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2016" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2016" t="inlineStr"/>
-      <c r="E2016" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
-      <c r="F2016" t="inlineStr"/>
-      <c r="G2016" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
-      <c r="H2016" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2017">
-      <c r="A2017" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B2017" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2017" t="inlineStr">
-        <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2017" t="inlineStr"/>
-      <c r="E2017" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F2017" t="inlineStr"/>
-      <c r="G2017" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
-      <c r="H2017" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2018">
-      <c r="A2018" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2018" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2018" t="inlineStr">
-        <is>
-          <t>Fed Bostic Speech</t>
-        </is>
-      </c>
-      <c r="D2018" t="inlineStr"/>
-      <c r="E2018" t="inlineStr"/>
-      <c r="F2018" t="inlineStr"/>
-      <c r="G2018" t="inlineStr"/>
-      <c r="H2018" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2019">
-      <c r="A2019" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2019" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2019" t="inlineStr">
-        <is>
-          <t>12-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D2019" t="inlineStr"/>
-      <c r="E2019" t="inlineStr"/>
-      <c r="F2019" t="inlineStr"/>
-      <c r="G2019" t="inlineStr"/>
-      <c r="H2019" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2020">
-      <c r="A2020" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2020" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2020" t="inlineStr">
-        <is>
-          <t>3-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D2020" t="inlineStr"/>
-      <c r="E2020" t="inlineStr"/>
-      <c r="F2020" t="inlineStr"/>
-      <c r="G2020" t="inlineStr"/>
-      <c r="H2020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2021">
-      <c r="A2021" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2021" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2021" t="inlineStr">
-        <is>
-          <t>6-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D2021" t="inlineStr"/>
-      <c r="E2021" t="inlineStr"/>
-      <c r="F2021" t="inlineStr"/>
-      <c r="G2021" t="inlineStr"/>
-      <c r="H2021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2022">
-      <c r="A2022" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2022" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2022" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2022" t="inlineStr"/>
-      <c r="E2022" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="F2022" t="inlineStr"/>
-      <c r="G2022" t="inlineStr"/>
-      <c r="H2022" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2023">
-      <c r="A2023" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B2023" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2023" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2023" t="inlineStr"/>
-      <c r="E2023" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2023" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2023" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="H2023" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2024">
-      <c r="A2024" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2024" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2024" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2024" t="inlineStr"/>
-      <c r="E2024" t="inlineStr">
-        <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F2024" t="inlineStr"/>
-      <c r="G2024" t="inlineStr"/>
-      <c r="H2024" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2025">
-      <c r="A2025" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2025" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2025" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
-        </is>
-      </c>
-      <c r="D2025" t="inlineStr"/>
-      <c r="E2025" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="F2025" t="inlineStr"/>
-      <c r="G2025" t="inlineStr"/>
-      <c r="H2025" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2026">
-      <c r="A2026" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2026" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2026" t="inlineStr">
-        <is>
-          <t>Construction Spending MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2026" t="inlineStr"/>
-      <c r="E2026" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F2026" t="inlineStr"/>
-      <c r="G2026" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2026" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2027">
-      <c r="A2027" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2027" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2027" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
-        </is>
-      </c>
-      <c r="D2027" t="inlineStr"/>
-      <c r="E2027" t="inlineStr"/>
-      <c r="F2027" t="inlineStr"/>
-      <c r="G2027" t="inlineStr"/>
-      <c r="H2027" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2028">
-      <c r="A2028" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2028" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2028" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing PricesJAN</t>
-        </is>
-      </c>
-      <c r="D2028" t="inlineStr"/>
-      <c r="E2028" t="inlineStr"/>
-      <c r="F2028" t="inlineStr"/>
-      <c r="G2028" t="inlineStr"/>
-      <c r="H2028" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2029">
-      <c r="A2029" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B2029" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2029" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2029" t="inlineStr"/>
-      <c r="E2029" t="inlineStr"/>
-      <c r="F2029" t="inlineStr"/>
-      <c r="G2029" t="inlineStr"/>
-      <c r="H2029" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2030">
-      <c r="A2030" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B2030" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2030" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2030" t="inlineStr"/>
-      <c r="E2030" t="inlineStr"/>
-      <c r="F2030" t="inlineStr"/>
-      <c r="G2030" t="inlineStr"/>
-      <c r="H2030" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2031">
-      <c r="A2031" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B2031" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2031" t="inlineStr">
-        <is>
-          <t>Treasury Refunding Financing Estimates</t>
-        </is>
-      </c>
-      <c r="D2031" t="inlineStr"/>
-      <c r="E2031" t="inlineStr"/>
-      <c r="F2031" t="inlineStr"/>
-      <c r="G2031" t="inlineStr"/>
-      <c r="H2031" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2032">
-      <c r="A2032" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B2032" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C2032" t="inlineStr">
-        <is>
-          <t>Tax RevenueJAN</t>
-        </is>
-      </c>
-      <c r="D2032" t="inlineStr"/>
-      <c r="E2032" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
-      <c r="F2032" t="inlineStr"/>
-      <c r="G2032" t="inlineStr"/>
-      <c r="H2032" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2033">
-      <c r="A2033" t="inlineStr"/>
-      <c r="B2033" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2033" t="inlineStr">
-        <is>
-          <t>Total New Vehicle SalesJAN</t>
-        </is>
-      </c>
-      <c r="D2033" t="inlineStr"/>
-      <c r="E2033" t="inlineStr">
-        <is>
-          <t>41.27K</t>
-        </is>
-      </c>
-      <c r="F2033" t="inlineStr"/>
-      <c r="G2033" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
-      <c r="H2033" t="inlineStr">
         <is>
           <t>3</t>
         </is>
